--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$55</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="232">
   <si>
     <t>vendorID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>driverName</t>
   </si>
   <si>
-    <t>version</t>
+    <t>5,</t>
   </si>
   <si>
     <t>type</t>
@@ -594,6 +594,18 @@
     <t>d136</t>
   </si>
   <si>
+    <t>2.3.2.18</t>
+  </si>
+  <si>
+    <t>2021.5.11</t>
+  </si>
+  <si>
+    <t>554DFB914E75278081ECBEC60A50AF95B0C7C543</t>
+  </si>
+  <si>
+    <t>847K</t>
+  </si>
+  <si>
     <t>SP580</t>
   </si>
   <si>
@@ -652,6 +664,48 @@
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm</t>
+  </si>
+  <si>
+    <t>d11c</t>
+  </si>
+  <si>
+    <t>2.15.9</t>
+  </si>
+  <si>
+    <t>13M</t>
+  </si>
+  <si>
+    <t>SP330</t>
+  </si>
+  <si>
+    <t>X710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm </t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>9.1M</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/igb-5.5.2-1.x86_64.rpm</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>5.0-0</t>
+  </si>
+  <si>
+    <t>970K</t>
+  </si>
+  <si>
+    <t>MCX4121A-XCAT</t>
+  </si>
+  <si>
+    <t>CX4</t>
   </si>
   <si>
     <t>板卡</t>
@@ -676,7 +730,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,9 +750,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -713,67 +781,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +809,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,9 +823,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,7 +871,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +882,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -874,37 +935,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,31 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,13 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,19 +1049,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,37 +1103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,32 +1144,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,20 +1177,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,156 +1226,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1342,6 +1403,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1369,6 +1431,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,10 +1448,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1732,86 +1803,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="40.75" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="32.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="8" customWidth="1"/>
-    <col min="17" max="17" width="170.375" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="32.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="7" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="9" customWidth="1"/>
+    <col min="17" max="17" width="170.375" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1861,7 +1932,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1869,214 +1940,214 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1015</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>1015</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>1017</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>1017</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2084,2183 +2155,2183 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>7.9</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="9">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>1017</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="9">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>1017</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="9">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>1077</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>2532</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="9">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>1077</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>2532</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="9">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>1007</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="9">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>1007</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="9">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>1002</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="9">
         <v>6320140</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>1002</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="9">
         <v>6320140</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>1002</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="9">
         <v>6320140</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>1002</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="9">
         <v>6320140</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>1015</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>1015</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="1:17">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>3714</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>3714</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="7">
         <v>1822</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="9">
         <v>1822</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="7">
         <v>1822</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="9">
         <v>1822</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="9">
         <v>38130153</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>1000</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>1000</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="7">
         <v>1521</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="7">
         <v>1521</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:17">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="7">
         <v>0.1</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="9">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="22" t="s">
+      <c r="Q29" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="9">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="21" t="s">
+      <c r="Q30" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:17">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>0.1</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="9">
         <v>6030216</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:17">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:17">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:17">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="N34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O34" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="P34" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:17">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="P35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>1000</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P36" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>1000</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="N37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="7">
         <v>3508</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="P37" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>1000</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M38" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <v>1000</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="7">
         <v>1017</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N40" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="9">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="21" t="s">
+      <c r="Q40" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="7">
         <v>1017</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="9">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="21" t="s">
+      <c r="Q41" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="7">
         <v>1015</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="O42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="9">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="21" t="s">
+      <c r="Q42" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="7">
         <v>1015</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="9">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="21" t="s">
+      <c r="Q43" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="7">
         <v>1015</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="F44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="P44" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="21" t="s">
+      <c r="Q44" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>8086</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="7">
         <v>1521</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="O45" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="P45" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:17">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>8086</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="F46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N46" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="20" t="s">
+      <c r="O46" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>8086</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="7">
         <v>1584</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="F47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="N47" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="O47" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="9">
         <v>6310111</v>
       </c>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="8" t="s">
+    <row r="48" s="6" customFormat="1" spans="1:17">
+      <c r="A48" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="19" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4273,263 +4344,406 @@
         <v>97</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="5:17">
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I49" s="6" t="s">
+      <c r="H49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M49" s="6" t="s">
+      <c r="J49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O49" s="20" t="s">
+      <c r="N49" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q49" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="5:17">
+      <c r="E50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="Q49" s="21" t="s">
+      <c r="I50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q50" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="5:17">
-      <c r="E50" s="6" t="s">
+    <row r="51" s="7" customFormat="1" spans="1:17">
+      <c r="A51" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" s="6" t="s">
+      <c r="F51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O51" s="9">
+        <v>3508</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" s="7" customFormat="1" spans="1:17">
+      <c r="A52" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="P52" s="9">
+        <v>6030276</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="1:17">
+      <c r="A53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="P53" s="9">
+        <v>6030276</v>
+      </c>
+      <c r="Q53" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="9">
+        <v>8086</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1572</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="O50" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q50" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" s="6" customFormat="1" spans="1:17">
-      <c r="A51" s="8">
-        <v>1000</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="L54" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q54" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="9">
+        <v>8086</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1521</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D55" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O51" s="8">
-        <v>3508</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q51" s="6" t="s">
+      <c r="F55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q55" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="1:17">
+      <c r="A56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1015</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:17">
-      <c r="A52" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P52" s="8">
-        <v>6030276</v>
-      </c>
-      <c r="Q52" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" s="6" customFormat="1" spans="1:17">
-      <c r="A53" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P53" s="8">
-        <v>6030276</v>
-      </c>
-      <c r="Q53" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q50">
+  <autoFilter ref="A1:Q55">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4552,6 +4766,8 @@
     <hyperlink ref="Q7" r:id="rId8" display="https://www.nvidia.com/Download/index.aspx"/>
     <hyperlink ref="Q52" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm"/>
     <hyperlink ref="Q53" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
+    <hyperlink ref="Q54" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q55" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/igb-5.5.2-1.x86_64.rpm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -4578,19 +4794,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$58</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="258">
   <si>
     <t>vendorID</t>
   </si>
@@ -681,18 +681,12 @@
     <t>X710</t>
   </si>
   <si>
+    <t>06310200</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm </t>
   </si>
   <si>
-    <t>5.5.2</t>
-  </si>
-  <si>
-    <t>9.1M</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/igb-5.5.2-1.x86_64.rpm</t>
-  </si>
-  <si>
     <t>0004</t>
   </si>
   <si>
@@ -706,6 +700,90 @@
   </si>
   <si>
     <t>CX4</t>
+  </si>
+  <si>
+    <t>06310161</t>
+  </si>
+  <si>
+    <t>14e4</t>
+  </si>
+  <si>
+    <t>16a1</t>
+  </si>
+  <si>
+    <t>e3c1</t>
+  </si>
+  <si>
+    <t>bnx2x</t>
+  </si>
+  <si>
+    <t>1.712.30-0</t>
+  </si>
+  <si>
+    <t>2020.12.23</t>
+  </si>
+  <si>
+    <t>1.3M</t>
+  </si>
+  <si>
+    <t>QLogic</t>
+  </si>
+  <si>
+    <t>QLE3442-RJ-SP</t>
+  </si>
+  <si>
+    <t>BCM57840</t>
+  </si>
+  <si>
+    <t>06310110</t>
+  </si>
+  <si>
+    <t>159b</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>1.4.11</t>
+  </si>
+  <si>
+    <t>32M</t>
+  </si>
+  <si>
+    <t>E810XXVDA2G1P5</t>
+  </si>
+  <si>
+    <t>E810-XXV</t>
+  </si>
+  <si>
+    <t>06310219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm </t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>da16</t>
+  </si>
+  <si>
+    <t>07.706.03.00-rc1</t>
+  </si>
+  <si>
+    <t>293K</t>
+  </si>
+  <si>
+    <t>SP460C-M</t>
+  </si>
+  <si>
+    <t>SAS3516</t>
+  </si>
+  <si>
+    <t>03024JNE</t>
   </si>
   <si>
     <t>板卡</t>
@@ -727,10 +805,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,12 +819,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF252B3A"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -773,7 +845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,23 +858,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,54 +873,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -878,16 +888,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,7 +911,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,7 +1007,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +1085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,109 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,31 +1133,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,9 +1218,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,21 +1232,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1251,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1207,22 +1284,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,10 +1319,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,131 +1331,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1447,13 +1519,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1803,12 +1880,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3784,7 +3861,7 @@
       <c r="N37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="24">
         <v>3508</v>
       </c>
       <c r="P37" s="7" t="s">
@@ -4218,7 +4295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:17">
+    <row r="46" spans="1:17">
       <c r="A46" s="9">
         <v>8086</v>
       </c>
@@ -4261,7 +4338,7 @@
       <c r="N46" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="24" t="s">
+      <c r="O46" s="9" t="s">
         <v>186</v>
       </c>
       <c r="Q46" s="7" t="s">
@@ -4374,7 +4451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="5:17">
+    <row r="49" spans="5:17">
       <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
@@ -4402,7 +4479,7 @@
       <c r="N49" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="O49" s="24" t="s">
+      <c r="O49" s="6" t="s">
         <v>201</v>
       </c>
       <c r="Q49" s="26" t="s">
@@ -4640,110 +4717,224 @@
       <c r="O54" s="7" t="s">
         <v>218</v>
       </c>
+      <c r="P54" s="29" t="s">
+        <v>219</v>
+      </c>
       <c r="Q54" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="9">
-        <v>8086</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="1:17">
+      <c r="A55" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B55" s="7">
-        <v>1521</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>19</v>
+        <v>1015</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>21</v>
+        <v>221</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>198</v>
+      <c r="J55" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q55" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" s="7" customFormat="1" spans="1:17">
-      <c r="A56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1015</v>
+        <v>225</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>34</v>
+        <v>229</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="25" t="s">
-        <v>191</v>
+      <c r="J56" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P56" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>237</v>
+      </c>
       <c r="Q56" s="7" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="9">
+        <v>8086</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q57" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="1:17">
+      <c r="A58" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q55">
+  <autoFilter ref="A1:Q58">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4767,7 +4958,7 @@
     <hyperlink ref="Q52" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm"/>
     <hyperlink ref="Q53" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
     <hyperlink ref="Q54" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q55" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/igb-5.5.2-1.x86_64.rpm"/>
+    <hyperlink ref="Q57" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -4794,19 +4985,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="262">
   <si>
     <t>vendorID</t>
   </si>
@@ -784,6 +784,18 @@
   </si>
   <si>
     <t>03024JNE</t>
+  </si>
+  <si>
+    <t>2021.04.25</t>
+  </si>
+  <si>
+    <t>LPe32002-AP</t>
+  </si>
+  <si>
+    <t>06030393</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64</t>
   </si>
   <si>
     <t>板卡</t>
@@ -803,10 +815,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -845,43 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,7 +872,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,6 +944,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,57 +985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,7 +1019,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,25 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1085,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,25 +1127,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,49 +1157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,13 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,25 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,68 +1230,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,16 +1266,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,138 +1343,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1518,9 +1530,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
@@ -1880,12 +1889,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2065,7 +2074,7 @@
       <c r="P3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2118,7 +2127,7 @@
       <c r="P4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2171,7 +2180,7 @@
       <c r="P5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2224,7 +2233,7 @@
       <c r="P6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2277,7 +2286,7 @@
       <c r="P7" s="9">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2330,7 +2339,7 @@
       <c r="P8" s="9">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2383,7 +2392,7 @@
       <c r="P9" s="9">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2436,7 +2445,7 @@
       <c r="P10" s="9">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2489,7 +2498,7 @@
       <c r="P11" s="9">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2542,7 +2551,7 @@
       <c r="P12" s="9">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2595,7 +2604,7 @@
       <c r="P13" s="9">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2860,7 +2869,7 @@
       <c r="P18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2913,7 +2922,7 @@
       <c r="P19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3443,7 +3452,7 @@
       <c r="P29" s="9">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="26" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3496,7 +3505,7 @@
       <c r="P30" s="9">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="25" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3861,7 +3870,7 @@
       <c r="N37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="9">
         <v>3508</v>
       </c>
       <c r="P37" s="7" t="s">
@@ -4026,7 +4035,7 @@
       <c r="P40" s="9">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="26" t="s">
+      <c r="Q40" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4079,7 +4088,7 @@
       <c r="P41" s="9">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="26" t="s">
+      <c r="Q41" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4132,7 +4141,7 @@
       <c r="P42" s="9">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="26" t="s">
+      <c r="Q42" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4185,7 +4194,7 @@
       <c r="P43" s="9">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="26" t="s">
+      <c r="Q43" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4238,7 +4247,7 @@
       <c r="P44" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="26" t="s">
+      <c r="Q44" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4482,7 +4491,7 @@
       <c r="O49" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q49" s="26" t="s">
+      <c r="Q49" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4517,7 +4526,7 @@
       <c r="O50" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="26" t="s">
+      <c r="Q50" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4620,7 +4629,7 @@
       <c r="P52" s="9">
         <v>6030276</v>
       </c>
-      <c r="Q52" s="28" t="s">
+      <c r="Q52" s="27" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4670,7 +4679,7 @@
       <c r="P53" s="9">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="26" t="s">
+      <c r="Q53" s="25" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4717,10 +4726,10 @@
       <c r="O54" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P54" s="29" t="s">
+      <c r="P54" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="Q54" s="26" t="s">
+      <c r="Q54" s="25" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4752,7 +4761,7 @@
       <c r="I55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="24" t="s">
         <v>191</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -4770,7 +4779,7 @@
       <c r="O55" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P55" s="29" t="s">
+      <c r="P55" s="28" t="s">
         <v>226</v>
       </c>
       <c r="Q55" s="7" t="s">
@@ -4823,7 +4832,7 @@
       <c r="O56" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P56" s="29" t="s">
+      <c r="P56" s="28" t="s">
         <v>237</v>
       </c>
       <c r="Q56" s="7" t="s">
@@ -4873,10 +4882,10 @@
       <c r="O57" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P57" s="29" t="s">
+      <c r="P57" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="Q57" s="26" t="s">
+      <c r="Q57" s="25" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4908,7 +4917,7 @@
       <c r="I58" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="J58" s="24" t="s">
         <v>191</v>
       </c>
       <c r="K58" s="7" t="s">
@@ -4931,6 +4940,57 @@
       </c>
       <c r="Q58" s="7" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="1:17">
+      <c r="A59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4959,6 +5019,7 @@
     <hyperlink ref="Q53" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
     <hyperlink ref="Q54" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
     <hyperlink ref="Q57" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
+    <hyperlink ref="Q59" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -4985,19 +5046,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="271">
   <si>
     <t>vendorID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>driverName</t>
   </si>
   <si>
-    <t>5,</t>
+    <t>version</t>
   </si>
   <si>
     <t>type</t>
@@ -615,6 +615,12 @@
     <t>02312QRP</t>
   </si>
   <si>
+    <t>2020.12.13</t>
+  </si>
+  <si>
+    <t>944K</t>
+  </si>
+  <si>
     <t>460.73.01</t>
   </si>
   <si>
@@ -672,7 +678,7 @@
     <t>2.15.9</t>
   </si>
   <si>
-    <t>13M</t>
+    <t>2.4M</t>
   </si>
   <si>
     <t>SP330</t>
@@ -684,6 +690,12 @@
     <t>06310200</t>
   </si>
   <si>
+    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm </t>
+  </si>
+  <si>
+    <t>2.5M</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm </t>
   </si>
   <si>
@@ -705,6 +717,9 @@
     <t>06310161</t>
   </si>
   <si>
+    <t>1.4M</t>
+  </si>
+  <si>
     <t>14e4</t>
   </si>
   <si>
@@ -796,6 +811,18 @@
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>d138</t>
+  </si>
+  <si>
+    <t>SP582</t>
+  </si>
+  <si>
+    <t>03026OWB</t>
   </si>
   <si>
     <t>板卡</t>
@@ -815,12 +842,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,6 +867,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -857,55 +890,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,9 +934,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,7 +957,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +1004,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -958,7 +1012,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,27 +1020,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,13 +1052,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,127 +1136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1160,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,19 +1184,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,15 +1261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1252,52 +1276,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,8 +1303,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,10 +1364,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,138 +1376,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1488,7 +1521,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1522,6 +1557,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,14 +1573,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1889,86 +1928,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="40.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="32.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="9" customWidth="1"/>
-    <col min="17" max="17" width="170.375" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="11" customWidth="1"/>
+    <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2018,7 +2057,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2026,214 +2065,214 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>1015</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>1015</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>1017</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>1017</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2241,2183 +2280,2183 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>7.9</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="11">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>1017</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="11">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>1017</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="11">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>1077</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="18">
         <v>2532</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="11">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>1077</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="18">
         <v>2532</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="11">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1007</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="11">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>1007</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="11">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <v>1002</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="11">
         <v>6320140</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>1002</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="11">
         <v>6320140</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>1002</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="11">
         <v>6320140</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>1002</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="11">
         <v>6320140</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>1015</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>1015</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="1:17">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>3714</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>3714</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>1822</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="11">
         <v>1822</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>1822</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="11">
         <v>1822</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="11">
         <v>38130153</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="9">
+      <c r="A25" s="11">
         <v>1000</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="9">
+      <c r="A26" s="11">
         <v>1000</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>1521</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>1521</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:17">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>0.1</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="11">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="26" t="s">
+      <c r="Q29" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="11">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:17">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="10">
         <v>0.1</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="11">
         <v>6030216</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:17">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:17">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:17">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:17">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="Q35" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="8">
+      <c r="A36" s="10">
         <v>1000</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="F36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="9">
+      <c r="A37" s="11">
         <v>1000</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="11">
         <v>3508</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="9">
+      <c r="A38" s="11">
         <v>1000</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="9">
+      <c r="A39" s="11">
         <v>1000</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="Q39" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>1017</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="11">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="25" t="s">
+      <c r="Q40" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>1017</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="11">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="25" t="s">
+      <c r="Q41" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>1015</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="F42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="11">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="25" t="s">
+      <c r="Q42" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>1015</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="11">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="25" t="s">
+      <c r="Q43" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>1015</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="9" t="s">
+      <c r="P44" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="25" t="s">
+      <c r="Q44" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="9">
+      <c r="A45" s="11">
         <v>8086</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>1521</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="F45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="9" t="s">
+      <c r="O45" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="9" t="s">
+      <c r="P45" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="Q45" s="7" t="s">
+      <c r="Q45" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="9">
+      <c r="A46" s="11">
         <v>8086</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="F46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="N46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="9" t="s">
+      <c r="O46" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="Q46" s="7" t="s">
+      <c r="Q46" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="9">
+      <c r="A47" s="11">
         <v>8086</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>1584</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="F47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="11">
         <v>6310111</v>
       </c>
-      <c r="Q47" s="7" t="s">
+      <c r="Q47" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="21" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4453,548 +4492,809 @@
       <c r="O48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P48" s="18" t="s">
+      <c r="P48" s="20" t="s">
         <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="5:17">
-      <c r="E49" s="7" t="s">
+    <row r="49" s="7" customFormat="1" spans="1:17">
+      <c r="A49" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1822</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="F49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="5:17">
+      <c r="E50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H50" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="5:17">
+      <c r="E51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q51" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="1:17">
+      <c r="A52" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O52" s="11">
+        <v>3508</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" spans="1:17">
+      <c r="A53" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="P53" s="11">
+        <v>6030276</v>
+      </c>
+      <c r="Q53" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="1:17">
+      <c r="A54" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="P54" s="11">
+        <v>6030276</v>
+      </c>
+      <c r="Q54" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:17">
+      <c r="A55" s="11">
+        <v>8086</v>
+      </c>
+      <c r="B55" s="18">
+        <v>1572</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P55" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q55" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="11">
+        <v>8086</v>
+      </c>
+      <c r="B56" s="18">
+        <v>1572</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q56" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" s="8" customFormat="1" spans="1:17">
+      <c r="A57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1015</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P57" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="1:17">
+      <c r="A58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1015</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="K58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P59" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="11">
+        <v>8086</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="P60" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q60" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" s="8" customFormat="1" spans="1:17">
+      <c r="A61" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P61" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:17">
+      <c r="A62" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P62" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q62" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" s="9" customFormat="1" spans="1:17">
+      <c r="A63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q49" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17">
-      <c r="E50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q50" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" s="7" customFormat="1" spans="1:17">
-      <c r="A51" s="9">
-        <v>1000</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="M63" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="P63" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" s="9" customFormat="1" spans="1:17">
+      <c r="A64" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="O51" s="9">
-        <v>3508</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q51" s="7" t="s">
+      <c r="B64" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="P64" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:17">
-      <c r="A52" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="P52" s="9">
-        <v>6030276</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" s="7" customFormat="1" spans="1:17">
-      <c r="A53" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="P53" s="9">
-        <v>6030276</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="9">
-        <v>8086</v>
-      </c>
-      <c r="B54" s="16">
-        <v>1572</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P54" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q54" s="25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" s="7" customFormat="1" spans="1:17">
-      <c r="A55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="7">
-        <v>1015</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P55" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P56" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="9">
-        <v>8086</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P57" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q57" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" s="7" customFormat="1" spans="1:17">
-      <c r="A58" s="9">
-        <v>1000</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P58" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" s="7" customFormat="1" spans="1:17">
-      <c r="A59" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P59" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q59" s="25" t="s">
-        <v>257</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q58">
+  <autoFilter ref="A1:Q62">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5015,11 +5315,12 @@
     <hyperlink ref="Q42" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
     <hyperlink ref="Q40" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
     <hyperlink ref="Q7" r:id="rId8" display="https://www.nvidia.com/Download/index.aspx"/>
-    <hyperlink ref="Q52" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm"/>
-    <hyperlink ref="Q53" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
-    <hyperlink ref="Q54" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q57" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
-    <hyperlink ref="Q59" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
+    <hyperlink ref="Q53" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm"/>
+    <hyperlink ref="Q54" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
+    <hyperlink ref="Q56" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q60" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
+    <hyperlink ref="Q62" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
+    <hyperlink ref="Q55" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -5046,19 +5347,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler20.03-LTS-SP1两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="309">
   <si>
     <t>vendorID</t>
   </si>
@@ -823,6 +823,120 @@
   </si>
   <si>
     <t>03026OWB</t>
+  </si>
+  <si>
+    <t>2532</t>
+  </si>
+  <si>
+    <t>015D</t>
+  </si>
+  <si>
+    <t>10.01.00.63.08.0-k</t>
+  </si>
+  <si>
+    <t>2020.4.21</t>
+  </si>
+  <si>
+    <t>523 KB</t>
+  </si>
+  <si>
+    <t>Marvell/Qlogic</t>
+  </si>
+  <si>
+    <t>QLE2562</t>
+  </si>
+  <si>
+    <t>06030220</t>
+  </si>
+  <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>029B</t>
+  </si>
+  <si>
+    <t>10.02.04.00-k</t>
+  </si>
+  <si>
+    <t>2021.1.25</t>
+  </si>
+  <si>
+    <t>577 KB</t>
+  </si>
+  <si>
+    <t>QLE2690</t>
+  </si>
+  <si>
+    <t>ISP2722</t>
+  </si>
+  <si>
+    <t>06030381</t>
+  </si>
+  <si>
+    <t>029C</t>
+  </si>
+  <si>
+    <t>QLE2692</t>
+  </si>
+  <si>
+    <t>06030382</t>
+  </si>
+  <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>QLE2740</t>
+  </si>
+  <si>
+    <t>06030390</t>
+  </si>
+  <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65</t>
+  </si>
+  <si>
+    <t>029A</t>
+  </si>
+  <si>
+    <t>QLE2742</t>
+  </si>
+  <si>
+    <t>06030392</t>
+  </si>
+  <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>02F0</t>
+  </si>
+  <si>
+    <t>QLE2770</t>
+  </si>
+  <si>
+    <t>ISP2812</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65</t>
+  </si>
+  <si>
+    <t>02E4</t>
+  </si>
+  <si>
+    <t>QLE2772</t>
+  </si>
+  <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65</t>
   </si>
   <si>
     <t>板卡</t>
@@ -843,9 +957,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -890,28 +1004,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -919,25 +1027,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,19 +1048,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,17 +1063,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,7 +1079,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1012,9 +1095,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,13 +1166,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,67 +1268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,37 +1280,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,25 +1322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,13 +1340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,17 +1375,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,8 +1393,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,9 +1416,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,37 +1449,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,10 +1478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,138 +1490,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1523,7 +1637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1579,6 +1692,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1928,24 +2044,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="11" style="8" customWidth="1"/>
     <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="40.75" style="8" customWidth="1"/>
@@ -1953,61 +2069,61 @@
     <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="10" customWidth="1"/>
     <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2057,7 +2173,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2071,10 +2187,10 @@
       <c r="B3" s="8">
         <v>1015</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2110,10 +2226,10 @@
       <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2124,10 +2240,10 @@
       <c r="B4" s="8">
         <v>1015</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2163,10 +2279,10 @@
       <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2177,10 +2293,10 @@
       <c r="B5" s="8">
         <v>1017</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2216,10 +2332,10 @@
       <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2230,10 +2346,10 @@
       <c r="B6" s="8">
         <v>1017</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2269,10 +2385,10 @@
       <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2280,13 +2396,13 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2322,10 +2438,10 @@
       <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2336,10 +2452,10 @@
       <c r="B8" s="8">
         <v>1017</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2375,10 +2491,10 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2389,10 +2505,10 @@
       <c r="B9" s="8">
         <v>1017</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2428,24 +2544,24 @@
       <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>1077</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>2532</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2481,24 +2597,24 @@
       <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>1077</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>2532</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2534,10 +2650,10 @@
       <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="29" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2548,10 +2664,10 @@
       <c r="B12" s="8">
         <v>1007</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2587,10 +2703,10 @@
       <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2601,10 +2717,10 @@
       <c r="B13" s="8">
         <v>1007</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -2640,24 +2756,24 @@
       <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>1002</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2693,7 +2809,7 @@
       <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="10">
         <v>6320140</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -2701,16 +2817,16 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>1002</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2746,7 +2862,7 @@
       <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="10">
         <v>6320140</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -2754,16 +2870,16 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>1002</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2799,7 +2915,7 @@
       <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="10">
         <v>6320140</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -2807,16 +2923,16 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>1002</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2852,7 +2968,7 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="10">
         <v>6320140</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -2866,10 +2982,10 @@
       <c r="B18" s="8">
         <v>1015</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2905,10 +3021,10 @@
       <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2919,10 +3035,10 @@
       <c r="B19" s="8">
         <v>1015</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2958,24 +3074,24 @@
       <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="1:17">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="8">
         <v>3714</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -3011,7 +3127,7 @@
       <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="10" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3019,16 +3135,16 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>3714</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -3064,7 +3180,7 @@
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="10" t="s">
         <v>95</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3072,16 +3188,16 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="8">
         <v>1822</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3114,10 +3230,10 @@
       <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <v>1822</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3125,16 +3241,16 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="8">
         <v>1822</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -3167,10 +3283,10 @@
       <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <v>1822</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="10" t="s">
         <v>101</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3178,16 +3294,16 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -3223,7 +3339,7 @@
       <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="10">
         <v>38130153</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3231,16 +3347,16 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1000</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -3276,7 +3392,7 @@
       <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="10" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3284,16 +3400,16 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>1000</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3329,7 +3445,7 @@
       <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="10" t="s">
         <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3337,7 +3453,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="8">
@@ -3382,7 +3498,7 @@
       <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3390,7 +3506,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="8">
@@ -3435,7 +3551,7 @@
       <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="10" t="s">
         <v>128</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3446,7 +3562,7 @@
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3476,7 +3592,7 @@
       <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="26" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="8" t="s">
@@ -3488,10 +3604,10 @@
       <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="10">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="31" t="s">
+      <c r="Q29" s="30" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3499,13 +3615,13 @@
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3541,51 +3657,51 @@
       <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="10">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:17">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>0.1</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="9" t="s">
         <v>135</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -3594,7 +3710,7 @@
       <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="10">
         <v>6030216</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -3602,43 +3718,43 @@
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:17">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="9" t="s">
         <v>92</v>
       </c>
       <c r="N32" s="8" t="s">
@@ -3655,43 +3771,43 @@
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:17">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="9" t="s">
         <v>92</v>
       </c>
       <c r="N33" s="8" t="s">
@@ -3708,43 +3824,43 @@
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:17">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="F34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="8" t="s">
@@ -3761,43 +3877,43 @@
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:17">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="9" t="s">
         <v>92</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -3814,43 +3930,43 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>1000</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="9" t="s">
         <v>117</v>
       </c>
       <c r="N36" s="8" t="s">
@@ -3867,16 +3983,16 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>1000</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>162</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -3900,7 +4016,7 @@
       <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="26" t="s">
         <v>159</v>
       </c>
       <c r="M37" s="8" t="s">
@@ -3909,7 +4025,7 @@
       <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="10">
         <v>3508</v>
       </c>
       <c r="P37" s="8" t="s">
@@ -3920,16 +4036,16 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>1000</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -3953,7 +4069,7 @@
       <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="26" t="s">
         <v>159</v>
       </c>
       <c r="M38" s="8" t="s">
@@ -3965,7 +4081,7 @@
       <c r="O38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="10" t="s">
         <v>170</v>
       </c>
       <c r="Q38" s="8" t="s">
@@ -3973,16 +4089,16 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>1000</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -4006,7 +4122,7 @@
       <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="L39" s="26" t="s">
         <v>159</v>
       </c>
       <c r="M39" s="8" t="s">
@@ -4018,7 +4134,7 @@
       <c r="O39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="10" t="s">
         <v>170</v>
       </c>
       <c r="Q39" s="8" t="s">
@@ -4026,16 +4142,16 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="8">
         <v>1017</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -4071,24 +4187,24 @@
       <c r="O40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="10">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="30" t="s">
+      <c r="Q40" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8">
         <v>1017</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -4124,24 +4240,24 @@
       <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="10">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q41" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="8">
         <v>1015</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>174</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -4177,24 +4293,24 @@
       <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="10">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="30" t="s">
+      <c r="Q42" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8">
         <v>1015</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>174</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -4230,24 +4346,24 @@
       <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="10">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="30" t="s">
+      <c r="Q43" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="8">
         <v>1015</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -4283,24 +4399,24 @@
       <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="30" t="s">
+      <c r="Q44" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>8086</v>
       </c>
       <c r="B45" s="8">
         <v>1521</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -4333,10 +4449,10 @@
       <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="10" t="s">
         <v>180</v>
       </c>
       <c r="Q45" s="8" t="s">
@@ -4344,16 +4460,16 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>8086</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -4386,7 +4502,7 @@
       <c r="N46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="10" t="s">
         <v>186</v>
       </c>
       <c r="Q46" s="8" t="s">
@@ -4394,16 +4510,16 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>8086</v>
       </c>
       <c r="B47" s="8">
         <v>1584</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -4439,7 +4555,7 @@
       <c r="O47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="10">
         <v>6310111</v>
       </c>
       <c r="Q47" s="8" t="s">
@@ -4447,16 +4563,16 @@
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4492,7 +4608,7 @@
       <c r="O48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P48" s="20" t="s">
+      <c r="P48" s="19" t="s">
         <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -4500,16 +4616,16 @@
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:17">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="6">
         <v>1822</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4545,7 +4661,7 @@
       <c r="O49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="19" t="s">
         <v>196</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -4583,7 +4699,7 @@
       <c r="O50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="30" t="s">
+      <c r="Q50" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4618,21 +4734,21 @@
       <c r="O51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q51" s="30" t="s">
+      <c r="Q51" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:17">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>1000</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -4656,7 +4772,7 @@
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="26" t="s">
         <v>159</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -4665,7 +4781,7 @@
       <c r="N52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="10">
         <v>3508</v>
       </c>
       <c r="P52" s="8" t="s">
@@ -4676,16 +4792,16 @@
       </c>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:17">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -4706,7 +4822,7 @@
       <c r="J53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="27" t="s">
+      <c r="L53" s="26" t="s">
         <v>211</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -4715,27 +4831,27 @@
       <c r="N53" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="10">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="32" t="s">
+      <c r="Q53" s="31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:17">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -4756,7 +4872,7 @@
       <c r="J54" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="26" t="s">
         <v>141</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -4765,27 +4881,27 @@
       <c r="N54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="10">
         <v>6030276</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:17">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>8086</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>1572</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -4806,7 +4922,7 @@
       <c r="J55" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="L55" s="26" t="s">
         <v>218</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -4818,27 +4934,27 @@
       <c r="O55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="22" t="s">
+      <c r="P55" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="Q55" s="32" t="s">
+      <c r="Q55" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>8086</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="17">
         <v>1572</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -4868,10 +4984,10 @@
       <c r="O56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="22" t="s">
+      <c r="P56" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="Q56" s="30" t="s">
+      <c r="Q56" s="29" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4882,10 +4998,10 @@
       <c r="B57" s="8">
         <v>1015</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -4903,7 +5019,7 @@
       <c r="I57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="28" t="s">
+      <c r="J57" s="27" t="s">
         <v>191</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -4921,7 +5037,7 @@
       <c r="O57" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P57" s="22" t="s">
+      <c r="P57" s="21" t="s">
         <v>230</v>
       </c>
       <c r="Q57" s="8" t="s">
@@ -4935,13 +5051,13 @@
       <c r="B58" s="6">
         <v>1015</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -4974,27 +5090,27 @@
       <c r="O58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="P58" s="24" t="s">
+      <c r="P58" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="Q58" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -5027,7 +5143,7 @@
       <c r="O59" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P59" s="22" t="s">
+      <c r="P59" s="21" t="s">
         <v>242</v>
       </c>
       <c r="Q59" s="8" t="s">
@@ -5035,19 +5151,19 @@
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>8086</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -5077,24 +5193,24 @@
       <c r="O60" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="P60" s="22" t="s">
+      <c r="P60" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="Q60" s="30" t="s">
+      <c r="Q60" s="29" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:17">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>1000</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -5112,7 +5228,7 @@
       <c r="I61" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="27" t="s">
         <v>191</v>
       </c>
       <c r="K61" s="8" t="s">
@@ -5130,7 +5246,7 @@
       <c r="O61" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="P61" s="22" t="s">
+      <c r="P61" s="21" t="s">
         <v>258</v>
       </c>
       <c r="Q61" s="8" t="s">
@@ -5141,16 +5257,16 @@
       <c r="A62" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="8" t="s">
@@ -5180,27 +5296,27 @@
       <c r="O62" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P62" s="22" t="s">
+      <c r="P62" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="Q62" s="30" t="s">
+      <c r="Q62" s="29" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" s="9" customFormat="1" spans="1:17">
-      <c r="A63" s="20" t="s">
+    <row r="63" s="6" customFormat="1" spans="1:17">
+      <c r="A63" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -5212,7 +5328,7 @@
       <c r="H63" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J63" s="6" t="s">
@@ -5224,33 +5340,33 @@
       <c r="L63" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="M63" s="29" t="s">
+      <c r="M63" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N63" s="29" t="s">
+      <c r="N63" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="O63" s="29" t="s">
+      <c r="O63" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="P63" s="24" t="s">
+      <c r="P63" s="23" t="s">
         <v>266</v>
       </c>
       <c r="Q63" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" s="9" customFormat="1" spans="1:17">
-      <c r="A64" s="20" t="s">
+    <row r="64" s="6" customFormat="1" spans="1:17">
+      <c r="A64" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="20" t="s">
         <v>264</v>
       </c>
       <c r="E64" s="6" t="s">
@@ -5265,7 +5381,7 @@
       <c r="H64" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J64" s="6" t="s">
@@ -5277,24 +5393,374 @@
       <c r="L64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="M64" s="29" t="s">
+      <c r="M64" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N64" s="29" t="s">
+      <c r="N64" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="O64" s="29" t="s">
+      <c r="O64" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="P64" s="24" t="s">
+      <c r="P64" s="23" t="s">
         <v>266</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="65" s="8" customFormat="1" spans="1:17">
+      <c r="A65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q65" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" s="8" customFormat="1" spans="1:17">
+      <c r="A66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P66" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" s="8" customFormat="1" spans="1:17">
+      <c r="A67" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P67" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" s="8" customFormat="1" spans="1:17">
+      <c r="A68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P68" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" s="8" customFormat="1" spans="1:17">
+      <c r="A69" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P69" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" s="8" customFormat="1" spans="1:17">
+      <c r="A70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" s="8" customFormat="1" spans="1:17">
+      <c r="A71" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q62">
+  <autoFilter ref="A1:Q71">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5321,6 +5787,13 @@
     <hyperlink ref="Q60" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
     <hyperlink ref="Q62" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
     <hyperlink ref="Q55" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q65" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
+    <hyperlink ref="Q66" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
+    <hyperlink ref="Q67" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65"/>
+    <hyperlink ref="Q68" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65"/>
+    <hyperlink ref="Q69" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65"/>
+    <hyperlink ref="Q70" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65"/>
+    <hyperlink ref="Q71" r:id="rId20" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -5347,19 +5820,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7410"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler20.03-LTS-SP1两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$72</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="310">
   <si>
     <t>vendorID</t>
   </si>
@@ -735,22 +735,25 @@
     <t>1.712.30-0</t>
   </si>
   <si>
+    <t>2021.3.11</t>
+  </si>
+  <si>
+    <t>1.3M</t>
+  </si>
+  <si>
+    <t>QLogic</t>
+  </si>
+  <si>
+    <t>QLE3442-RJ-SP</t>
+  </si>
+  <si>
+    <t>BCM57840</t>
+  </si>
+  <si>
+    <t>06310110</t>
+  </si>
+  <si>
     <t>2020.12.23</t>
-  </si>
-  <si>
-    <t>1.3M</t>
-  </si>
-  <si>
-    <t>QLogic</t>
-  </si>
-  <si>
-    <t>QLE3442-RJ-SP</t>
-  </si>
-  <si>
-    <t>BCM57840</t>
-  </si>
-  <si>
-    <t>06310110</t>
   </si>
   <si>
     <t>159b</t>
@@ -956,10 +959,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1004,6 +1007,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1013,6 +1023,65 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,67 +1104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,8 +1126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,13 +1139,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1166,7 +1169,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,7 +1193,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,37 +1241,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1289,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,73 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,25 +1349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1397,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,26 +1413,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,6 +1436,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1478,10 +1481,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1490,131 +1493,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -2044,12 +2047,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5111,7 +5114,7 @@
         <v>234</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>22</v>
@@ -5129,7 +5132,7 @@
         <v>237</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>238</v>
@@ -5150,18 +5153,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="10">
-        <v>8086</v>
+    <row r="60" s="8" customFormat="1" spans="1:17">
+      <c r="A60" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>21</v>
@@ -5170,190 +5173,190 @@
         <v>22</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="10">
+        <v>8086</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="L61" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N60" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="O60" s="8" t="s">
+      <c r="N61" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="P60" s="21" t="s">
+      <c r="O61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="Q60" s="29" t="s">
+      <c r="P61" s="21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="61" s="8" customFormat="1" spans="1:17">
-      <c r="A61" s="10">
+      <c r="Q61" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:17">
+      <c r="A62" s="10">
         <v>1000</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B62" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="D62" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="8" t="s">
+      <c r="F62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I61" s="8" t="s">
+      <c r="H62" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J61" s="27" t="s">
+      <c r="J62" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="L62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M62" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N61" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O61" s="8" t="s">
+      <c r="N62" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="P61" s="21" t="s">
+      <c r="O62" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="P62" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q62" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" s="8" customFormat="1" spans="1:17">
-      <c r="A62" s="8" t="s">
+    <row r="63" s="8" customFormat="1" spans="1:17">
+      <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B63" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E63" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="8" t="s">
+      <c r="F63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="L62" s="8" t="s">
+      <c r="J63" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L63" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M63" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N62" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="O62" s="8" t="s">
+      <c r="N63" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O63" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P62" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q62" s="29" t="s">
+      <c r="P63" s="21" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="63" s="6" customFormat="1" spans="1:17">
-      <c r="A63" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="22" t="s">
+      <c r="Q63" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="M63" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="N63" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="O63" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="P63" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:17">
@@ -5361,16 +5364,16 @@
         <v>19</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>34</v>
+        <v>265</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>22</v>
@@ -5385,92 +5388,95 @@
         <v>25</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M64" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N64" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O64" s="28" t="s">
         <v>195</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" s="8" customFormat="1" spans="1:17">
-      <c r="A65" s="9" t="s">
-        <v>54</v>
+    <row r="65" s="6" customFormat="1" spans="1:17">
+      <c r="A65" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B65" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M65" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O65" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="P65" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="10">
-        <v>1077</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P65" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q65" s="31" t="s">
-        <v>275</v>
+      <c r="Q65" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" s="8" customFormat="1" spans="1:17">
       <c r="A66" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>276</v>
+      <c r="B66" s="22" t="s">
+        <v>268</v>
       </c>
       <c r="C66" s="10">
         <v>1077</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>277</v>
+      <c r="D66" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>21</v>
@@ -5482,31 +5488,31 @@
         <v>56</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>282</v>
+        <v>63</v>
       </c>
       <c r="P66" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q66" s="29" t="s">
         <v>275</v>
+      </c>
+      <c r="Q66" s="31" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="67" s="8" customFormat="1" spans="1:17">
@@ -5514,13 +5520,13 @@
         <v>54</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C67" s="10">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>21</v>
@@ -5532,31 +5538,31 @@
         <v>56</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P67" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q67" s="29" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:17">
@@ -5564,13 +5570,13 @@
         <v>54</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C68" s="10">
         <v>1077</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>288</v>
+      <c r="D68" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>21</v>
@@ -5582,31 +5588,31 @@
         <v>56</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P68" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q68" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:17">
@@ -5614,13 +5620,13 @@
         <v>54</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C69" s="10">
         <v>1077</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>292</v>
+      <c r="D69" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>21</v>
@@ -5632,31 +5638,31 @@
         <v>56</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P69" s="32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q69" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" s="8" customFormat="1" spans="1:17">
@@ -5664,13 +5670,13 @@
         <v>54</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C70" s="10">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>21</v>
@@ -5682,31 +5688,31 @@
         <v>56</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="P70" s="19" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="P70" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="Q70" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" s="8" customFormat="1" spans="1:17">
@@ -5714,13 +5720,13 @@
         <v>54</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C71" s="10">
         <v>1077</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>302</v>
+      <c r="D71" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>21</v>
@@ -5732,35 +5738,85 @@
         <v>56</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" s="8" customFormat="1" spans="1:17">
+      <c r="A72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="I72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="M71" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="N71" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="P71" s="19" t="s">
+      <c r="L72" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="O72" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="Q71" s="29" t="s">
-        <v>304</v>
+      <c r="P72" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q71">
+  <autoFilter ref="A1:Q72">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5784,16 +5840,16 @@
     <hyperlink ref="Q53" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm"/>
     <hyperlink ref="Q54" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
     <hyperlink ref="Q56" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q60" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
-    <hyperlink ref="Q62" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
+    <hyperlink ref="Q61" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
+    <hyperlink ref="Q63" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
     <hyperlink ref="Q55" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q65" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
     <hyperlink ref="Q66" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
-    <hyperlink ref="Q67" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65"/>
-    <hyperlink ref="Q68" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65"/>
-    <hyperlink ref="Q69" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65"/>
-    <hyperlink ref="Q70" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65"/>
-    <hyperlink ref="Q71" r:id="rId20" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65"/>
+    <hyperlink ref="Q67" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
+    <hyperlink ref="Q68" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65"/>
+    <hyperlink ref="Q69" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65"/>
+    <hyperlink ref="Q70" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65"/>
+    <hyperlink ref="Q71" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65"/>
+    <hyperlink ref="Q72" r:id="rId20" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -5820,19 +5876,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$70</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="300">
   <si>
     <t>vendorID</t>
   </si>
@@ -834,13 +834,16 @@
     <t>015D</t>
   </si>
   <si>
-    <t>10.01.00.63.08.0-k</t>
-  </si>
-  <si>
-    <t>2020.4.21</t>
-  </si>
-  <si>
-    <t>523 KB</t>
+    <t>openEuler 20.03 LTS</t>
+  </si>
+  <si>
+    <t>10.02.04.00-k</t>
+  </si>
+  <si>
+    <t>2021.1.25</t>
+  </si>
+  <si>
+    <t>577 KB</t>
   </si>
   <si>
     <t>Marvell/Qlogic</t>
@@ -852,7 +855,7 @@
     <t>06030220</t>
   </si>
   <si>
-    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65</t>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222</t>
   </si>
   <si>
     <t>2261</t>
@@ -861,15 +864,6 @@
     <t>029B</t>
   </si>
   <si>
-    <t>10.02.04.00-k</t>
-  </si>
-  <si>
-    <t>2021.1.25</t>
-  </si>
-  <si>
-    <t>577 KB</t>
-  </si>
-  <si>
     <t>QLE2690</t>
   </si>
   <si>
@@ -879,6 +873,9 @@
     <t>06030381</t>
   </si>
   <si>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222</t>
+  </si>
+  <si>
     <t>029C</t>
   </si>
   <si>
@@ -888,7 +885,7 @@
     <t>06030382</t>
   </si>
   <si>
-    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65</t>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222</t>
   </si>
   <si>
     <t>0299</t>
@@ -900,7 +897,7 @@
     <t>06030390</t>
   </si>
   <si>
-    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65</t>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1260&amp;Os=222</t>
   </si>
   <si>
     <t>029A</t>
@@ -912,34 +909,7 @@
     <t>06030392</t>
   </si>
   <si>
-    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65</t>
-  </si>
-  <si>
-    <t>2281</t>
-  </si>
-  <si>
-    <t>02F0</t>
-  </si>
-  <si>
-    <t>QLE2770</t>
-  </si>
-  <si>
-    <t>ISP2812</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65</t>
-  </si>
-  <si>
-    <t>02E4</t>
-  </si>
-  <si>
-    <t>QLE2772</t>
-  </si>
-  <si>
-    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65</t>
+    <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1261&amp;Os=222</t>
   </si>
   <si>
     <t>板卡</t>
@@ -960,9 +930,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -984,12 +954,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1006,15 +970,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,14 +995,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,7 +1010,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,67 +1025,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,7 +1040,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,6 +1089,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1169,7 +1141,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1243,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,31 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,103 +1321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,30 +1346,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,7 +1384,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,31 +1447,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1493,131 +1465,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1689,11 +1661,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
@@ -2047,12 +2019,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2232,7 +2204,7 @@
       <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2285,7 +2257,7 @@
       <c r="P4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2338,7 +2310,7 @@
       <c r="P5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2391,7 +2363,7 @@
       <c r="P6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2444,7 +2416,7 @@
       <c r="P7" s="10">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="28" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2497,7 +2469,7 @@
       <c r="P8" s="10">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2550,7 +2522,7 @@
       <c r="P9" s="10">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2603,7 +2575,7 @@
       <c r="P10" s="10">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2656,7 +2628,7 @@
       <c r="P11" s="10">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2709,7 +2681,7 @@
       <c r="P12" s="10">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2762,7 +2734,7 @@
       <c r="P13" s="10">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3027,7 +2999,7 @@
       <c r="P18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3080,7 +3052,7 @@
       <c r="P19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3610,7 +3582,7 @@
       <c r="P29" s="10">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="30" t="s">
+      <c r="Q29" s="29" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3663,7 +3635,7 @@
       <c r="P30" s="10">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="29" t="s">
+      <c r="Q30" s="28" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4193,7 +4165,7 @@
       <c r="P40" s="10">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="29" t="s">
+      <c r="Q40" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4246,7 +4218,7 @@
       <c r="P41" s="10">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="29" t="s">
+      <c r="Q41" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4299,7 +4271,7 @@
       <c r="P42" s="10">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="29" t="s">
+      <c r="Q42" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4352,7 +4324,7 @@
       <c r="P43" s="10">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="29" t="s">
+      <c r="Q43" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4405,7 +4377,7 @@
       <c r="P44" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="29" t="s">
+      <c r="Q44" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4702,7 +4674,7 @@
       <c r="O50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="29" t="s">
+      <c r="Q50" s="28" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4737,7 +4709,7 @@
       <c r="O51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="28" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4840,7 +4812,7 @@
       <c r="P53" s="10">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="31" t="s">
+      <c r="Q53" s="30" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4890,7 +4862,7 @@
       <c r="P54" s="10">
         <v>6030276</v>
       </c>
-      <c r="Q54" s="29" t="s">
+      <c r="Q54" s="28" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4940,7 +4912,7 @@
       <c r="P55" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="Q55" s="31" t="s">
+      <c r="Q55" s="30" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4990,7 +4962,7 @@
       <c r="P56" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="Q56" s="29" t="s">
+      <c r="Q56" s="28" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5252,7 +5224,7 @@
       <c r="P61" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="Q61" s="29" t="s">
+      <c r="Q61" s="28" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5355,7 +5327,7 @@
       <c r="P63" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="Q63" s="29" t="s">
+      <c r="Q63" s="28" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5396,13 +5368,13 @@
       <c r="L64" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="M64" s="28" t="s">
+      <c r="M64" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N64" s="28" t="s">
+      <c r="N64" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="O64" s="28" t="s">
+      <c r="O64" s="6" t="s">
         <v>195</v>
       </c>
       <c r="P64" s="23" t="s">
@@ -5449,13 +5421,13 @@
       <c r="L65" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="M65" s="28" t="s">
+      <c r="M65" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="O65" s="28" t="s">
+      <c r="O65" s="6" t="s">
         <v>195</v>
       </c>
       <c r="P65" s="23" t="s">
@@ -5479,40 +5451,40 @@
         <v>269</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>63</v>
       </c>
       <c r="P66" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q66" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" s="8" customFormat="1" spans="1:17">
@@ -5520,49 +5492,49 @@
         <v>54</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C67" s="10">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N67" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="O67" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="M67" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N67" s="6" t="s">
+      <c r="P67" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="Q67" s="28" t="s">
         <v>283</v>
-      </c>
-      <c r="P67" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q67" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:17">
@@ -5570,49 +5542,49 @@
         <v>54</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C68" s="10">
         <v>1077</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L68" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O68" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="M68" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N68" s="6" t="s">
+      <c r="P68" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="O68" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="P68" s="32" t="s">
+      <c r="Q68" s="31" t="s">
         <v>287</v>
-      </c>
-      <c r="Q68" s="29" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:17">
@@ -5620,49 +5592,49 @@
         <v>54</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C69" s="10">
         <v>1077</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L69" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="O69" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="M69" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N69" s="6" t="s">
+      <c r="P69" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="O69" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="P69" s="32" t="s">
+      <c r="Q69" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="Q69" s="29" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="70" s="8" customFormat="1" spans="1:17">
@@ -5670,153 +5642,53 @@
         <v>54</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C70" s="10">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L70" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O70" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="M70" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N70" s="6" t="s">
+      <c r="P70" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="O70" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="P70" s="32" t="s">
+      <c r="Q70" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="Q70" s="29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" s="8" customFormat="1" spans="1:17">
-      <c r="A71" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C71" s="10">
-        <v>1077</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N71" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="P71" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q71" s="29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" s="8" customFormat="1" spans="1:17">
-      <c r="A72" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="10">
-        <v>1077</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N72" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="P72" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q72" s="29" t="s">
-        <v>305</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q72">
+  <autoFilter ref="A1:Q70">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5843,13 +5715,11 @@
     <hyperlink ref="Q61" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
     <hyperlink ref="Q63" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
     <hyperlink ref="Q55" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q66" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
-    <hyperlink ref="Q67" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33217&amp;docid=97588&amp;ProductCategory=39&amp;Product=1044&amp;Os=65"/>
-    <hyperlink ref="Q68" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1259&amp;Os=65"/>
-    <hyperlink ref="Q69" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1260&amp;Os=65"/>
-    <hyperlink ref="Q70" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1261&amp;Os=65"/>
-    <hyperlink ref="Q71" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1300&amp;Os=65"/>
-    <hyperlink ref="Q72" r:id="rId20" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33441&amp;docid=98262&amp;ProductCategory=39&amp;Product=1301&amp;Os=65"/>
+    <hyperlink ref="Q68" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222"/>
+    <hyperlink ref="Q66" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222"/>
+    <hyperlink ref="Q67" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222"/>
+    <hyperlink ref="Q69" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1260&amp;Os=222"/>
+    <hyperlink ref="Q70" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1261&amp;Os=222"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -5876,19 +5746,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="346">
   <si>
     <t>vendorID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>driverName</t>
   </si>
   <si>
-    <t>version</t>
+    <t>5.11.3</t>
   </si>
   <si>
     <t>type</t>
@@ -825,7 +825,7 @@
     <t>SP582</t>
   </si>
   <si>
-    <t>03026OWB</t>
+    <t>03026PWB</t>
   </si>
   <si>
     <t>2532</t>
@@ -910,6 +910,239 @@
   </si>
   <si>
     <t>https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1261&amp;Os=222</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.0-0</t>
+  </si>
+  <si>
+    <t>MCX516A-CCAT</t>
+  </si>
+  <si>
+    <t>06310158</t>
+  </si>
+  <si>
+    <t>972K</t>
+  </si>
+  <si>
+    <t>d110</t>
+  </si>
+  <si>
+    <t>ixgbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.11.3</t>
+  </si>
+  <si>
+    <t>720K</t>
+  </si>
+  <si>
+    <t>SM233</t>
+  </si>
+  <si>
+    <t>X540</t>
+  </si>
+  <si>
+    <t>03022GEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.x86_64.rpm </t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>d139</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IC</t>
+    </r>
+  </si>
+  <si>
+    <t>SP572</t>
+  </si>
+  <si>
+    <t>02312VRQ</t>
+  </si>
+  <si>
+    <t>10fb</t>
+  </si>
+  <si>
+    <t>d111</t>
+  </si>
+  <si>
+    <t>5.1.0-k</t>
+  </si>
+  <si>
+    <t>2021.05.11</t>
+  </si>
+  <si>
+    <t>76821136DAD86DDA4D14A3F64AB759646B955C98</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uawei</t>
+    </r>
+  </si>
+  <si>
+    <t>SP310</t>
+  </si>
+  <si>
+    <t>02310YHP/02311EUX</t>
+  </si>
+  <si>
+    <t>https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip</t>
+  </si>
+  <si>
+    <t>00a4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gb</t>
+    </r>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>19M</t>
+  </si>
+  <si>
+    <t>Intel I350F2G1P20 914215</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>350</t>
+    </r>
+  </si>
+  <si>
+    <t>06310058</t>
+  </si>
+  <si>
+    <t>MCX416A-BCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConnectX-4 </t>
+  </si>
+  <si>
+    <t>06310151</t>
+  </si>
+  <si>
+    <t>d11a</t>
+  </si>
+  <si>
+    <t>14M</t>
+  </si>
+  <si>
+    <t>SP331</t>
+  </si>
+  <si>
+    <t>x550</t>
+  </si>
+  <si>
+    <t>06310198</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm</t>
+  </si>
+  <si>
+    <t>13M</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm</t>
   </si>
   <si>
     <t>板卡</t>
@@ -929,12 +1162,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,17 +1203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -995,7 +1227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,9 +1242,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,7 +1264,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,15 +1334,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,43 +1348,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1393,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,151 +1561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,16 +1611,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1392,8 +1638,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,37 +1679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,10 +1699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1465,138 +1711,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1612,26 +1858,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1642,19 +1895,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1662,13 +1912,58 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2019,20 +2314,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="8" customWidth="1"/>
@@ -2044,61 +2339,61 @@
     <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="10" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="12" customWidth="1"/>
     <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2148,7 +2443,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2162,10 +2457,10 @@
       <c r="B3" s="8">
         <v>1015</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2201,10 +2496,10 @@
       <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2215,10 +2510,10 @@
       <c r="B4" s="8">
         <v>1015</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2254,10 +2549,10 @@
       <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2268,10 +2563,10 @@
       <c r="B5" s="8">
         <v>1017</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2307,10 +2602,10 @@
       <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2321,10 +2616,10 @@
       <c r="B6" s="8">
         <v>1017</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2360,10 +2655,10 @@
       <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2371,13 +2666,13 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2413,10 +2708,10 @@
       <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="12">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2427,10 +2722,10 @@
       <c r="B8" s="8">
         <v>1017</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2466,10 +2761,10 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="12">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2480,10 +2775,10 @@
       <c r="B9" s="8">
         <v>1017</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2519,24 +2814,24 @@
       <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="12">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="10">
+      <c r="A10" s="19">
         <v>1077</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>2532</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2572,24 +2867,24 @@
       <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="12">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="10">
+      <c r="A11" s="19">
         <v>1077</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <v>2532</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2625,10 +2920,10 @@
       <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="12">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2639,10 +2934,10 @@
       <c r="B12" s="8">
         <v>1007</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2678,10 +2973,10 @@
       <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="12">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2692,10 +2987,10 @@
       <c r="B13" s="8">
         <v>1007</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -2731,24 +3026,24 @@
       <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="12">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="10">
+      <c r="A14" s="19">
         <v>1002</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2784,7 +3079,7 @@
       <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="12">
         <v>6320140</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -2792,16 +3087,16 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="10">
+      <c r="A15" s="19">
         <v>1002</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2837,7 +3132,7 @@
       <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="12">
         <v>6320140</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -2845,16 +3140,16 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="10">
+      <c r="A16" s="19">
         <v>1002</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2890,7 +3185,7 @@
       <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="12">
         <v>6320140</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -2898,16 +3193,16 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="10">
+      <c r="A17" s="19">
         <v>1002</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2943,7 +3238,7 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="12">
         <v>6320140</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -2957,10 +3252,10 @@
       <c r="B18" s="8">
         <v>1015</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2996,10 +3291,10 @@
       <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="28" t="s">
+      <c r="Q18" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3010,10 +3305,10 @@
       <c r="B19" s="8">
         <v>1015</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -3049,24 +3344,24 @@
       <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="28" t="s">
+      <c r="Q19" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="1:17">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="8">
         <v>3714</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -3102,7 +3397,7 @@
       <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3110,16 +3405,16 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>3714</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -3155,7 +3450,7 @@
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3163,16 +3458,16 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="8">
         <v>1822</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3205,10 +3500,10 @@
       <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="19">
         <v>1822</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3216,16 +3511,16 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="8">
         <v>1822</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -3258,10 +3553,10 @@
       <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="19">
         <v>1822</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3269,16 +3564,16 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -3314,7 +3609,7 @@
       <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="12">
         <v>38130153</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3322,16 +3617,16 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="10">
+      <c r="A25" s="19">
         <v>1000</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -3367,7 +3662,7 @@
       <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="12" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3375,16 +3670,16 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="10">
+      <c r="A26" s="19">
         <v>1000</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3420,7 +3715,7 @@
       <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="12" t="s">
         <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3428,7 +3723,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="8">
@@ -3473,7 +3768,7 @@
       <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="12" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3481,7 +3776,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="8">
@@ -3526,7 +3821,7 @@
       <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="12" t="s">
         <v>128</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3537,7 +3832,7 @@
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3567,7 +3862,7 @@
       <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="28" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="8" t="s">
@@ -3579,10 +3874,10 @@
       <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="12">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="32" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3590,13 +3885,13 @@
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="18" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3632,51 +3927,51 @@
       <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="12">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="28" t="s">
+      <c r="Q30" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:17">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="11">
         <v>0.1</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="11" t="s">
         <v>135</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -3685,7 +3980,7 @@
       <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="12">
         <v>6030216</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -3693,43 +3988,43 @@
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:17">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N32" s="8" t="s">
@@ -3738,7 +4033,7 @@
       <c r="O32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="11" t="s">
         <v>154</v>
       </c>
       <c r="Q32" s="8" t="s">
@@ -3746,43 +4041,43 @@
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:17">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N33" s="8" t="s">
@@ -3791,7 +4086,7 @@
       <c r="O33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="11" t="s">
         <v>154</v>
       </c>
       <c r="Q33" s="8" t="s">
@@ -3799,43 +4094,43 @@
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:17">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="8" t="s">
@@ -3844,7 +4139,7 @@
       <c r="O34" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="11" t="s">
         <v>154</v>
       </c>
       <c r="Q34" s="8" t="s">
@@ -3852,43 +4147,43 @@
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:17">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -3897,7 +4192,7 @@
       <c r="O35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" s="11" t="s">
         <v>154</v>
       </c>
       <c r="Q35" s="8" t="s">
@@ -3905,43 +4200,43 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="9">
+      <c r="A36" s="11">
         <v>1000</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="11" t="s">
         <v>117</v>
       </c>
       <c r="N36" s="8" t="s">
@@ -3950,7 +4245,7 @@
       <c r="O36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="11" t="s">
         <v>160</v>
       </c>
       <c r="Q36" s="8" t="s">
@@ -3958,16 +4253,16 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="10">
+      <c r="A37" s="19">
         <v>1000</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>162</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -3991,7 +4286,7 @@
       <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M37" s="8" t="s">
@@ -4000,10 +4295,10 @@
       <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="19">
         <v>3508</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="P37" s="11" t="s">
         <v>164</v>
       </c>
       <c r="Q37" s="8" t="s">
@@ -4011,16 +4306,16 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="10">
+      <c r="A38" s="19">
         <v>1000</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -4044,7 +4339,7 @@
       <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M38" s="8" t="s">
@@ -4056,7 +4351,7 @@
       <c r="O38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="P38" s="12" t="s">
         <v>170</v>
       </c>
       <c r="Q38" s="8" t="s">
@@ -4064,16 +4359,16 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="10">
+      <c r="A39" s="19">
         <v>1000</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -4097,7 +4392,7 @@
       <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="26" t="s">
+      <c r="L39" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M39" s="8" t="s">
@@ -4109,7 +4404,7 @@
       <c r="O39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="10" t="s">
+      <c r="P39" s="12" t="s">
         <v>170</v>
       </c>
       <c r="Q39" s="8" t="s">
@@ -4117,16 +4412,16 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="8">
         <v>1017</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -4162,24 +4457,24 @@
       <c r="O40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="12">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="28" t="s">
+      <c r="Q40" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8">
         <v>1017</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -4215,24 +4510,24 @@
       <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="12">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="28" t="s">
+      <c r="Q41" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="8">
         <v>1015</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -4268,24 +4563,24 @@
       <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="12">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="28" t="s">
+      <c r="Q42" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8">
         <v>1015</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -4321,24 +4616,24 @@
       <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="12">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="28" t="s">
+      <c r="Q43" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="8">
         <v>1015</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -4374,24 +4669,24 @@
       <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="P44" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="28" t="s">
+      <c r="Q44" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="10">
+      <c r="A45" s="19">
         <v>8086</v>
       </c>
       <c r="B45" s="8">
         <v>1521</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="11" t="s">
         <v>177</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -4424,10 +4719,10 @@
       <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="O45" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="10" t="s">
+      <c r="P45" s="12" t="s">
         <v>180</v>
       </c>
       <c r="Q45" s="8" t="s">
@@ -4435,16 +4730,16 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="10">
+      <c r="A46" s="19">
         <v>8086</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="11" t="s">
         <v>182</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -4477,7 +4772,7 @@
       <c r="N46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="10" t="s">
+      <c r="O46" s="19" t="s">
         <v>186</v>
       </c>
       <c r="Q46" s="8" t="s">
@@ -4485,16 +4780,16 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="10">
+      <c r="A47" s="19">
         <v>8086</v>
       </c>
       <c r="B47" s="8">
         <v>1584</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -4530,7 +4825,7 @@
       <c r="O47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47" s="12">
         <v>6310111</v>
       </c>
       <c r="Q47" s="8" t="s">
@@ -4538,16 +4833,16 @@
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4583,7 +4878,7 @@
       <c r="O48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P48" s="19" t="s">
+      <c r="P48" s="25" t="s">
         <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -4591,16 +4886,16 @@
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:17">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="6">
         <v>1822</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4636,7 +4931,7 @@
       <c r="O49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P49" s="19" t="s">
+      <c r="P49" s="25" t="s">
         <v>196</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -4674,7 +4969,7 @@
       <c r="O50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="28" t="s">
+      <c r="Q50" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4709,21 +5004,21 @@
       <c r="O51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q51" s="28" t="s">
+      <c r="Q51" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:17">
-      <c r="A52" s="10">
+      <c r="A52" s="19">
         <v>1000</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="11" t="s">
         <v>206</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -4747,7 +5042,7 @@
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="26" t="s">
+      <c r="L52" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -4756,10 +5051,10 @@
       <c r="N52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="10">
+      <c r="O52" s="19">
         <v>3508</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="11" t="s">
         <v>164</v>
       </c>
       <c r="Q52" s="8" t="s">
@@ -4767,16 +5062,16 @@
       </c>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:17">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -4797,7 +5092,7 @@
       <c r="J53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="26" t="s">
+      <c r="L53" s="28" t="s">
         <v>211</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -4806,27 +5101,27 @@
       <c r="N53" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="10" t="s">
+      <c r="O53" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="12">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="30" t="s">
+      <c r="Q53" s="31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:17">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -4847,7 +5142,7 @@
       <c r="J54" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L54" s="26" t="s">
+      <c r="L54" s="28" t="s">
         <v>141</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -4856,27 +5151,27 @@
       <c r="N54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O54" s="10" t="s">
+      <c r="O54" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="12">
         <v>6030276</v>
       </c>
-      <c r="Q54" s="28" t="s">
+      <c r="Q54" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:17">
-      <c r="A55" s="10">
+      <c r="A55" s="19">
         <v>8086</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="20">
         <v>1572</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="12" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -4897,7 +5192,7 @@
       <c r="J55" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="26" t="s">
+      <c r="L55" s="28" t="s">
         <v>218</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -4909,27 +5204,27 @@
       <c r="O55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="21" t="s">
+      <c r="P55" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="Q55" s="30" t="s">
+      <c r="Q55" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="10">
+      <c r="A56" s="19">
         <v>8086</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="20">
         <v>1572</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -4959,10 +5254,10 @@
       <c r="O56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="21" t="s">
+      <c r="P56" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="Q56" s="28" t="s">
+      <c r="Q56" s="30" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4973,10 +5268,10 @@
       <c r="B57" s="8">
         <v>1015</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="11" t="s">
         <v>225</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -4994,7 +5289,7 @@
       <c r="I57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="27" t="s">
+      <c r="J57" s="29" t="s">
         <v>191</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -5012,7 +5307,7 @@
       <c r="O57" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P57" s="21" t="s">
+      <c r="P57" s="12" t="s">
         <v>230</v>
       </c>
       <c r="Q57" s="8" t="s">
@@ -5026,13 +5321,13 @@
       <c r="B58" s="6">
         <v>1015</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -5065,7 +5360,7 @@
       <c r="O58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="P58" s="23" t="s">
+      <c r="P58" s="25" t="s">
         <v>230</v>
       </c>
       <c r="Q58" s="6" t="s">
@@ -5073,19 +5368,19 @@
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -5118,7 +5413,7 @@
       <c r="O59" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P59" s="21" t="s">
+      <c r="P59" s="12" t="s">
         <v>242</v>
       </c>
       <c r="Q59" s="8" t="s">
@@ -5126,19 +5421,19 @@
       </c>
     </row>
     <row r="60" s="8" customFormat="1" spans="1:17">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -5171,7 +5466,7 @@
       <c r="O60" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P60" s="21" t="s">
+      <c r="P60" s="12" t="s">
         <v>242</v>
       </c>
       <c r="Q60" s="8" t="s">
@@ -5179,19 +5474,19 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="10">
+      <c r="A61" s="19">
         <v>8086</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -5221,24 +5516,24 @@
       <c r="O61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="P61" s="21" t="s">
+      <c r="P61" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="Q61" s="28" t="s">
+      <c r="Q61" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="62" s="8" customFormat="1" spans="1:17">
-      <c r="A62" s="10">
+      <c r="A62" s="19">
         <v>1000</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -5256,7 +5551,7 @@
       <c r="I62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J62" s="27" t="s">
+      <c r="J62" s="29" t="s">
         <v>191</v>
       </c>
       <c r="K62" s="8" t="s">
@@ -5274,7 +5569,7 @@
       <c r="O62" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="P62" s="21" t="s">
+      <c r="P62" s="12" t="s">
         <v>259</v>
       </c>
       <c r="Q62" s="8" t="s">
@@ -5285,16 +5580,16 @@
       <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -5324,27 +5619,27 @@
       <c r="O63" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P63" s="21" t="s">
+      <c r="P63" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="Q63" s="28" t="s">
+      <c r="Q63" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:17">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5377,7 +5672,7 @@
       <c r="O64" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P64" s="23" t="s">
+      <c r="P64" s="25" t="s">
         <v>267</v>
       </c>
       <c r="Q64" s="6" t="s">
@@ -5385,16 +5680,16 @@
       </c>
     </row>
     <row r="65" s="6" customFormat="1" spans="1:17">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="23" t="s">
         <v>265</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -5430,7 +5725,7 @@
       <c r="O65" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="23" t="s">
+      <c r="P65" s="25" t="s">
         <v>267</v>
       </c>
       <c r="Q65" s="6" t="s">
@@ -5438,13 +5733,13 @@
       </c>
     </row>
     <row r="66" s="8" customFormat="1" spans="1:17">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="19">
         <v>1077</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -5480,21 +5775,21 @@
       <c r="O66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P66" s="32" t="s">
+      <c r="P66" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="Q66" s="31" t="s">
+      <c r="Q66" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="67" s="8" customFormat="1" spans="1:17">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="19">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -5530,21 +5825,21 @@
       <c r="O67" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P67" s="32" t="s">
+      <c r="P67" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Q67" s="28" t="s">
+      <c r="Q67" s="30" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:17">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="19">
         <v>1077</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -5580,24 +5875,24 @@
       <c r="O68" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P68" s="32" t="s">
+      <c r="P68" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="Q68" s="31" t="s">
+      <c r="Q68" s="49" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:17">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="19">
         <v>1077</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="11" t="s">
         <v>288</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -5630,21 +5925,21 @@
       <c r="O69" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P69" s="32" t="s">
+      <c r="P69" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="Q69" s="28" t="s">
+      <c r="Q69" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="70" s="8" customFormat="1" spans="1:17">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="19">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -5680,11 +5975,480 @@
       <c r="O70" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P70" s="32" t="s">
+      <c r="P70" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="Q70" s="28" t="s">
+      <c r="Q70" s="30" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="71" s="9" customFormat="1" spans="1:17">
+      <c r="A71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P71" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q71" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" s="9" customFormat="1" spans="1:17">
+      <c r="A72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P72" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q72" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" s="9" customFormat="1" spans="1:17">
+      <c r="A73" s="35">
+        <v>8086</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1528</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="P73" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q73" s="50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="1:17">
+      <c r="A74" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="P74" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" s="10" customFormat="1" spans="1:17">
+      <c r="A75" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K75" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O75" s="10">
+        <v>82599</v>
+      </c>
+      <c r="P75" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q75" s="51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" s="10" customFormat="1" spans="1:17">
+      <c r="A76" s="40">
+        <v>8086</v>
+      </c>
+      <c r="B76" s="41">
+        <v>1522</v>
+      </c>
+      <c r="C76" s="39">
+        <v>8086</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K76" s="48"/>
+      <c r="L76" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="P76" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" s="10" customFormat="1" spans="1:17">
+      <c r="A77" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="43">
+        <v>1013</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M77" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="P77" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q77" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="44">
+        <v>8086</v>
+      </c>
+      <c r="B78" s="8">
+        <v>1563</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q78" s="30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="44">
+        <v>8086</v>
+      </c>
+      <c r="B79" s="8">
+        <v>1563</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q79" s="30" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5720,6 +6484,10 @@
     <hyperlink ref="Q67" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222"/>
     <hyperlink ref="Q69" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1260&amp;Os=222"/>
     <hyperlink ref="Q70" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1261&amp;Os=222"/>
+    <hyperlink ref="Q73" r:id="rId20" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.x86_64.rpm "/>
+    <hyperlink ref="Q75" r:id="rId21" display="https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip"/>
+    <hyperlink ref="Q79" r:id="rId22" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
+    <hyperlink ref="Q78" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -5746,19 +6514,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$79</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="350">
   <si>
     <t>vendorID</t>
   </si>
@@ -1145,6 +1145,18 @@
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm</t>
   </si>
   <si>
+    <t>EXL710QDA2G1P5</t>
+  </si>
+  <si>
+    <t>06310146</t>
+  </si>
+  <si>
+    <t>XL710QSR1G1P5 950495</t>
+  </si>
+  <si>
+    <t>06310102</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -1163,11 +1175,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,22 +1216,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,93 +1309,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1341,20 +1338,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,37 +1372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1450,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,43 +1498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,31 +1522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,31 +1552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,6 +1583,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,59 +1661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1693,16 +1675,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1711,138 +1702,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1858,7 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1866,16 +1856,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,7 +1891,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,16 +1913,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,30 +1931,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2314,20 +2309,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="8" customWidth="1"/>
@@ -2339,61 +2334,61 @@
     <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="12" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="11" customWidth="1"/>
     <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2443,7 +2438,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2457,10 +2452,10 @@
       <c r="B3" s="8">
         <v>1015</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2496,10 +2491,10 @@
       <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2510,10 +2505,10 @@
       <c r="B4" s="8">
         <v>1015</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2549,10 +2544,10 @@
       <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2563,10 +2558,10 @@
       <c r="B5" s="8">
         <v>1017</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2602,10 +2597,10 @@
       <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2616,10 +2611,10 @@
       <c r="B6" s="8">
         <v>1017</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2655,10 +2650,10 @@
       <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2666,13 +2661,13 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2684,7 +2679,7 @@
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="18">
         <v>7.9</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2708,10 +2703,10 @@
       <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2722,10 +2717,10 @@
       <c r="B8" s="8">
         <v>1017</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2761,10 +2756,10 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2775,10 +2770,10 @@
       <c r="B9" s="8">
         <v>1017</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2814,24 +2809,24 @@
       <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>1077</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>2532</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2867,24 +2862,24 @@
       <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>1077</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>2532</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2920,10 +2915,10 @@
       <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="29" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2934,10 +2929,10 @@
       <c r="B12" s="8">
         <v>1007</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2973,10 +2968,10 @@
       <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2987,10 +2982,10 @@
       <c r="B13" s="8">
         <v>1007</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3026,24 +3021,24 @@
       <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>1002</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -3079,7 +3074,7 @@
       <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>6320140</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -3087,16 +3082,16 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>1002</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -3132,7 +3127,7 @@
       <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>6320140</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -3140,16 +3135,16 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>1002</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3185,7 +3180,7 @@
       <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>6320140</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -3193,16 +3188,16 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>1002</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -3238,7 +3233,7 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>6320140</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -3252,10 +3247,10 @@
       <c r="B18" s="8">
         <v>1015</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -3291,10 +3286,10 @@
       <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3305,10 +3300,10 @@
       <c r="B19" s="8">
         <v>1015</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -3344,24 +3339,24 @@
       <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="1:17">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="8">
         <v>3714</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -3397,7 +3392,7 @@
       <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3405,16 +3400,16 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>3714</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -3450,7 +3445,7 @@
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>95</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3458,16 +3453,16 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="8">
         <v>1822</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3500,10 +3495,10 @@
       <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="18">
         <v>1822</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="11" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3511,16 +3506,16 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="8">
         <v>1822</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -3553,10 +3548,10 @@
       <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="18">
         <v>1822</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>101</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3564,16 +3559,16 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -3609,7 +3604,7 @@
       <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="11">
         <v>38130153</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3617,16 +3612,16 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>1000</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -3662,7 +3657,7 @@
       <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="11" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3670,16 +3665,16 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>1000</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3715,7 +3710,7 @@
       <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="11" t="s">
         <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3723,7 +3718,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="8">
@@ -3768,7 +3763,7 @@
       <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="11" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3776,7 +3771,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="8">
@@ -3821,7 +3816,7 @@
       <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="11" t="s">
         <v>128</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3832,7 +3827,7 @@
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3862,7 +3857,7 @@
       <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="8" t="s">
@@ -3874,10 +3869,10 @@
       <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="11">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="32" t="s">
+      <c r="Q29" s="31" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3885,13 +3880,13 @@
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3927,51 +3922,51 @@
       <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="11">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:17">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>0.1</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="10" t="s">
         <v>135</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -3980,7 +3975,7 @@
       <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="11">
         <v>6030216</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -3988,43 +3983,43 @@
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:17">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N32" s="8" t="s">
@@ -4033,7 +4028,7 @@
       <c r="O32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>154</v>
       </c>
       <c r="Q32" s="8" t="s">
@@ -4041,43 +4036,43 @@
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:17">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N33" s="8" t="s">
@@ -4086,7 +4081,7 @@
       <c r="O33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="10" t="s">
         <v>154</v>
       </c>
       <c r="Q33" s="8" t="s">
@@ -4094,43 +4089,43 @@
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:17">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="8" t="s">
@@ -4139,7 +4134,7 @@
       <c r="O34" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="10" t="s">
         <v>154</v>
       </c>
       <c r="Q34" s="8" t="s">
@@ -4147,43 +4142,43 @@
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:17">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -4192,7 +4187,7 @@
       <c r="O35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="10" t="s">
         <v>154</v>
       </c>
       <c r="Q35" s="8" t="s">
@@ -4200,43 +4195,43 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>1000</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="10" t="s">
         <v>117</v>
       </c>
       <c r="N36" s="8" t="s">
@@ -4245,7 +4240,7 @@
       <c r="O36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="10" t="s">
         <v>160</v>
       </c>
       <c r="Q36" s="8" t="s">
@@ -4253,16 +4248,16 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>1000</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>162</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -4286,7 +4281,7 @@
       <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M37" s="8" t="s">
@@ -4295,10 +4290,10 @@
       <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="18">
         <v>3508</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="10" t="s">
         <v>164</v>
       </c>
       <c r="Q37" s="8" t="s">
@@ -4306,16 +4301,16 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>1000</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>166</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -4339,7 +4334,7 @@
       <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M38" s="8" t="s">
@@ -4351,7 +4346,7 @@
       <c r="O38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="P38" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Q38" s="8" t="s">
@@ -4359,16 +4354,16 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>1000</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -4392,7 +4387,7 @@
       <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="28" t="s">
+      <c r="L39" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M39" s="8" t="s">
@@ -4404,7 +4399,7 @@
       <c r="O39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Q39" s="8" t="s">
@@ -4412,16 +4407,16 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="8">
         <v>1017</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>171</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -4457,24 +4452,24 @@
       <c r="O40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="11">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="30" t="s">
+      <c r="Q40" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8">
         <v>1017</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>171</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -4510,24 +4505,24 @@
       <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="11">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q41" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="8">
         <v>1015</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -4563,24 +4558,24 @@
       <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="30" t="s">
+      <c r="Q42" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8">
         <v>1015</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -4616,24 +4611,24 @@
       <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="11">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="30" t="s">
+      <c r="Q43" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="8">
         <v>1015</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -4669,24 +4664,24 @@
       <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="P44" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="30" t="s">
+      <c r="Q44" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>8086</v>
       </c>
       <c r="B45" s="8">
         <v>1521</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>177</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -4719,10 +4714,10 @@
       <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="19" t="s">
+      <c r="O45" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="11" t="s">
         <v>180</v>
       </c>
       <c r="Q45" s="8" t="s">
@@ -4730,16 +4725,16 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>8086</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -4772,7 +4767,7 @@
       <c r="N46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="19" t="s">
+      <c r="O46" s="18" t="s">
         <v>186</v>
       </c>
       <c r="Q46" s="8" t="s">
@@ -4780,16 +4775,16 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>8086</v>
       </c>
       <c r="B47" s="8">
         <v>1584</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>148</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -4825,7 +4820,7 @@
       <c r="O47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="11">
         <v>6310111</v>
       </c>
       <c r="Q47" s="8" t="s">
@@ -4833,16 +4828,16 @@
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4878,7 +4873,7 @@
       <c r="O48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P48" s="25" t="s">
+      <c r="P48" s="24" t="s">
         <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -4886,16 +4881,16 @@
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:17">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="6">
         <v>1822</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4931,7 +4926,7 @@
       <c r="O49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P49" s="25" t="s">
+      <c r="P49" s="24" t="s">
         <v>196</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -4969,7 +4964,7 @@
       <c r="O50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="30" t="s">
+      <c r="Q50" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5004,21 +4999,21 @@
       <c r="O51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q51" s="30" t="s">
+      <c r="Q51" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:17">
-      <c r="A52" s="19">
+      <c r="A52" s="18">
         <v>1000</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>206</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -5042,7 +5037,7 @@
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="L52" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -5051,10 +5046,10 @@
       <c r="N52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O52" s="18">
         <v>3508</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="10" t="s">
         <v>164</v>
       </c>
       <c r="Q52" s="8" t="s">
@@ -5062,16 +5057,16 @@
       </c>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:17">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>208</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -5092,7 +5087,7 @@
       <c r="J53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="27" t="s">
         <v>211</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -5101,27 +5096,27 @@
       <c r="N53" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="19" t="s">
+      <c r="O53" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="11">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="31" t="s">
+      <c r="Q53" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:17">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>208</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -5142,7 +5137,7 @@
       <c r="J54" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L54" s="28" t="s">
+      <c r="L54" s="27" t="s">
         <v>141</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -5151,27 +5146,27 @@
       <c r="N54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O54" s="19" t="s">
+      <c r="O54" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="11">
         <v>6030276</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:17">
-      <c r="A55" s="19">
+      <c r="A55" s="18">
         <v>8086</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>1572</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -5192,7 +5187,7 @@
       <c r="J55" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="28" t="s">
+      <c r="L55" s="27" t="s">
         <v>218</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -5204,27 +5199,27 @@
       <c r="O55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="Q55" s="31" t="s">
+      <c r="Q55" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="19">
+      <c r="A56" s="18">
         <v>8086</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>1572</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -5254,10 +5249,10 @@
       <c r="O56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="Q56" s="30" t="s">
+      <c r="Q56" s="29" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5268,10 +5263,10 @@
       <c r="B57" s="8">
         <v>1015</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>225</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -5289,7 +5284,7 @@
       <c r="I57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="J57" s="28" t="s">
         <v>191</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -5307,7 +5302,7 @@
       <c r="O57" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q57" s="8" t="s">
@@ -5321,13 +5316,13 @@
       <c r="B58" s="6">
         <v>1015</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -5360,7 +5355,7 @@
       <c r="O58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="P58" s="25" t="s">
+      <c r="P58" s="24" t="s">
         <v>230</v>
       </c>
       <c r="Q58" s="6" t="s">
@@ -5368,19 +5363,19 @@
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -5413,7 +5408,7 @@
       <c r="O59" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P59" s="12" t="s">
+      <c r="P59" s="11" t="s">
         <v>242</v>
       </c>
       <c r="Q59" s="8" t="s">
@@ -5421,19 +5416,19 @@
       </c>
     </row>
     <row r="60" s="8" customFormat="1" spans="1:17">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -5466,7 +5461,7 @@
       <c r="O60" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P60" s="12" t="s">
+      <c r="P60" s="11" t="s">
         <v>242</v>
       </c>
       <c r="Q60" s="8" t="s">
@@ -5474,19 +5469,19 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="19">
+      <c r="A61" s="18">
         <v>8086</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -5516,24 +5511,24 @@
       <c r="O61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="P61" s="12" t="s">
+      <c r="P61" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="Q61" s="30" t="s">
+      <c r="Q61" s="29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="62" s="8" customFormat="1" spans="1:17">
-      <c r="A62" s="19">
+      <c r="A62" s="18">
         <v>1000</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>254</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -5551,7 +5546,7 @@
       <c r="I62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J62" s="29" t="s">
+      <c r="J62" s="28" t="s">
         <v>191</v>
       </c>
       <c r="K62" s="8" t="s">
@@ -5569,7 +5564,7 @@
       <c r="O62" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="P62" s="12" t="s">
+      <c r="P62" s="11" t="s">
         <v>259</v>
       </c>
       <c r="Q62" s="8" t="s">
@@ -5580,16 +5575,16 @@
       <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -5619,27 +5614,27 @@
       <c r="O63" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P63" s="12" t="s">
+      <c r="P63" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="Q63" s="30" t="s">
+      <c r="Q63" s="29" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:17">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5672,7 +5667,7 @@
       <c r="O64" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P64" s="25" t="s">
+      <c r="P64" s="24" t="s">
         <v>267</v>
       </c>
       <c r="Q64" s="6" t="s">
@@ -5680,16 +5675,16 @@
       </c>
     </row>
     <row r="65" s="6" customFormat="1" spans="1:17">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>265</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -5725,7 +5720,7 @@
       <c r="O65" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="25" t="s">
+      <c r="P65" s="24" t="s">
         <v>267</v>
       </c>
       <c r="Q65" s="6" t="s">
@@ -5733,13 +5728,13 @@
       </c>
     </row>
     <row r="66" s="8" customFormat="1" spans="1:17">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="18">
         <v>1077</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -5775,7 +5770,7 @@
       <c r="O66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P66" s="25" t="s">
+      <c r="P66" s="24" t="s">
         <v>276</v>
       </c>
       <c r="Q66" s="49" t="s">
@@ -5783,13 +5778,13 @@
       </c>
     </row>
     <row r="67" s="8" customFormat="1" spans="1:17">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="18">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -5825,21 +5820,21 @@
       <c r="O67" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P67" s="25" t="s">
+      <c r="P67" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="Q67" s="30" t="s">
+      <c r="Q67" s="29" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:17">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="18">
         <v>1077</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -5875,7 +5870,7 @@
       <c r="O68" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P68" s="25" t="s">
+      <c r="P68" s="24" t="s">
         <v>286</v>
       </c>
       <c r="Q68" s="49" t="s">
@@ -5883,16 +5878,16 @@
       </c>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:17">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="18">
         <v>1077</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>288</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -5925,21 +5920,21 @@
       <c r="O69" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P69" s="25" t="s">
+      <c r="P69" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="Q69" s="30" t="s">
+      <c r="Q69" s="29" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="70" s="8" customFormat="1" spans="1:17">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="18">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -5975,30 +5970,30 @@
       <c r="O70" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P70" s="25" t="s">
+      <c r="P70" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="Q70" s="30" t="s">
+      <c r="Q70" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="71" s="9" customFormat="1" spans="1:17">
+    <row r="71" s="5" customFormat="1" spans="1:17">
       <c r="A71" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B71" s="5">
         <v>1017</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6016,7 +6011,7 @@
       <c r="K71" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L71" s="34" t="s">
+      <c r="L71" s="33" t="s">
         <v>231</v>
       </c>
       <c r="M71" s="6" t="s">
@@ -6028,30 +6023,30 @@
       <c r="O71" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P71" s="45" t="s">
+      <c r="P71" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="Q71" s="35" t="s">
+      <c r="Q71" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" spans="1:17">
+    <row r="72" s="5" customFormat="1" spans="1:17">
       <c r="A72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B72" s="5">
         <v>1017</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="34" t="s">
+      <c r="F72" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -6063,7 +6058,7 @@
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="46" t="s">
+      <c r="J72" s="47" t="s">
         <v>191</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -6081,30 +6076,30 @@
       <c r="O72" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P72" s="45" t="s">
+      <c r="P72" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="Q72" s="35" t="s">
+      <c r="Q72" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" s="9" customFormat="1" spans="1:17">
-      <c r="A73" s="35">
+    <row r="73" s="5" customFormat="1" spans="1:17">
+      <c r="A73" s="34">
         <v>8086</v>
       </c>
       <c r="B73" s="5">
         <v>1528</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="34" t="s">
+      <c r="F73" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -6134,240 +6129,240 @@
       <c r="O73" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="P73" s="45" t="s">
+      <c r="P73" s="46" t="s">
         <v>307</v>
       </c>
       <c r="Q73" s="50" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="1" spans="1:17">
-      <c r="A74" s="36" t="s">
+    <row r="74" s="9" customFormat="1" spans="1:17">
+      <c r="A74" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="10" t="s">
+      <c r="F74" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I74" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N74" s="42" t="s">
+      <c r="N74" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O74" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="P74" s="38" t="s">
+      <c r="P74" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="Q74" s="10" t="s">
+      <c r="Q74" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" s="10" customFormat="1" spans="1:17">
-      <c r="A75" s="36" t="s">
+    <row r="75" s="9" customFormat="1" spans="1:17">
+      <c r="A75" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="10" t="s">
+      <c r="F75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="J75" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="N75" s="42" t="s">
+      <c r="N75" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="O75" s="10">
+      <c r="O75" s="9">
         <v>82599</v>
       </c>
-      <c r="P75" s="47" t="s">
+      <c r="P75" s="44" t="s">
         <v>322</v>
       </c>
       <c r="Q75" s="51" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="76" s="10" customFormat="1" spans="1:17">
-      <c r="A76" s="40">
+    <row r="76" s="9" customFormat="1" spans="1:17">
+      <c r="A76" s="39">
         <v>8086</v>
       </c>
-      <c r="B76" s="41">
+      <c r="B76" s="40">
         <v>1522</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="38">
         <v>8086</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="39" t="s">
+      <c r="F76" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H76" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="I76" s="39" t="s">
+      <c r="I76" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="9" t="s">
         <v>200</v>
       </c>
       <c r="K76" s="48"/>
-      <c r="L76" s="39" t="s">
+      <c r="L76" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="M76" s="39" t="s">
+      <c r="M76" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N76" s="42" t="s">
+      <c r="N76" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="O76" s="39" t="s">
+      <c r="O76" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="P76" s="47" t="s">
+      <c r="P76" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="Q76" s="10" t="s">
+      <c r="Q76" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:17">
-      <c r="A77" s="42" t="s">
+    <row r="77" s="9" customFormat="1" spans="1:17">
+      <c r="A77" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="43">
+      <c r="B77" s="42">
         <v>1013</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="39" t="s">
+      <c r="F77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="K77" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="N77" s="42" t="s">
+      <c r="N77" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="O77" s="39" t="s">
+      <c r="O77" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="P77" s="47" t="s">
+      <c r="P77" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="44">
+      <c r="A78" s="18">
         <v>8086</v>
       </c>
       <c r="B78" s="8">
         <v>1563</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="38" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -6376,7 +6371,7 @@
       <c r="H78" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="I78" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J78" s="8" t="s">
@@ -6394,65 +6389,270 @@
       <c r="O78" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="P78" s="12" t="s">
+      <c r="P78" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Q78" s="30" t="s">
+      <c r="Q78" s="29" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="44">
+    <row r="79" s="10" customFormat="1" spans="1:17">
+      <c r="A79" s="11">
         <v>8086</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="43">
         <v>1563</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="8" t="s">
+      <c r="F79" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="K79" s="10"/>
+      <c r="L79" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="M79" s="8" t="s">
+      <c r="M79" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N79" s="8" t="s">
+      <c r="N79" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="O79" s="8" t="s">
+      <c r="O79" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="P79" s="12" t="s">
+      <c r="P79" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Q79" s="30" t="s">
+      <c r="Q79" s="52" t="s">
         <v>341</v>
       </c>
     </row>
+    <row r="80" s="10" customFormat="1" spans="1:17">
+      <c r="A80" s="45">
+        <v>8086</v>
+      </c>
+      <c r="B80" s="43">
+        <v>1583</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I80" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q80" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" s="10" customFormat="1" spans="1:17">
+      <c r="A81" s="45">
+        <v>8086</v>
+      </c>
+      <c r="B81" s="43">
+        <v>1583</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q81" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" s="10" customFormat="1" spans="1:17">
+      <c r="A82" s="45">
+        <v>8086</v>
+      </c>
+      <c r="B82" s="43">
+        <v>1584</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q82" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" s="10" customFormat="1" spans="1:17">
+      <c r="A83" s="45">
+        <v>8086</v>
+      </c>
+      <c r="B83" s="43">
+        <v>1584</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q83" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q70">
+  <autoFilter ref="A1:Q79">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6488,6 +6688,10 @@
     <hyperlink ref="Q75" r:id="rId21" display="https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip"/>
     <hyperlink ref="Q79" r:id="rId22" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
     <hyperlink ref="Q78" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
+    <hyperlink ref="Q81" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q80" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q83" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q82" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -6514,19 +6718,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$83</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="353">
   <si>
     <t>vendorID</t>
   </si>
@@ -1157,6 +1157,15 @@
     <t>06310102</t>
   </si>
   <si>
+    <t>2021.04.19</t>
+  </si>
+  <si>
+    <t>02311LSY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm </t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -1174,9 +1183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1216,7 +1225,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,6 +1249,66 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,30 +1323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,30 +1337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1308,37 +1345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,7 +1360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1372,67 +1381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,13 +1417,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,49 +1525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,13 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,19 +1555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,13 +1602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,7 +1620,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1632,16 +1662,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,26 +1691,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1690,10 +1705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,7 +1717,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1711,7 +1726,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1721,119 +1736,119 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1853,19 +1868,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,7 +1907,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,14 +1953,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2309,12 +2319,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2334,61 +2344,61 @@
     <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="12" customWidth="1"/>
     <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2438,7 +2448,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2491,10 +2501,10 @@
       <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2544,10 +2554,10 @@
       <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2597,10 +2607,10 @@
       <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2650,10 +2660,10 @@
       <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2661,13 +2671,13 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2679,7 +2689,7 @@
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="19">
         <v>7.9</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2703,10 +2713,10 @@
       <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2756,10 +2766,10 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="12">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2809,24 +2819,24 @@
       <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="12">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>1077</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>2532</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2862,24 +2872,24 @@
       <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="12">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>1077</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>2532</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2915,10 +2925,10 @@
       <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="12">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2968,10 +2978,10 @@
       <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="12">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3021,18 +3031,18 @@
       <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="12">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>1002</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3074,7 +3084,7 @@
       <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="12">
         <v>6320140</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -3082,10 +3092,10 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18">
+      <c r="A15" s="19">
         <v>1002</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3127,7 +3137,7 @@
       <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="12">
         <v>6320140</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -3135,10 +3145,10 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>1002</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -3180,7 +3190,7 @@
       <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="12">
         <v>6320140</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -3188,10 +3198,10 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>1002</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -3233,7 +3243,7 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="12">
         <v>6320140</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -3286,10 +3296,10 @@
       <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3339,10 +3349,10 @@
       <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3392,7 +3402,7 @@
       <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3445,7 +3455,7 @@
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3495,10 +3505,10 @@
       <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="19">
         <v>1822</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3548,10 +3558,10 @@
       <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="19">
         <v>1822</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3562,7 +3572,7 @@
       <c r="A24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3604,7 +3614,7 @@
       <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="12">
         <v>38130153</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3612,10 +3622,10 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>1000</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3657,7 +3667,7 @@
       <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="12" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3665,10 +3675,10 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>1000</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -3710,7 +3720,7 @@
       <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="12" t="s">
         <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3763,7 +3773,7 @@
       <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="12" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3816,7 +3826,7 @@
       <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="12" t="s">
         <v>128</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3827,7 +3837,7 @@
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3857,7 +3867,7 @@
       <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="28" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="8" t="s">
@@ -3869,10 +3879,10 @@
       <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="12">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="31" t="s">
+      <c r="Q29" s="32" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3880,13 +3890,13 @@
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3922,10 +3932,10 @@
       <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="12">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="29" t="s">
+      <c r="Q30" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3933,7 +3943,7 @@
       <c r="A31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -3975,7 +3985,7 @@
       <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="12">
         <v>6030216</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -3986,7 +3996,7 @@
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -4039,7 +4049,7 @@
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -4092,7 +4102,7 @@
       <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -4145,7 +4155,7 @@
       <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -4198,7 +4208,7 @@
       <c r="A36" s="10">
         <v>1000</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -4248,10 +4258,10 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>1000</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -4281,7 +4291,7 @@
       <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M37" s="8" t="s">
@@ -4290,7 +4300,7 @@
       <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="19">
         <v>3508</v>
       </c>
       <c r="P37" s="10" t="s">
@@ -4301,10 +4311,10 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="18">
+      <c r="A38" s="19">
         <v>1000</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4334,7 +4344,7 @@
       <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M38" s="8" t="s">
@@ -4346,7 +4356,7 @@
       <c r="O38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="12" t="s">
         <v>170</v>
       </c>
       <c r="Q38" s="8" t="s">
@@ -4354,10 +4364,10 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>1000</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -4387,7 +4397,7 @@
       <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="L39" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M39" s="8" t="s">
@@ -4399,7 +4409,7 @@
       <c r="O39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="12" t="s">
         <v>170</v>
       </c>
       <c r="Q39" s="8" t="s">
@@ -4407,7 +4417,7 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="8">
@@ -4452,15 +4462,15 @@
       <c r="O40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="12">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="29" t="s">
+      <c r="Q40" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8">
@@ -4505,15 +4515,15 @@
       <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="12">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="29" t="s">
+      <c r="Q41" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="8">
@@ -4558,15 +4568,15 @@
       <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="12">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="29" t="s">
+      <c r="Q42" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8">
@@ -4611,15 +4621,15 @@
       <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="12">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="29" t="s">
+      <c r="Q43" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="8">
@@ -4664,15 +4674,15 @@
       <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="29" t="s">
+      <c r="Q44" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>8086</v>
       </c>
       <c r="B45" s="8">
@@ -4714,10 +4724,10 @@
       <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="12" t="s">
         <v>180</v>
       </c>
       <c r="Q45" s="8" t="s">
@@ -4725,10 +4735,10 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>8086</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="20" t="s">
         <v>181</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -4767,7 +4777,7 @@
       <c r="N46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="O46" s="19" t="s">
         <v>186</v>
       </c>
       <c r="Q46" s="8" t="s">
@@ -4775,7 +4785,7 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>8086</v>
       </c>
       <c r="B47" s="8">
@@ -4820,7 +4830,7 @@
       <c r="O47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="12">
         <v>6310111</v>
       </c>
       <c r="Q47" s="8" t="s">
@@ -4828,16 +4838,16 @@
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4873,7 +4883,7 @@
       <c r="O48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P48" s="24" t="s">
+      <c r="P48" s="25" t="s">
         <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -4881,16 +4891,16 @@
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:17">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="6">
         <v>1822</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4926,7 +4936,7 @@
       <c r="O49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P49" s="24" t="s">
+      <c r="P49" s="25" t="s">
         <v>196</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -4964,7 +4974,7 @@
       <c r="O50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="29" t="s">
+      <c r="Q50" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4999,15 +5009,15 @@
       <c r="O51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:17">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>1000</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -5037,7 +5047,7 @@
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -5046,7 +5056,7 @@
       <c r="N52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="19">
         <v>3508</v>
       </c>
       <c r="P52" s="10" t="s">
@@ -5057,10 +5067,10 @@
       </c>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:17">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>207</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -5087,7 +5097,7 @@
       <c r="J53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="27" t="s">
+      <c r="L53" s="28" t="s">
         <v>211</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -5096,21 +5106,21 @@
       <c r="N53" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="18" t="s">
+      <c r="O53" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="12">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="30" t="s">
+      <c r="Q53" s="31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:17">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -5137,7 +5147,7 @@
       <c r="J54" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="28" t="s">
         <v>141</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -5146,27 +5156,27 @@
       <c r="N54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O54" s="18" t="s">
+      <c r="O54" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="12">
         <v>6030276</v>
       </c>
-      <c r="Q54" s="29" t="s">
+      <c r="Q54" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:17">
-      <c r="A55" s="18">
+      <c r="A55" s="19">
         <v>8086</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="20">
         <v>1572</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -5187,7 +5197,7 @@
       <c r="J55" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="L55" s="28" t="s">
         <v>218</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -5199,27 +5209,27 @@
       <c r="O55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="Q55" s="30" t="s">
+      <c r="Q55" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="18">
+      <c r="A56" s="19">
         <v>8086</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="20">
         <v>1572</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -5249,10 +5259,10 @@
       <c r="O56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="Q56" s="29" t="s">
+      <c r="Q56" s="30" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5284,7 +5294,7 @@
       <c r="I57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="28" t="s">
+      <c r="J57" s="29" t="s">
         <v>191</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -5302,7 +5312,7 @@
       <c r="O57" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="12" t="s">
         <v>230</v>
       </c>
       <c r="Q57" s="8" t="s">
@@ -5316,13 +5326,13 @@
       <c r="B58" s="6">
         <v>1015</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -5355,7 +5365,7 @@
       <c r="O58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="P58" s="24" t="s">
+      <c r="P58" s="25" t="s">
         <v>230</v>
       </c>
       <c r="Q58" s="6" t="s">
@@ -5366,7 +5376,7 @@
       <c r="A59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -5375,7 +5385,7 @@
       <c r="D59" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -5408,7 +5418,7 @@
       <c r="O59" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="12" t="s">
         <v>242</v>
       </c>
       <c r="Q59" s="8" t="s">
@@ -5419,7 +5429,7 @@
       <c r="A60" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -5428,7 +5438,7 @@
       <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -5461,7 +5471,7 @@
       <c r="O60" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="12" t="s">
         <v>242</v>
       </c>
       <c r="Q60" s="8" t="s">
@@ -5469,10 +5479,10 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="18">
+      <c r="A61" s="19">
         <v>8086</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="20" t="s">
         <v>244</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -5481,7 +5491,7 @@
       <c r="D61" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -5511,24 +5521,24 @@
       <c r="O61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="Q61" s="29" t="s">
+      <c r="Q61" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="62" s="8" customFormat="1" spans="1:17">
-      <c r="A62" s="18">
+      <c r="A62" s="19">
         <v>1000</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -5546,7 +5556,7 @@
       <c r="I62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" s="29" t="s">
         <v>191</v>
       </c>
       <c r="K62" s="8" t="s">
@@ -5564,7 +5574,7 @@
       <c r="O62" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="12" t="s">
         <v>259</v>
       </c>
       <c r="Q62" s="8" t="s">
@@ -5575,7 +5585,7 @@
       <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -5584,7 +5594,7 @@
       <c r="D63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -5614,27 +5624,27 @@
       <c r="O63" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="Q63" s="29" t="s">
+      <c r="Q63" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:17">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5667,7 +5677,7 @@
       <c r="O64" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P64" s="24" t="s">
+      <c r="P64" s="25" t="s">
         <v>267</v>
       </c>
       <c r="Q64" s="6" t="s">
@@ -5675,16 +5685,16 @@
       </c>
     </row>
     <row r="65" s="6" customFormat="1" spans="1:17">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="23" t="s">
         <v>265</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -5720,7 +5730,7 @@
       <c r="O65" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="24" t="s">
+      <c r="P65" s="25" t="s">
         <v>267</v>
       </c>
       <c r="Q65" s="6" t="s">
@@ -5731,10 +5741,10 @@
       <c r="A66" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="19">
         <v>1077</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -5770,10 +5780,10 @@
       <c r="O66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P66" s="24" t="s">
+      <c r="P66" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="Q66" s="49" t="s">
+      <c r="Q66" s="48" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5781,10 +5791,10 @@
       <c r="A67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="19">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -5820,10 +5830,10 @@
       <c r="O67" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P67" s="24" t="s">
+      <c r="P67" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Q67" s="29" t="s">
+      <c r="Q67" s="30" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5831,10 +5841,10 @@
       <c r="A68" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="19">
         <v>1077</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -5870,10 +5880,10 @@
       <c r="O68" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P68" s="24" t="s">
+      <c r="P68" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="Q68" s="49" t="s">
+      <c r="Q68" s="48" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5881,10 +5891,10 @@
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="19">
         <v>1077</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -5920,10 +5930,10 @@
       <c r="O69" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P69" s="24" t="s">
+      <c r="P69" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="Q69" s="29" t="s">
+      <c r="Q69" s="30" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5931,10 +5941,10 @@
       <c r="A70" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="19">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -5970,10 +5980,10 @@
       <c r="O70" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P70" s="24" t="s">
+      <c r="P70" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="Q70" s="29" t="s">
+      <c r="Q70" s="30" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5984,16 +5994,16 @@
       <c r="B71" s="5">
         <v>1017</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6011,7 +6021,7 @@
       <c r="K71" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L71" s="33" t="s">
+      <c r="L71" s="34" t="s">
         <v>231</v>
       </c>
       <c r="M71" s="6" t="s">
@@ -6023,10 +6033,10 @@
       <c r="O71" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P71" s="46" t="s">
+      <c r="P71" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="Q71" s="34" t="s">
+      <c r="Q71" s="35" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6037,16 +6047,16 @@
       <c r="B72" s="5">
         <v>1017</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -6058,7 +6068,7 @@
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="47" t="s">
+      <c r="J72" s="46" t="s">
         <v>191</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -6076,30 +6086,30 @@
       <c r="O72" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P72" s="46" t="s">
+      <c r="P72" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="Q72" s="34" t="s">
+      <c r="Q72" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:17">
-      <c r="A73" s="34">
+      <c r="A73" s="35">
         <v>8086</v>
       </c>
       <c r="B73" s="5">
         <v>1528</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -6129,30 +6139,30 @@
       <c r="O73" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="P73" s="46" t="s">
+      <c r="P73" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="Q73" s="50" t="s">
+      <c r="Q73" s="49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" spans="1:17">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="38" t="s">
+      <c r="F74" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="9" t="s">
@@ -6161,7 +6171,7 @@
       <c r="H74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I74" s="38" t="s">
+      <c r="I74" s="39" t="s">
         <v>311</v>
       </c>
       <c r="J74" s="9" t="s">
@@ -6170,19 +6180,19 @@
       <c r="K74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L74" s="38" t="s">
+      <c r="L74" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="M74" s="38" t="s">
+      <c r="M74" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="N74" s="41" t="s">
+      <c r="N74" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="O74" s="38" t="s">
+      <c r="O74" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="P74" s="37" t="s">
+      <c r="P74" s="38" t="s">
         <v>313</v>
       </c>
       <c r="Q74" s="9" t="s">
@@ -6190,19 +6200,19 @@
       </c>
     </row>
     <row r="75" s="9" customFormat="1" spans="1:17">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -6211,25 +6221,25 @@
       <c r="G75" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H75" s="38" t="s">
+      <c r="H75" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="I75" s="38" t="s">
+      <c r="I75" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="38" t="s">
+      <c r="J75" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="K75" s="38" t="s">
+      <c r="K75" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="L75" s="38" t="s">
+      <c r="L75" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="M75" s="38" t="s">
+      <c r="M75" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="N75" s="41" t="s">
+      <c r="N75" s="42" t="s">
         <v>321</v>
       </c>
       <c r="O75" s="9">
@@ -6238,52 +6248,52 @@
       <c r="P75" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="Q75" s="51" t="s">
+      <c r="Q75" s="50" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:17">
-      <c r="A76" s="39">
+      <c r="A76" s="40">
         <v>8086</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>1522</v>
       </c>
-      <c r="C76" s="38">
+      <c r="C76" s="39">
         <v>8086</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="38" t="s">
+      <c r="F76" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H76" s="38" t="s">
+      <c r="H76" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="I76" s="38" t="s">
+      <c r="I76" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K76" s="48"/>
-      <c r="L76" s="38" t="s">
+      <c r="K76" s="47"/>
+      <c r="L76" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="M76" s="38" t="s">
+      <c r="M76" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="N76" s="41" t="s">
+      <c r="N76" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="O76" s="38" t="s">
+      <c r="O76" s="39" t="s">
         <v>329</v>
       </c>
       <c r="P76" s="44" t="s">
@@ -6294,60 +6304,60 @@
       </c>
     </row>
     <row r="77" s="9" customFormat="1" spans="1:17">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="42">
+      <c r="B77" s="43">
         <v>1013</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="38" t="s">
+      <c r="H77" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="I77" s="38" t="s">
+      <c r="I77" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K77" s="38" t="s">
+      <c r="K77" s="39" t="s">
         <v>192</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M77" s="38" t="s">
+      <c r="M77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N77" s="41" t="s">
+      <c r="N77" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="O77" s="38" t="s">
+      <c r="O77" s="39" t="s">
         <v>332</v>
       </c>
       <c r="P77" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="Q77" s="38" t="s">
+      <c r="Q77" s="39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="18">
+      <c r="A78" s="19">
         <v>8086</v>
       </c>
       <c r="B78" s="8">
@@ -6359,10 +6369,10 @@
       <c r="D78" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="38" t="s">
+      <c r="F78" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -6371,7 +6381,7 @@
       <c r="H78" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="38" t="s">
+      <c r="I78" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J78" s="8" t="s">
@@ -6389,18 +6399,18 @@
       <c r="O78" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="P78" s="11" t="s">
+      <c r="P78" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="Q78" s="29" t="s">
+      <c r="Q78" s="30" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:17">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <v>8086</v>
       </c>
-      <c r="B79" s="43">
+      <c r="B79" s="21">
         <v>1563</v>
       </c>
       <c r="C79" s="10" t="s">
@@ -6421,13 +6431,12 @@
       <c r="H79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="37" t="s">
+      <c r="I79" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J79" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K79" s="10"/>
       <c r="L79" s="10" t="s">
         <v>340</v>
       </c>
@@ -6440,18 +6449,18 @@
       <c r="O79" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="P79" s="11" t="s">
+      <c r="P79" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="Q79" s="52" t="s">
+      <c r="Q79" s="51" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:17">
-      <c r="A80" s="45">
+      <c r="A80" s="12">
         <v>8086</v>
       </c>
-      <c r="B80" s="43">
+      <c r="B80" s="21">
         <v>1583</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -6460,7 +6469,7 @@
       <c r="D80" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F80" s="44" t="s">
@@ -6472,13 +6481,12 @@
       <c r="H80" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I80" s="37" t="s">
+      <c r="I80" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K80" s="10"/>
       <c r="L80" s="10" t="s">
         <v>340</v>
       </c>
@@ -6491,18 +6499,18 @@
       <c r="O80" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="Q80" s="53" t="s">
+      <c r="Q80" s="52" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:17">
-      <c r="A81" s="45">
+      <c r="A81" s="12">
         <v>8086</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="21">
         <v>1583</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -6523,13 +6531,12 @@
       <c r="H81" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I81" s="37" t="s">
+      <c r="I81" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K81" s="10"/>
       <c r="L81" s="10" t="s">
         <v>340</v>
       </c>
@@ -6542,18 +6549,18 @@
       <c r="O81" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="Q81" s="53" t="s">
+      <c r="Q81" s="52" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:17">
-      <c r="A82" s="45">
+      <c r="A82" s="12">
         <v>8086</v>
       </c>
-      <c r="B82" s="43">
+      <c r="B82" s="21">
         <v>1584</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -6562,7 +6569,7 @@
       <c r="D82" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F82" s="44" t="s">
@@ -6574,13 +6581,12 @@
       <c r="H82" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="37" t="s">
+      <c r="I82" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K82" s="10"/>
       <c r="L82" s="10" t="s">
         <v>340</v>
       </c>
@@ -6593,18 +6599,18 @@
       <c r="O82" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="Q82" s="53" t="s">
+      <c r="Q82" s="52" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:17">
-      <c r="A83" s="45">
+      <c r="A83" s="12">
         <v>8086</v>
       </c>
-      <c r="B83" s="43">
+      <c r="B83" s="21">
         <v>1584</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -6625,13 +6631,12 @@
       <c r="H83" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I83" s="37" t="s">
+      <c r="I83" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K83" s="10"/>
       <c r="L83" s="10" t="s">
         <v>340</v>
       </c>
@@ -6644,15 +6649,67 @@
       <c r="O83" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="Q83" s="53" t="s">
+      <c r="Q83" s="52" t="s">
         <v>222</v>
       </c>
     </row>
+    <row r="84" s="11" customFormat="1" spans="1:18">
+      <c r="A84" s="35">
+        <v>8086</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O84" s="35">
+        <v>82599</v>
+      </c>
+      <c r="P84" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q84" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="R84" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q79">
+  <autoFilter ref="A1:Q83">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6692,6 +6749,7 @@
     <hyperlink ref="Q80" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
     <hyperlink ref="Q83" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
     <hyperlink ref="Q82" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q84" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -6718,19 +6776,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$84</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="350">
   <si>
     <t>vendorID</t>
   </si>
@@ -1155,15 +1155,6 @@
   </si>
   <si>
     <t>06310102</t>
-  </si>
-  <si>
-    <t>2021.04.19</t>
-  </si>
-  <si>
-    <t>02311LSY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm </t>
   </si>
   <si>
     <t>板卡</t>
@@ -1225,36 +1216,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1269,46 +1230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,7 +1245,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,9 +1282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,8 +1295,63 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,13 +1372,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1432,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,151 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,13 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,36 +1587,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1652,26 +1611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,9 +1643,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1705,10 +1690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1717,138 +1702,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1868,20 +1853,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,7 +1891,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2319,7 +2303,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
@@ -2344,61 +2328,61 @@
     <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="12" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="11" customWidth="1"/>
     <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2448,7 +2432,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2501,10 +2485,10 @@
       <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2554,10 +2538,10 @@
       <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2607,10 +2591,10 @@
       <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2660,10 +2644,10 @@
       <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2671,13 +2655,13 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2689,7 +2673,7 @@
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>7.9</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2713,10 +2697,10 @@
       <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2766,10 +2750,10 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2819,24 +2803,24 @@
       <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>1077</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>2532</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2872,24 +2856,24 @@
       <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>1077</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>2532</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2925,10 +2909,10 @@
       <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="29" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2978,10 +2962,10 @@
       <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3031,18 +3015,18 @@
       <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>1002</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3084,7 +3068,7 @@
       <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>6320140</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -3092,10 +3076,10 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>1002</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3137,7 +3121,7 @@
       <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>6320140</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -3145,10 +3129,10 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>1002</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -3190,7 +3174,7 @@
       <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>6320140</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -3198,10 +3182,10 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>1002</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -3243,7 +3227,7 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>6320140</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -3296,10 +3280,10 @@
       <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3349,10 +3333,10 @@
       <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3402,7 +3386,7 @@
       <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3455,7 +3439,7 @@
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>95</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3505,10 +3489,10 @@
       <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="18">
         <v>1822</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="11" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3558,10 +3542,10 @@
       <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="18">
         <v>1822</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>101</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3572,7 +3556,7 @@
       <c r="A24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3614,7 +3598,7 @@
       <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="11">
         <v>38130153</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3622,10 +3606,10 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>1000</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3667,7 +3651,7 @@
       <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="11" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3675,10 +3659,10 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>1000</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -3720,7 +3704,7 @@
       <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="11" t="s">
         <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3773,7 +3757,7 @@
       <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="11" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3826,7 +3810,7 @@
       <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="11" t="s">
         <v>128</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3837,7 +3821,7 @@
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3867,7 +3851,7 @@
       <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="8" t="s">
@@ -3879,10 +3863,10 @@
       <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="11">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="32" t="s">
+      <c r="Q29" s="31" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3890,13 +3874,13 @@
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3932,10 +3916,10 @@
       <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="11">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="29" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3943,7 +3927,7 @@
       <c r="A31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -3985,7 +3969,7 @@
       <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="11">
         <v>6030216</v>
       </c>
       <c r="Q31" s="8" t="s">
@@ -3996,7 +3980,7 @@
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -4049,7 +4033,7 @@
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -4102,7 +4086,7 @@
       <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -4155,7 +4139,7 @@
       <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -4208,7 +4192,7 @@
       <c r="A36" s="10">
         <v>1000</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -4258,10 +4242,10 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>1000</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -4291,7 +4275,7 @@
       <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M37" s="8" t="s">
@@ -4300,7 +4284,7 @@
       <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="18">
         <v>3508</v>
       </c>
       <c r="P37" s="10" t="s">
@@ -4311,10 +4295,10 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>1000</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4344,7 +4328,7 @@
       <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M38" s="8" t="s">
@@ -4356,7 +4340,7 @@
       <c r="O38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="P38" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Q38" s="8" t="s">
@@ -4364,10 +4348,10 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>1000</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>165</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -4397,7 +4381,7 @@
       <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="28" t="s">
+      <c r="L39" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M39" s="8" t="s">
@@ -4409,7 +4393,7 @@
       <c r="O39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Q39" s="8" t="s">
@@ -4417,7 +4401,7 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="8">
@@ -4462,15 +4446,15 @@
       <c r="O40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="11">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="30" t="s">
+      <c r="Q40" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8">
@@ -4515,15 +4499,15 @@
       <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="11">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q41" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="8">
@@ -4568,15 +4552,15 @@
       <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="30" t="s">
+      <c r="Q42" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8">
@@ -4621,15 +4605,15 @@
       <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="11">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="30" t="s">
+      <c r="Q43" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="8">
@@ -4674,15 +4658,15 @@
       <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="P44" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Q44" s="30" t="s">
+      <c r="Q44" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>8086</v>
       </c>
       <c r="B45" s="8">
@@ -4724,10 +4708,10 @@
       <c r="N45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="19" t="s">
+      <c r="O45" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="11" t="s">
         <v>180</v>
       </c>
       <c r="Q45" s="8" t="s">
@@ -4735,10 +4719,10 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>8086</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -4777,7 +4761,7 @@
       <c r="N46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O46" s="19" t="s">
+      <c r="O46" s="18" t="s">
         <v>186</v>
       </c>
       <c r="Q46" s="8" t="s">
@@ -4785,7 +4769,7 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>8086</v>
       </c>
       <c r="B47" s="8">
@@ -4830,7 +4814,7 @@
       <c r="O47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="11">
         <v>6310111</v>
       </c>
       <c r="Q47" s="8" t="s">
@@ -4838,16 +4822,16 @@
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -4883,7 +4867,7 @@
       <c r="O48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P48" s="25" t="s">
+      <c r="P48" s="24" t="s">
         <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -4891,16 +4875,16 @@
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:17">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="6">
         <v>1822</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4936,7 +4920,7 @@
       <c r="O49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P49" s="25" t="s">
+      <c r="P49" s="24" t="s">
         <v>196</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -4974,7 +4958,7 @@
       <c r="O50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q50" s="30" t="s">
+      <c r="Q50" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5009,15 +4993,15 @@
       <c r="O51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q51" s="30" t="s">
+      <c r="Q51" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:17">
-      <c r="A52" s="19">
+      <c r="A52" s="18">
         <v>1000</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -5047,7 +5031,7 @@
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="L52" s="27" t="s">
         <v>159</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -5056,7 +5040,7 @@
       <c r="N52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O52" s="18">
         <v>3508</v>
       </c>
       <c r="P52" s="10" t="s">
@@ -5067,10 +5051,10 @@
       </c>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:17">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>207</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -5097,7 +5081,7 @@
       <c r="J53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="27" t="s">
         <v>211</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -5106,21 +5090,21 @@
       <c r="N53" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="19" t="s">
+      <c r="O53" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="11">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="31" t="s">
+      <c r="Q53" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:17">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -5147,7 +5131,7 @@
       <c r="J54" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L54" s="28" t="s">
+      <c r="L54" s="27" t="s">
         <v>141</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -5156,27 +5140,27 @@
       <c r="N54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O54" s="19" t="s">
+      <c r="O54" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="11">
         <v>6030276</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:17">
-      <c r="A55" s="19">
+      <c r="A55" s="18">
         <v>8086</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>1572</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -5197,7 +5181,7 @@
       <c r="J55" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="28" t="s">
+      <c r="L55" s="27" t="s">
         <v>218</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -5209,27 +5193,27 @@
       <c r="O55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="Q55" s="31" t="s">
+      <c r="Q55" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="19">
+      <c r="A56" s="18">
         <v>8086</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>1572</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -5259,10 +5243,10 @@
       <c r="O56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="Q56" s="30" t="s">
+      <c r="Q56" s="29" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5294,7 +5278,7 @@
       <c r="I57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="J57" s="28" t="s">
         <v>191</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -5312,7 +5296,7 @@
       <c r="O57" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q57" s="8" t="s">
@@ -5326,13 +5310,13 @@
       <c r="B58" s="6">
         <v>1015</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -5365,7 +5349,7 @@
       <c r="O58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="P58" s="25" t="s">
+      <c r="P58" s="24" t="s">
         <v>230</v>
       </c>
       <c r="Q58" s="6" t="s">
@@ -5376,7 +5360,7 @@
       <c r="A59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -5385,7 +5369,7 @@
       <c r="D59" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -5418,7 +5402,7 @@
       <c r="O59" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P59" s="12" t="s">
+      <c r="P59" s="11" t="s">
         <v>242</v>
       </c>
       <c r="Q59" s="8" t="s">
@@ -5429,7 +5413,7 @@
       <c r="A60" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -5438,7 +5422,7 @@
       <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -5471,7 +5455,7 @@
       <c r="O60" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="P60" s="12" t="s">
+      <c r="P60" s="11" t="s">
         <v>242</v>
       </c>
       <c r="Q60" s="8" t="s">
@@ -5479,10 +5463,10 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="19">
+      <c r="A61" s="18">
         <v>8086</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>244</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -5491,7 +5475,7 @@
       <c r="D61" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -5521,24 +5505,24 @@
       <c r="O61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="P61" s="12" t="s">
+      <c r="P61" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="Q61" s="30" t="s">
+      <c r="Q61" s="29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="62" s="8" customFormat="1" spans="1:17">
-      <c r="A62" s="19">
+      <c r="A62" s="18">
         <v>1000</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>254</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -5556,7 +5540,7 @@
       <c r="I62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J62" s="29" t="s">
+      <c r="J62" s="28" t="s">
         <v>191</v>
       </c>
       <c r="K62" s="8" t="s">
@@ -5574,7 +5558,7 @@
       <c r="O62" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="P62" s="12" t="s">
+      <c r="P62" s="11" t="s">
         <v>259</v>
       </c>
       <c r="Q62" s="8" t="s">
@@ -5585,7 +5569,7 @@
       <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -5594,7 +5578,7 @@
       <c r="D63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -5624,27 +5608,27 @@
       <c r="O63" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P63" s="12" t="s">
+      <c r="P63" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="Q63" s="30" t="s">
+      <c r="Q63" s="29" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:17">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5677,7 +5661,7 @@
       <c r="O64" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P64" s="25" t="s">
+      <c r="P64" s="24" t="s">
         <v>267</v>
       </c>
       <c r="Q64" s="6" t="s">
@@ -5685,16 +5669,16 @@
       </c>
     </row>
     <row r="65" s="6" customFormat="1" spans="1:17">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>265</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -5730,7 +5714,7 @@
       <c r="O65" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="25" t="s">
+      <c r="P65" s="24" t="s">
         <v>267</v>
       </c>
       <c r="Q65" s="6" t="s">
@@ -5741,10 +5725,10 @@
       <c r="A66" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="18">
         <v>1077</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -5780,10 +5764,10 @@
       <c r="O66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P66" s="25" t="s">
+      <c r="P66" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="Q66" s="48" t="s">
+      <c r="Q66" s="47" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5791,10 +5775,10 @@
       <c r="A67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="18">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -5830,10 +5814,10 @@
       <c r="O67" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P67" s="25" t="s">
+      <c r="P67" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="Q67" s="30" t="s">
+      <c r="Q67" s="29" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5841,10 +5825,10 @@
       <c r="A68" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="18">
         <v>1077</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -5880,10 +5864,10 @@
       <c r="O68" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P68" s="25" t="s">
+      <c r="P68" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="Q68" s="48" t="s">
+      <c r="Q68" s="47" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5891,10 +5875,10 @@
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="18">
         <v>1077</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -5930,10 +5914,10 @@
       <c r="O69" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P69" s="25" t="s">
+      <c r="P69" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="Q69" s="30" t="s">
+      <c r="Q69" s="29" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5941,10 +5925,10 @@
       <c r="A70" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="18">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -5980,10 +5964,10 @@
       <c r="O70" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="P70" s="25" t="s">
+      <c r="P70" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="Q70" s="30" t="s">
+      <c r="Q70" s="29" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5994,16 +5978,16 @@
       <c r="B71" s="5">
         <v>1017</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6021,7 +6005,7 @@
       <c r="K71" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="L71" s="34" t="s">
+      <c r="L71" s="33" t="s">
         <v>231</v>
       </c>
       <c r="M71" s="6" t="s">
@@ -6033,10 +6017,10 @@
       <c r="O71" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P71" s="45" t="s">
+      <c r="P71" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="Q71" s="35" t="s">
+      <c r="Q71" s="34" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6047,16 +6031,16 @@
       <c r="B72" s="5">
         <v>1017</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="34" t="s">
+      <c r="F72" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -6068,7 +6052,7 @@
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="46" t="s">
+      <c r="J72" s="45" t="s">
         <v>191</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -6086,30 +6070,30 @@
       <c r="O72" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P72" s="45" t="s">
+      <c r="P72" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="Q72" s="35" t="s">
+      <c r="Q72" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:17">
-      <c r="A73" s="35">
+      <c r="A73" s="34">
         <v>8086</v>
       </c>
       <c r="B73" s="5">
         <v>1528</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="34" t="s">
+      <c r="F73" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -6139,30 +6123,30 @@
       <c r="O73" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="P73" s="45" t="s">
+      <c r="P73" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="Q73" s="49" t="s">
+      <c r="Q73" s="48" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" spans="1:17">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="38" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="9" t="s">
@@ -6171,7 +6155,7 @@
       <c r="H74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I74" s="38" t="s">
         <v>311</v>
       </c>
       <c r="J74" s="9" t="s">
@@ -6180,19 +6164,19 @@
       <c r="K74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N74" s="42" t="s">
+      <c r="N74" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O74" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="P74" s="38" t="s">
+      <c r="P74" s="37" t="s">
         <v>313</v>
       </c>
       <c r="Q74" s="9" t="s">
@@ -6200,19 +6184,19 @@
       </c>
     </row>
     <row r="75" s="9" customFormat="1" spans="1:17">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -6221,82 +6205,82 @@
       <c r="G75" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="J75" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="N75" s="42" t="s">
+      <c r="N75" s="41" t="s">
         <v>321</v>
       </c>
       <c r="O75" s="9">
         <v>82599</v>
       </c>
-      <c r="P75" s="44" t="s">
+      <c r="P75" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="Q75" s="50" t="s">
+      <c r="Q75" s="49" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:17">
-      <c r="A76" s="40">
+      <c r="A76" s="39">
         <v>8086</v>
       </c>
-      <c r="B76" s="41">
+      <c r="B76" s="40">
         <v>1522</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="38">
         <v>8086</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="39" t="s">
+      <c r="F76" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H76" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="I76" s="39" t="s">
+      <c r="I76" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K76" s="47"/>
-      <c r="L76" s="39" t="s">
+      <c r="K76" s="46"/>
+      <c r="L76" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="M76" s="39" t="s">
+      <c r="M76" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N76" s="42" t="s">
+      <c r="N76" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="O76" s="39" t="s">
+      <c r="O76" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="P76" s="44" t="s">
+      <c r="P76" s="43" t="s">
         <v>330</v>
       </c>
       <c r="Q76" s="9" t="s">
@@ -6304,60 +6288,60 @@
       </c>
     </row>
     <row r="77" s="9" customFormat="1" spans="1:17">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="43">
+      <c r="B77" s="42">
         <v>1013</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="K77" s="38" t="s">
         <v>192</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="N77" s="42" t="s">
+      <c r="N77" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="O77" s="39" t="s">
+      <c r="O77" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="P77" s="44" t="s">
+      <c r="P77" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="19">
+      <c r="A78" s="18">
         <v>8086</v>
       </c>
       <c r="B78" s="8">
@@ -6369,10 +6353,10 @@
       <c r="D78" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="38" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -6381,7 +6365,7 @@
       <c r="H78" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="I78" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J78" s="8" t="s">
@@ -6399,18 +6383,18 @@
       <c r="O78" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="P78" s="12" t="s">
+      <c r="P78" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Q78" s="30" t="s">
+      <c r="Q78" s="29" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:17">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <v>8086</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>1563</v>
       </c>
       <c r="C79" s="10" t="s">
@@ -6422,7 +6406,7 @@
       <c r="E79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="43" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="10" t="s">
@@ -6431,7 +6415,7 @@
       <c r="H79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="38" t="s">
+      <c r="I79" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J79" s="10" t="s">
@@ -6449,18 +6433,18 @@
       <c r="O79" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="P79" s="12" t="s">
+      <c r="P79" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Q79" s="51" t="s">
+      <c r="Q79" s="50" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:17">
-      <c r="A80" s="12">
+      <c r="A80" s="11">
         <v>8086</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="20">
         <v>1583</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -6469,10 +6453,10 @@
       <c r="D80" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="43" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="10" t="s">
@@ -6481,7 +6465,7 @@
       <c r="H80" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I80" s="38" t="s">
+      <c r="I80" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J80" s="10" t="s">
@@ -6499,18 +6483,18 @@
       <c r="O80" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P80" s="12" t="s">
+      <c r="P80" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="Q80" s="52" t="s">
+      <c r="Q80" s="51" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:17">
-      <c r="A81" s="12">
+      <c r="A81" s="11">
         <v>8086</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="20">
         <v>1583</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -6522,7 +6506,7 @@
       <c r="E81" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="43" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -6531,7 +6515,7 @@
       <c r="H81" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I81" s="38" t="s">
+      <c r="I81" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J81" s="10" t="s">
@@ -6549,18 +6533,18 @@
       <c r="O81" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P81" s="12" t="s">
+      <c r="P81" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="Q81" s="52" t="s">
+      <c r="Q81" s="51" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:17">
-      <c r="A82" s="12">
+      <c r="A82" s="11">
         <v>8086</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>1584</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -6569,10 +6553,10 @@
       <c r="D82" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="43" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="10" t="s">
@@ -6581,7 +6565,7 @@
       <c r="H82" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="38" t="s">
+      <c r="I82" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J82" s="10" t="s">
@@ -6599,18 +6583,18 @@
       <c r="O82" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P82" s="12" t="s">
+      <c r="P82" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="Q82" s="52" t="s">
+      <c r="Q82" s="51" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:17">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <v>8086</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>1584</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -6622,7 +6606,7 @@
       <c r="E83" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="43" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="10" t="s">
@@ -6631,7 +6615,7 @@
       <c r="H83" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I83" s="38" t="s">
+      <c r="I83" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J83" s="10" t="s">
@@ -6649,67 +6633,30 @@
       <c r="O83" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="P83" s="12" t="s">
+      <c r="P83" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="Q83" s="52" t="s">
+      <c r="Q83" s="51" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="84" s="11" customFormat="1" spans="1:18">
-      <c r="A84" s="35">
-        <v>8086</v>
-      </c>
-      <c r="B84" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="O84" s="35">
-        <v>82599</v>
-      </c>
-      <c r="P84" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q84" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="R84" s="5"/>
+    <row r="84" s="5" customFormat="1" spans="1:17">
+      <c r="A84" s="34"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q83">
+  <autoFilter ref="A1:Q84">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6749,7 +6696,6 @@
     <hyperlink ref="Q80" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
     <hyperlink ref="Q83" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
     <hyperlink ref="Q82" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q84" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -6776,19 +6722,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="357">
   <si>
     <t>vendorID</t>
   </si>
@@ -435,8 +435,7 @@
     <t>XE501</t>
   </si>
   <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/elx-lpfc-12.8.340.17-1.x86_64.rpm
-https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/elx-lpfc-extras-12.8.340.16-1.openEuler20.noarch.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz</t>
   </si>
   <si>
     <t>12.8.340.17-1</t>
@@ -460,11 +459,6 @@
     <t>IOC540</t>
   </si>
   <si>
-    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/elx-lpfc-12.8.340.17-1.x86_64.rpm
-https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/elx-lpfc-extras-12.8.340.16-1.openEuler20.noarch.rpm
-</t>
-  </si>
-  <si>
     <t>a222</t>
   </si>
   <si>
@@ -666,10 +660,7 @@
     <t>XE201</t>
   </si>
   <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz</t>
   </si>
   <si>
     <t>d11c</t>
@@ -985,74 +976,6 @@
     <t>02312VRQ</t>
   </si>
   <si>
-    <t>10fb</t>
-  </si>
-  <si>
-    <t>d111</t>
-  </si>
-  <si>
-    <t>5.1.0-k</t>
-  </si>
-  <si>
-    <t>2021.05.11</t>
-  </si>
-  <si>
-    <t>76821136DAD86DDA4D14A3F64AB759646B955C98</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19k</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uawei</t>
-    </r>
-  </si>
-  <si>
-    <t>SP310</t>
-  </si>
-  <si>
-    <t>02310YHP/02311EUX</t>
-  </si>
-  <si>
-    <t>https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip</t>
-  </si>
-  <si>
     <t>00a4</t>
   </si>
   <si>
@@ -1157,6 +1080,206 @@
     <t>06310102</t>
   </si>
   <si>
+    <t>10fb</t>
+  </si>
+  <si>
+    <t>d111</t>
+  </si>
+  <si>
+    <t>2021.04.19</t>
+  </si>
+  <si>
+    <t>SP310</t>
+  </si>
+  <si>
+    <t>02311LSY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm </t>
+  </si>
+  <si>
+    <t>028f</t>
+  </si>
+  <si>
+    <t>9005</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>martpqi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1.4-130</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020.12.21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MC</t>
+    </r>
+  </si>
+  <si>
+    <t>SAS 3152</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3152</t>
+    </r>
+  </si>
+  <si>
+    <t>02312USW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nbox</t>
+    </r>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -1174,10 +1297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1216,57 +1339,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1284,36 +1362,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,11 +1391,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1378,6 +1501,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1396,7 +1531,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,126 +1657,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1558,7 +1669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,23 +1713,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,26 +1758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1684,16 +1781,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,138 +1825,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1853,6 +1976,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1940,6 +2066,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1947,13 +2082,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2303,12 +2441,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2328,61 +2466,61 @@
     <col min="13" max="13" width="16.125" style="8" customWidth="1"/>
     <col min="14" max="14" width="32.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.75" style="8" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="12" customWidth="1"/>
     <col min="17" max="17" width="170.375" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2432,7 +2570,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -2485,10 +2623,10 @@
       <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2538,10 +2676,10 @@
       <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2591,10 +2729,10 @@
       <c r="O5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2644,10 +2782,10 @@
       <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2655,13 +2793,13 @@
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2673,7 +2811,7 @@
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="19">
         <v>7.9</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2697,10 +2835,10 @@
       <c r="O7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <v>2570029</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2750,10 +2888,10 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="12">
         <v>6310149</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2803,24 +2941,24 @@
       <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="12">
         <v>6310149</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>1077</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>2532</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2856,24 +2994,24 @@
       <c r="O10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="12">
         <v>6030221</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>1077</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>2532</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2909,10 +3047,10 @@
       <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="12">
         <v>6030221</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2962,10 +3100,10 @@
       <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="12">
         <v>6310105</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3015,18 +3153,18 @@
       <c r="O13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="12">
         <v>6310105</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>1002</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3068,7 +3206,7 @@
       <c r="O14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="12">
         <v>6320140</v>
       </c>
       <c r="Q14" s="8" t="s">
@@ -3076,10 +3214,10 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18">
+      <c r="A15" s="19">
         <v>1002</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3121,7 +3259,7 @@
       <c r="O15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="12">
         <v>6320140</v>
       </c>
       <c r="Q15" s="8" t="s">
@@ -3129,10 +3267,10 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>1002</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -3174,7 +3312,7 @@
       <c r="O16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="12">
         <v>6320140</v>
       </c>
       <c r="Q16" s="8" t="s">
@@ -3182,10 +3320,10 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>1002</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -3227,7 +3365,7 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="12">
         <v>6320140</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -3280,10 +3418,10 @@
       <c r="O18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3333,10 +3471,10 @@
       <c r="O19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3386,7 +3524,7 @@
       <c r="O20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -3439,7 +3577,7 @@
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q21" s="8" t="s">
@@ -3489,10 +3627,10 @@
       <c r="N22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="19">
         <v>1822</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -3542,10 +3680,10 @@
       <c r="N23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="19">
         <v>1822</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -3556,7 +3694,7 @@
       <c r="A24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3598,7 +3736,7 @@
       <c r="O24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="12">
         <v>38130153</v>
       </c>
       <c r="Q24" s="8" t="s">
@@ -3606,10 +3744,10 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>1000</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3651,7 +3789,7 @@
       <c r="O25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="12" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="8" t="s">
@@ -3659,10 +3797,10 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>1000</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -3704,7 +3842,7 @@
       <c r="O26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="12" t="s">
         <v>120</v>
       </c>
       <c r="Q26" s="8" t="s">
@@ -3757,7 +3895,7 @@
       <c r="O27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="12" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -3810,7 +3948,7 @@
       <c r="O28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="12" t="s">
         <v>128</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -3821,7 +3959,7 @@
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3851,7 +3989,7 @@
       <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="28" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="8" t="s">
@@ -3863,10 +4001,10 @@
       <c r="O29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="12">
         <v>6030463</v>
       </c>
-      <c r="Q29" s="31" t="s">
+      <c r="Q29" s="32" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3874,13 +4012,13 @@
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3916,18 +4054,18 @@
       <c r="O30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="12">
         <v>6030463</v>
       </c>
-      <c r="Q30" s="29" t="s">
+      <c r="Q30" s="30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" ht="27" customHeight="1" spans="1:17">
+    <row r="31" ht="21" customHeight="1" spans="1:17">
       <c r="A31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -3969,25 +4107,25 @@
       <c r="O31" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="12">
         <v>6030216</v>
       </c>
-      <c r="Q31" s="8" t="s">
-        <v>146</v>
+      <c r="Q31" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:17">
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
@@ -3996,10 +4134,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>25</v>
@@ -4011,19 +4149,19 @@
         <v>80</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="P32" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>79</v>
@@ -4033,14 +4171,14 @@
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>155</v>
+      <c r="B33" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>34</v>
@@ -4049,10 +4187,10 @@
         <v>22</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>25</v>
@@ -4064,19 +4202,19 @@
         <v>80</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="P33" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>79</v>
@@ -4086,14 +4224,14 @@
       <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>147</v>
+      <c r="B34" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>34</v>
@@ -4102,10 +4240,10 @@
         <v>22</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>25</v>
@@ -4117,19 +4255,19 @@
         <v>80</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>79</v>
@@ -4139,14 +4277,14 @@
       <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>155</v>
+      <c r="B35" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>34</v>
@@ -4155,10 +4293,10 @@
         <v>22</v>
       </c>
       <c r="G35" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>25</v>
@@ -4170,19 +4308,19 @@
         <v>80</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>92</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P35" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>79</v>
@@ -4192,7 +4330,7 @@
       <c r="A36" s="10">
         <v>1000</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -4211,7 +4349,7 @@
         <v>113</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>115</v>
@@ -4223,7 +4361,7 @@
         <v>80</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>117</v>
@@ -4235,24 +4373,24 @@
         <v>119</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>1000</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>161</v>
+      <c r="B37" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>34</v>
@@ -4264,7 +4402,7 @@
         <v>113</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>115</v>
@@ -4275,37 +4413,37 @@
       <c r="K37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="27" t="s">
-        <v>159</v>
+      <c r="L37" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>117</v>
       </c>
       <c r="N37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37" s="19">
+        <v>3508</v>
+      </c>
+      <c r="P37" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="O37" s="18">
-        <v>3508</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="18">
+      <c r="A38" s="19">
         <v>1000</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>165</v>
+      <c r="B38" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>34</v>
@@ -4314,10 +4452,10 @@
         <v>22</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>115</v>
@@ -4328,37 +4466,37 @@
       <c r="K38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="27" t="s">
-        <v>159</v>
+      <c r="L38" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>117</v>
       </c>
       <c r="N38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="P38" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>1000</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>165</v>
+      <c r="B39" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>21</v>
@@ -4367,10 +4505,10 @@
         <v>22</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>115</v>
@@ -4381,27 +4519,27 @@
       <c r="K39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="27" t="s">
-        <v>159</v>
+      <c r="L39" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>117</v>
       </c>
       <c r="N39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="P39" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="8">
@@ -4411,7 +4549,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>34</v>
@@ -4441,20 +4579,20 @@
         <v>29</v>
       </c>
       <c r="N40" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="P40" s="11">
+      <c r="P40" s="12">
         <v>6310156</v>
       </c>
-      <c r="Q40" s="29" t="s">
+      <c r="Q40" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8">
@@ -4464,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>21</v>
@@ -4494,20 +4632,20 @@
         <v>29</v>
       </c>
       <c r="N41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="P41" s="11">
+      <c r="P41" s="12">
         <v>6310156</v>
       </c>
-      <c r="Q41" s="29" t="s">
+      <c r="Q41" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="8">
@@ -4517,7 +4655,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>34</v>
@@ -4547,20 +4685,20 @@
         <v>29</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="12">
         <v>6310106</v>
       </c>
-      <c r="Q42" s="29" t="s">
+      <c r="Q42" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8">
@@ -4570,7 +4708,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>21</v>
@@ -4600,20 +4738,20 @@
         <v>29</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="12">
         <v>6310106</v>
       </c>
-      <c r="Q43" s="29" t="s">
+      <c r="Q43" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="8">
@@ -4658,15 +4796,15 @@
       <c r="O44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q44" s="29" t="s">
+      <c r="P44" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q44" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>8086</v>
       </c>
       <c r="B45" s="8">
@@ -4676,7 +4814,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>21</v>
@@ -4706,30 +4844,30 @@
         <v>125</v>
       </c>
       <c r="N45" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="P45" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>8086</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>181</v>
+      <c r="B46" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>21</v>
@@ -4741,7 +4879,7 @@
         <v>105</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>25</v>
@@ -4753,23 +4891,23 @@
         <v>74</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O46" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>8086</v>
       </c>
       <c r="B47" s="8">
@@ -4779,7 +4917,7 @@
         <v>102</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>21</v>
@@ -4791,7 +4929,7 @@
         <v>105</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>25</v>
@@ -4803,18 +4941,18 @@
         <v>74</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N47" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O47" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="O47" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P47" s="11">
+      <c r="P47" s="12">
         <v>6310111</v>
       </c>
       <c r="Q47" s="8" t="s">
@@ -4822,17 +4960,17 @@
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:17">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="6">
         <v>1822</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>189</v>
+      <c r="D48" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>34</v>
@@ -4844,48 +4982,48 @@
         <v>97</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="L48" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O48" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="P48" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="P48" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:17">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="6">
         <v>1822</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>189</v>
+      <c r="D49" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>21</v>
@@ -4903,25 +5041,25 @@
         <v>25</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>74</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O49" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="P49" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="P49" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="Q49" s="6" t="s">
         <v>79</v>
@@ -4938,27 +5076,27 @@
         <v>44</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J50" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L50" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>48</v>
       </c>
       <c r="N50" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O50" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O50" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q50" s="29" t="s">
+      <c r="Q50" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4973,42 +5111,42 @@
         <v>44</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J51" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>48</v>
       </c>
       <c r="N51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="O51" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="O51" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:17">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>1000</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>161</v>
+      <c r="B52" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>21</v>
@@ -5020,7 +5158,7 @@
         <v>113</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>115</v>
@@ -5031,37 +5169,37 @@
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="27" t="s">
-        <v>159</v>
+      <c r="L52" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>117</v>
       </c>
       <c r="N52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O52" s="19">
+        <v>3508</v>
+      </c>
+      <c r="P52" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="O52" s="18">
-        <v>3508</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="Q52" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:17">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>207</v>
+      <c r="B53" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>21</v>
@@ -5073,45 +5211,45 @@
         <v>132</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L53" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>211</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>135</v>
       </c>
       <c r="N53" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O53" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="P53" s="11">
+      <c r="P53" s="12">
         <v>6030276</v>
       </c>
-      <c r="Q53" s="30" t="s">
-        <v>214</v>
+      <c r="Q53" s="31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:17">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>207</v>
+      <c r="B54" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>34</v>
@@ -5123,45 +5261,45 @@
         <v>132</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L54" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" s="28" t="s">
         <v>141</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>135</v>
       </c>
       <c r="N54" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O54" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="O54" s="18" t="s">
+      <c r="P54" s="12">
+        <v>6030276</v>
+      </c>
+      <c r="Q54" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="11">
-        <v>6030276</v>
-      </c>
-      <c r="Q54" s="29" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="55" customFormat="1" spans="1:17">
-      <c r="A55" s="18">
+      <c r="A55" s="19">
         <v>8086</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="20">
         <v>1572</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>216</v>
+      <c r="D55" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>34</v>
@@ -5173,47 +5311,47 @@
         <v>105</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N55" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P55" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="Q55" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="18">
+      <c r="A56" s="19">
         <v>8086</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="20">
         <v>1572</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E56" s="18" t="s">
+      <c r="D56" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -5223,31 +5361,31 @@
         <v>105</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N56" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P56" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="O56" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q56" s="29" t="s">
-        <v>224</v>
+      <c r="Q56" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="57" s="8" customFormat="1" spans="1:17">
@@ -5261,7 +5399,7 @@
         <v>18</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>34</v>
@@ -5273,31 +5411,31 @@
         <v>23</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="28" t="s">
+      <c r="J57" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="L57" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>29</v>
       </c>
       <c r="N57" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P57" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="Q57" s="8" t="s">
         <v>79</v>
@@ -5310,13 +5448,13 @@
       <c r="B58" s="6">
         <v>1015</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -5326,31 +5464,31 @@
         <v>23</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>74</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="P58" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="P58" s="24" t="s">
-        <v>230</v>
       </c>
       <c r="Q58" s="6" t="s">
         <v>79</v>
@@ -5358,52 +5496,52 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J59" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L59" s="8" t="s">
+      <c r="N59" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="O59" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="N59" s="8" t="s">
+      <c r="P59" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="P59" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="Q59" s="8" t="s">
         <v>79</v>
@@ -5411,119 +5549,119 @@
     </row>
     <row r="60" s="8" customFormat="1" spans="1:17">
       <c r="A60" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>74</v>
       </c>
       <c r="L60" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N60" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="O60" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="N60" s="8" t="s">
+      <c r="P60" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="P60" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="Q60" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="18">
+      <c r="A61" s="19">
         <v>8086</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>244</v>
+      <c r="B61" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N61" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="P61" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="Q61" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="P61" s="11" t="s">
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:17">
+      <c r="A62" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="Q61" s="29" t="s">
+      <c r="C62" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="62" s="8" customFormat="1" spans="1:17">
-      <c r="A62" s="18">
-        <v>1000</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>34</v>
@@ -5535,31 +5673,31 @@
         <v>113</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="K62" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="L62" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>92</v>
       </c>
       <c r="N62" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P62" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="P62" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="Q62" s="8" t="s">
         <v>79</v>
@@ -5569,7 +5707,7 @@
       <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -5578,7 +5716,7 @@
       <c r="D63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -5588,13 +5726,13 @@
         <v>132</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>141</v>
@@ -5603,32 +5741,32 @@
         <v>135</v>
       </c>
       <c r="N63" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="P63" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q63" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="O63" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="P63" s="11" t="s">
+    </row>
+    <row r="64" s="6" customFormat="1" spans="1:17">
+      <c r="A64" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="Q63" s="29" t="s">
+      <c r="C64" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="23" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="64" s="6" customFormat="1" spans="1:17">
-      <c r="A64" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5644,42 +5782,42 @@
         <v>25</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>74</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="P64" s="24" t="s">
-        <v>267</v>
+        <v>194</v>
+      </c>
+      <c r="P64" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" s="6" customFormat="1" spans="1:17">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="22" t="s">
-        <v>265</v>
+      <c r="D65" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>34</v>
@@ -5697,25 +5835,25 @@
         <v>25</v>
       </c>
       <c r="J65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="L65" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="P65" s="24" t="s">
-        <v>267</v>
+        <v>194</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>79</v>
@@ -5725,250 +5863,250 @@
       <c r="A66" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" s="18">
+      <c r="B66" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="19">
         <v>1077</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J66" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L66" s="6" t="s">
+      <c r="N66" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P66" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q66" s="47" t="s">
-        <v>277</v>
+      <c r="P66" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q66" s="52" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" s="8" customFormat="1" spans="1:17">
       <c r="A67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" s="18">
+      <c r="B67" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" s="19">
         <v>1077</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J67" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M67" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L67" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="N67" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P67" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="Q67" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="P67" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q67" s="29" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:17">
       <c r="A68" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C68" s="18">
+      <c r="B68" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="19">
         <v>1077</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J68" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M68" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L68" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="N68" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q68" s="52" t="s">
         <v>285</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="P68" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q68" s="47" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:17">
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C69" s="18">
+      <c r="B69" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="19">
         <v>1077</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J69" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M69" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L69" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="N69" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P69" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q69" s="30" t="s">
         <v>289</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="P69" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q69" s="29" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="70" s="8" customFormat="1" spans="1:17">
       <c r="A70" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="18">
+      <c r="B70" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="19">
         <v>1077</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J70" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M70" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L70" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="N70" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P70" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q70" s="30" t="s">
         <v>293</v>
-      </c>
-      <c r="O70" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="P70" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q70" s="29" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="71" s="5" customFormat="1" spans="1:17">
@@ -5978,49 +6116,49 @@
       <c r="B71" s="5">
         <v>1017</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" s="32" t="s">
+      <c r="D71" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L71" s="33" t="s">
-        <v>231</v>
+        <v>191</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="M71" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P71" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q71" s="34" t="s">
+      <c r="P71" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q71" s="35" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6031,122 +6169,122 @@
       <c r="B72" s="5">
         <v>1017</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E72" s="33" t="s">
+      <c r="D72" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J72" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K72" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="L72" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P72" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q72" s="34" t="s">
+      <c r="P72" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q72" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:17">
-      <c r="A73" s="34">
+      <c r="A73" s="35">
         <v>8086</v>
       </c>
       <c r="B73" s="5">
         <v>1528</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H73" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N73" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P73" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="O73" s="6" t="s">
+      <c r="Q73" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="P73" s="44" t="s">
+    </row>
+    <row r="74" s="9" customFormat="1" spans="1:17">
+      <c r="A74" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="Q73" s="48" t="s">
+      <c r="C74" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="38" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="74" s="9" customFormat="1" spans="1:17">
-      <c r="A74" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="38" t="s">
+      <c r="F74" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="9" t="s">
@@ -6155,508 +6293,590 @@
       <c r="H74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I74" s="38" t="s">
-        <v>311</v>
+      <c r="I74" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L74" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="M74" s="38" t="s">
+      <c r="L74" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="M74" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="N74" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="O74" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="P74" s="37" t="s">
-        <v>313</v>
+      <c r="N74" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="P74" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="Q74" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" spans="1:17">
-      <c r="A75" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="36" t="s">
+      <c r="A75" s="40">
+        <v>8086</v>
+      </c>
+      <c r="B75" s="41">
+        <v>1522</v>
+      </c>
+      <c r="C75" s="39">
+        <v>8086</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H75" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="I75" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K75" s="50"/>
+      <c r="L75" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="P75" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" s="9" customFormat="1" spans="1:17">
+      <c r="A76" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="43">
+        <v>1013</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="P76" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="19">
+        <v>8086</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1563</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E75" s="38" t="s">
+      <c r="D77" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="I75" s="38" t="s">
+      <c r="F77" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="K75" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="L75" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="M75" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="N75" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="O75" s="9">
-        <v>82599</v>
-      </c>
-      <c r="P75" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q75" s="49" t="s">
+      <c r="J77" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L77" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="76" s="9" customFormat="1" spans="1:17">
-      <c r="A76" s="39">
+      <c r="M77" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q77" s="30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" s="10" customFormat="1" spans="1:17">
+      <c r="A78" s="12">
         <v>8086</v>
       </c>
-      <c r="B76" s="40">
-        <v>1522</v>
-      </c>
-      <c r="C76" s="38">
-        <v>8086</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K76" s="46"/>
-      <c r="L76" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="M76" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="N76" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="O76" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="P76" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q76" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" s="9" customFormat="1" spans="1:17">
-      <c r="A77" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="42">
-        <v>1013</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K77" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="M77" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N77" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="O77" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="P77" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q77" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="18">
-        <v>8086</v>
-      </c>
-      <c r="B78" s="8">
+      <c r="B78" s="21">
         <v>1563</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H78" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J78" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="M78" s="8" t="s">
+      <c r="J78" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="M78" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N78" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="P78" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q78" s="29" t="s">
-        <v>339</v>
+      <c r="N78" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q78" s="54" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:17">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <v>8086</v>
       </c>
-      <c r="B79" s="20">
-        <v>1563</v>
+      <c r="B79" s="21">
+        <v>1583</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="44" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I79" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M79" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="P79" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q79" s="50" t="s">
-        <v>341</v>
+        <v>187</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q79" s="55" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:17">
-      <c r="A80" s="11">
+      <c r="A80" s="12">
         <v>8086</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="21">
         <v>1583</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="44" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I80" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I80" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M80" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="P80" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q80" s="51" t="s">
-        <v>224</v>
+        <v>187</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q80" s="55" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:17">
-      <c r="A81" s="11">
+      <c r="A81" s="12">
         <v>8086</v>
       </c>
-      <c r="B81" s="20">
-        <v>1583</v>
+      <c r="B81" s="21">
+        <v>1584</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="44" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I81" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I81" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M81" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="O81" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="P81" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q81" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="P81" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q81" s="55" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:17">
-      <c r="A82" s="11">
+      <c r="A82" s="12">
         <v>8086</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="21">
         <v>1584</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E82" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="44" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I82" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I82" s="38" t="s">
         <v>25</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M82" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N82" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="P82" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q82" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" s="5" customFormat="1" spans="1:17">
+      <c r="A83" s="35">
+        <v>8086</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="O83" s="35">
+        <v>82599</v>
+      </c>
+      <c r="P83" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q83" s="53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" s="8" customFormat="1" spans="1:17">
+      <c r="A84" s="19">
+        <v>9005</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="O82" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="P82" s="11" t="s">
+      <c r="I84" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="Q82" s="51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" s="10" customFormat="1" spans="1:17">
-      <c r="A83" s="11">
-        <v>8086</v>
-      </c>
-      <c r="B83" s="20">
-        <v>1584</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="L84" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="P84" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" s="11" customFormat="1" spans="1:17">
+      <c r="A85" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I83" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N83" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="O83" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="P83" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q83" s="51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" s="5" customFormat="1" spans="1:17">
-      <c r="A84" s="34"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="48"/>
+      <c r="F85" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N85" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="O85" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="P85" s="11">
+        <v>6030393</v>
+      </c>
+      <c r="Q85" s="56" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q84">
+  <autoFilter ref="A1:Q85">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6673,29 +6893,31 @@
     <hyperlink ref="Q18" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.5.0.0054.oe1.x86_64.x86_64.rpm"/>
     <hyperlink ref="Q19" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
     <hyperlink ref="Q13" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
-    <hyperlink ref="Q31" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/elx-lpfc-12.8.340.17-1.x86_64.rpm&#10;https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/elx-lpfc-extras-12.8.340.16-1.openEuler20.noarch.rpm&#10;"/>
+    <hyperlink ref="Q31" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
     <hyperlink ref="Q42" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
     <hyperlink ref="Q40" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
     <hyperlink ref="Q7" r:id="rId8" display="https://www.nvidia.com/Download/index.aspx"/>
-    <hyperlink ref="Q53" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-12.8.340.17-1.x86_64.rpm"/>
-    <hyperlink ref="Q54" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-12.8.340.17-1.aarch64.rpm"/>
-    <hyperlink ref="Q56" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q61" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
-    <hyperlink ref="Q63" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
-    <hyperlink ref="Q55" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q68" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222"/>
-    <hyperlink ref="Q66" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222"/>
-    <hyperlink ref="Q67" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222"/>
-    <hyperlink ref="Q69" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1260&amp;Os=222"/>
-    <hyperlink ref="Q70" r:id="rId19" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1261&amp;Os=222"/>
-    <hyperlink ref="Q73" r:id="rId20" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.x86_64.rpm "/>
-    <hyperlink ref="Q75" r:id="rId21" display="https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip"/>
-    <hyperlink ref="Q79" r:id="rId22" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
-    <hyperlink ref="Q78" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
-    <hyperlink ref="Q81" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q80" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q83" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q82" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q53" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
+    <hyperlink ref="Q54" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
+    <hyperlink ref="Q56" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q61" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
+    <hyperlink ref="Q63" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64"/>
+    <hyperlink ref="Q55" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q68" r:id="rId14" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1259&amp;Os=222"/>
+    <hyperlink ref="Q66" r:id="rId15" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1044&amp;Os=222"/>
+    <hyperlink ref="Q67" r:id="rId16" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222" tooltip="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1258&amp;Os=222"/>
+    <hyperlink ref="Q69" r:id="rId17" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1260&amp;Os=222"/>
+    <hyperlink ref="Q70" r:id="rId18" display="https://driverdownloads.qlogic.com/QLogicDriverDownloads_UI/ShowEula.aspx?resourceid=33416&amp;docid=98382&amp;ProductCategory=39&amp;Product=1261&amp;Os=222"/>
+    <hyperlink ref="Q73" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.x86_64.rpm "/>
+    <hyperlink ref="Q78" r:id="rId20" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
+    <hyperlink ref="Q77" r:id="rId21" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
+    <hyperlink ref="Q80" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q79" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q82" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q81" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q83" r:id="rId21" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm "/>
+    <hyperlink ref="Q85" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
+    <hyperlink ref="Q29" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -6722,19 +6944,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$138</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="529">
   <si>
     <t>vendorID</t>
   </si>
@@ -2641,13 +2641,132 @@
     </r>
   </si>
   <si>
-    <t>2.8M</t>
+    <t>308M</t>
   </si>
   <si>
     <t>MT27804A0-FCCF-EV</t>
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>26.100.00.00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020.12.23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40K</t>
+    </r>
+  </si>
+  <si>
+    <t>SR130</t>
+  </si>
+  <si>
+    <t>LSI SAS3008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3022CDE</t>
+    </r>
   </si>
   <si>
     <t>板卡</t>
@@ -2669,7 +2788,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2720,12 +2839,125 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2741,113 +2973,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2886,7 +3012,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,43 +3132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2946,25 +3162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,91 +3186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3093,22 +3219,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3137,26 +3272,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3171,31 +3312,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3204,131 +3330,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3338,7 +3464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
@@ -3443,6 +3569,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3801,12 +3930,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N78" sqref="N78"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10401,7 +10530,7 @@
       <c r="P129" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="Q129" s="45" t="s">
+      <c r="Q129" s="46" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10452,7 +10581,7 @@
       <c r="P130" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="Q130" s="45" t="s">
+      <c r="Q130" s="46" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10650,10 +10779,10 @@
       <c r="O134" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="P134" s="47" t="s">
+      <c r="P134" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="Q134" s="45" t="s">
+      <c r="Q134" s="46" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10700,10 +10829,10 @@
       <c r="O135" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P135" s="47" t="s">
+      <c r="P135" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="Q135" s="45" t="s">
+      <c r="Q135" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10804,12 +10933,65 @@
       <c r="P137" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="Q137" s="46" t="s">
+      <c r="Q137" s="47" t="s">
         <v>517</v>
       </c>
     </row>
+    <row r="138" s="12" customFormat="1" ht="15" customHeight="1" spans="1:17">
+      <c r="A138" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="D138" s="41">
+        <v>3090</v>
+      </c>
+      <c r="E138" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H138" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="I138" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="J138" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="K138" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="L138" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="M138" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N138" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="O138" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="P138" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q138" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q137">
+  <autoFilter ref="A1:Q138">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -10900,10 +11082,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -10912,7 +11094,7 @@
         <v>369</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$143</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="550">
   <si>
     <t>vendorID</t>
   </si>
@@ -57,7 +57,7 @@
     <t>driverSize</t>
   </si>
   <si>
-    <t>chipVendor</t>
+    <t>Emulex</t>
   </si>
   <si>
     <t>boardModel</t>
@@ -72,6 +72,9 @@
     <t>downloadLink</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>03025SNT</t>
   </si>
   <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz</t>
   </si>
   <si>
     <t>aarch64</t>
@@ -151,7 +154,7 @@
     <t>241MB</t>
   </si>
   <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz</t>
   </si>
   <si>
     <t>d135</t>
@@ -221,7 +224,7 @@
     <t>02570029</t>
   </si>
   <si>
-    <t>https://www.nvidia.com/Download/index.aspx</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run</t>
   </si>
   <si>
     <t>0006</t>
@@ -621,9 +624,6 @@
     <t>3.4MB</t>
   </si>
   <si>
-    <t>Emulex</t>
-  </si>
-  <si>
     <t>LPe31002</t>
   </si>
   <si>
@@ -1862,9 +1862,6 @@
     <t>CX4Lx</t>
   </si>
   <si>
-    <t>https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download</t>
-  </si>
-  <si>
     <t>1017</t>
   </si>
   <si>
@@ -1974,7 +1971,7 @@
     <t>02312QWY</t>
   </si>
   <si>
-    <t>RAID-3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-aarch64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/RAID-3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-aarch64.rpm</t>
   </si>
   <si>
     <t>0203</t>
@@ -2001,7 +1998,7 @@
     <t>02312SEF</t>
   </si>
   <si>
-    <t>FC-IN300-openEuler20.03-hifc-3.7.0.8-aarch64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/FC-IN300-openEuler20.03-hifc-3.7.0.8-aarch64.rpm</t>
   </si>
   <si>
     <t>SP525(dual-port)</t>
@@ -2016,7 +2013,7 @@
     <t>423KB</t>
   </si>
   <si>
-    <t>NIC-IN200-openEuler20.03-hinicadm-3.7.0.8-aarch64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/NIC-IN200-openEuler20.03-hinicadm-3.7.0.8-aarch64.rpm</t>
   </si>
   <si>
     <t>d12c</t>
@@ -2031,9 +2028,6 @@
     <t>02312DJG</t>
   </si>
   <si>
-    <t>https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed</t>
-  </si>
-  <si>
     <t>0068</t>
   </si>
   <si>
@@ -2132,7 +2126,7 @@
     <t>02312LDN</t>
   </si>
   <si>
-    <t>NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm</t>
   </si>
   <si>
     <t>37ce</t>
@@ -2183,7 +2177,7 @@
     <t>03024RLG</t>
   </si>
   <si>
-    <t>RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm</t>
   </si>
   <si>
     <t>005d</t>
@@ -2348,7 +2342,7 @@
     <t>2021.4.30</t>
   </si>
   <si>
-    <t>NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm</t>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm</t>
   </si>
   <si>
     <r>
@@ -2407,9 +2401,6 @@
     <t>XL710-40GE</t>
   </si>
   <si>
-    <t>https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip</t>
-  </si>
-  <si>
     <t>1583</t>
   </si>
   <si>
@@ -2641,15 +2632,12 @@
     </r>
   </si>
   <si>
-    <t>308M</t>
+    <t>308MB</t>
   </si>
   <si>
     <t>MT27804A0-FCCF-EV</t>
   </si>
   <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2697,48 +2685,7 @@
     <t>26.100.00.00</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>020.12.23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40K</t>
-    </r>
+    <t>540KB</t>
   </si>
   <si>
     <t>SR130</t>
@@ -2767,6 +2714,84 @@
       </rPr>
       <t>3022CDE</t>
     </r>
+  </si>
+  <si>
+    <t>912KB</t>
+  </si>
+  <si>
+    <t>PE12000-AP/LPE12002-AP</t>
+  </si>
+  <si>
+    <t>2021.04.15</t>
+  </si>
+  <si>
+    <t>2.5MB</t>
+  </si>
+  <si>
+    <t>1b38</t>
+  </si>
+  <si>
+    <t>11d9</t>
+  </si>
+  <si>
+    <t>460.32.03</t>
+  </si>
+  <si>
+    <t>2021.04.19</t>
+  </si>
+  <si>
+    <t>170MB</t>
+  </si>
+  <si>
+    <t>Tesla P40</t>
+  </si>
+  <si>
+    <t>GP102</t>
+  </si>
+  <si>
+    <t>063201004</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run</t>
+  </si>
+  <si>
+    <t>驱动使能完成，未找到对应的Nvqual工具包</t>
+  </si>
+  <si>
+    <t>16d7</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>bnxt_en</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>393KB</t>
+  </si>
+  <si>
+    <t>Broadcom Limited</t>
+  </si>
+  <si>
+    <t>BCM957414A4142CC_08</t>
+  </si>
+  <si>
+    <t>BCM57414</t>
+  </si>
+  <si>
+    <t>06310148</t>
+  </si>
+  <si>
+    <t>25G光模块不可识别，10G光模块识别正常，使用10G光模块完成的测试</t>
+  </si>
+  <si>
+    <t>2EEC80BC58F59DBB7551CA377B2997E2F4C01CC4</t>
+  </si>
+  <si>
+    <t>349KB</t>
   </si>
   <si>
     <t>板卡</t>
@@ -2784,8 +2809,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2824,6 +2849,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2837,7 +2870,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2845,13 +2894,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2872,6 +2914,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2879,17 +2929,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2904,7 +2960,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2933,47 +2997,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3006,13 +3032,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3030,19 +3086,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,7 +3116,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,13 +3146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3084,25 +3170,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3120,73 +3206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3215,11 +3241,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3248,17 +3280,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3288,27 +3325,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3318,10 +3344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3330,131 +3356,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3464,7 +3490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
@@ -3530,6 +3556,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3538,11 +3565,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3570,13 +3597,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3930,12 +3958,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomLeft" activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3960,7 +3988,7 @@
     <col min="18" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="20.25" customHeight="1" spans="1:17">
+    <row r="1" s="4" customFormat="1" ht="20.25" customHeight="1" spans="1:18">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4012,429 +4040,432 @@
       <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="15">
         <v>1015</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="15">
         <v>1015</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="15">
         <v>1017</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="15">
         <v>1017</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="15">
         <v>7.9</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="27" t="s">
         <v>54</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="15">
         <v>1017</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="15">
         <v>1017</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4445,49 +4476,49 @@
         <v>2532</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4498,155 +4529,155 @@
         <v>2532</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="15">
         <v>1007</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="15">
         <v>1007</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4654,52 +4685,52 @@
         <v>1002</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4707,52 +4738,52 @@
         <v>1002</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4760,52 +4791,52 @@
         <v>1002</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4813,423 +4844,423 @@
         <v>1002</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="15">
         <v>1015</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="15">
         <v>1015</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:17">
       <c r="A20" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="15">
         <v>3714</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="15">
         <v>3714</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="15">
         <v>1822</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O22" s="15">
         <v>1822</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="15">
         <v>1822</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O23" s="15">
         <v>1822</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P24" s="15">
         <v>38130153</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -5237,52 +5268,52 @@
         <v>1000</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5290,199 +5321,199 @@
         <v>1000</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" s="15">
         <v>1521</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:17">
       <c r="A28" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="15">
         <v>1521</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:17">
       <c r="A29" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="D29" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H29" s="14">
         <v>0.1</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>144</v>
@@ -5493,49 +5524,49 @@
       <c r="P29" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>148</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>144</v>
@@ -5552,43 +5583,43 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:17">
       <c r="A31" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="14">
         <v>0.1</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>152</v>
@@ -5605,7 +5636,7 @@
     </row>
     <row r="32" s="6" customFormat="1" spans="1:17">
       <c r="A32" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>155</v>
@@ -5617,10 +5648,10 @@
         <v>156</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>157</v>
@@ -5629,19 +5660,19 @@
         <v>158</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>159</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>160</v>
@@ -5653,12 +5684,12 @@
         <v>162</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" s="6" customFormat="1" spans="1:17">
       <c r="A33" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>163</v>
@@ -5670,10 +5701,10 @@
         <v>156</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>157</v>
@@ -5682,19 +5713,19 @@
         <v>158</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>159</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>160</v>
@@ -5706,27 +5737,27 @@
         <v>162</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" s="6" customFormat="1" spans="1:17">
       <c r="A34" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>155</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>164</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>157</v>
@@ -5735,19 +5766,19 @@
         <v>158</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>159</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N34" s="14" t="s">
         <v>165</v>
@@ -5759,27 +5790,27 @@
         <v>162</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" s="6" customFormat="1" spans="1:17">
       <c r="A35" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>163</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>157</v>
@@ -5788,19 +5819,19 @@
         <v>158</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>159</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>165</v>
@@ -5812,7 +5843,7 @@
         <v>162</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5820,52 +5851,52 @@
         <v>1000</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>166</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>167</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P36" s="14" t="s">
         <v>168</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5876,37 +5907,37 @@
         <v>169</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>170</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>166</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L37" s="25" t="s">
         <v>167</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N37" s="14" t="s">
         <v>171</v>
@@ -5918,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5929,16 +5960,16 @@
         <v>173</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>174</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>175</v>
@@ -5947,19 +5978,19 @@
         <v>166</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L38" s="25" t="s">
         <v>167</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N38" s="14" t="s">
         <v>176</v>
@@ -5971,7 +6002,7 @@
         <v>178</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5982,16 +6013,16 @@
         <v>173</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>175</v>
@@ -6000,19 +6031,19 @@
         <v>166</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>167</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N39" s="14" t="s">
         <v>176</v>
@@ -6024,48 +6055,48 @@
         <v>178</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" s="15">
         <v>1017</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>179</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N40" s="14" t="s">
         <v>180</v>
@@ -6077,48 +6108,48 @@
         <v>182</v>
       </c>
       <c r="Q40" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" s="15">
         <v>1017</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>179</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N41" s="14" t="s">
         <v>180</v>
@@ -6130,166 +6161,166 @@
         <v>182</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="15">
         <v>1015</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N42" s="14" t="s">
         <v>184</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P42" s="23" t="s">
         <v>185</v>
       </c>
       <c r="Q42" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" s="15">
         <v>1015</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>183</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N43" s="14" t="s">
         <v>184</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P43" s="23" t="s">
         <v>185</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:17">
       <c r="A44" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" s="15">
         <v>1015</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>186</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -6300,37 +6331,37 @@
         <v>1521</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>187</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>188</v>
@@ -6342,7 +6373,7 @@
         <v>190</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -6353,37 +6384,37 @@
         <v>191</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>192</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>193</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>194</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N46" s="7" t="s">
         <v>195</v>
@@ -6392,7 +6423,7 @@
         <v>196</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6403,37 +6434,37 @@
         <v>1584</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>156</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>193</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>194</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N47" s="14" t="s">
         <v>197</v>
@@ -6445,36 +6476,36 @@
         <v>199</v>
       </c>
       <c r="Q47" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" s="7" customFormat="1" spans="1:17">
       <c r="A48" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" s="23">
         <v>1822</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>202</v>
@@ -6486,7 +6517,7 @@
         <v>204</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>205</v>
@@ -6498,48 +6529,48 @@
         <v>207</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" s="8" customFormat="1" spans="1:17">
       <c r="A49" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" s="23">
         <v>1822</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>208</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>209</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>205</v>
@@ -6551,24 +6582,24 @@
         <v>207</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="5:17">
       <c r="E50" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>210</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>211</v>
@@ -6577,7 +6608,7 @@
         <v>212</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N50" s="14" t="s">
         <v>213</v>
@@ -6588,25 +6619,25 @@
       <c r="P50" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="Q50" s="27" t="s">
-        <v>54</v>
+      <c r="Q50" s="29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:17">
       <c r="E51" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>210</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>211</v>
@@ -6615,7 +6646,7 @@
         <v>212</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N51" s="14" t="s">
         <v>216</v>
@@ -6627,7 +6658,7 @@
         <v>218</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6638,37 +6669,37 @@
         <v>169</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>219</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>166</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L52" s="25" t="s">
         <v>167</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>171</v>
@@ -6680,36 +6711,36 @@
         <v>172</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>222</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>223</v>
@@ -6718,7 +6749,7 @@
         <v>224</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N53" s="14" t="s">
         <v>225</v>
@@ -6735,31 +6766,31 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>222</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>223</v>
@@ -6768,7 +6799,7 @@
         <v>228</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N54" s="14" t="s">
         <v>225</v>
@@ -6791,25 +6822,25 @@
         <v>1572</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>229</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>231</v>
@@ -6818,7 +6849,7 @@
         <v>232</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N55" s="14" t="s">
         <v>233</v>
@@ -6841,25 +6872,25 @@
         <v>1572</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>229</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>230</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>231</v>
@@ -6868,7 +6899,7 @@
         <v>237</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>233</v>
@@ -6885,31 +6916,31 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" s="15">
         <v>1015</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>240</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" s="26" t="s">
         <v>202</v>
@@ -6921,7 +6952,7 @@
         <v>241</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>242</v>
@@ -6933,48 +6964,48 @@
         <v>244</v>
       </c>
       <c r="Q57" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" s="8" customFormat="1" spans="1:17">
       <c r="A58" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B58" s="23">
         <v>1015</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>240</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>208</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>245</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>242</v>
@@ -6986,7 +7017,7 @@
         <v>244</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6997,16 +7028,16 @@
         <v>247</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>248</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>249</v>
@@ -7015,7 +7046,7 @@
         <v>250</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>251</v>
@@ -7039,7 +7070,7 @@
         <v>256</v>
       </c>
       <c r="Q59" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -7050,16 +7081,16 @@
         <v>247</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>248</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>249</v>
@@ -7068,13 +7099,13 @@
         <v>250</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>257</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>252</v>
@@ -7092,7 +7123,7 @@
         <v>256</v>
       </c>
       <c r="Q60" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7103,16 +7134,16 @@
         <v>258</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>259</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>260</v>
@@ -7121,7 +7152,7 @@
         <v>261</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>231</v>
@@ -7130,7 +7161,7 @@
         <v>262</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N61" s="14" t="s">
         <v>263</v>
@@ -7153,25 +7184,25 @@
         <v>267</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>268</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>269</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>202</v>
@@ -7183,7 +7214,7 @@
         <v>270</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>271</v>
@@ -7195,36 +7226,36 @@
         <v>273</v>
       </c>
       <c r="Q62" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="D63" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>222</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>149</v>
@@ -7233,7 +7264,7 @@
         <v>228</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>274</v>
@@ -7245,48 +7276,48 @@
         <v>275</v>
       </c>
       <c r="Q63" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" s="7" customFormat="1" spans="1:17">
       <c r="A64" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>277</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>208</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>209</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>278</v>
@@ -7298,36 +7329,36 @@
         <v>279</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" s="7" customFormat="1" spans="1:17">
       <c r="A65" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>277</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>202</v>
@@ -7339,7 +7370,7 @@
         <v>204</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>278</v>
@@ -7351,12 +7382,12 @@
         <v>279</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>280</v>
@@ -7368,22 +7399,22 @@
         <v>281</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>282</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>283</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>284</v>
@@ -7395,18 +7426,18 @@
         <v>286</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P66" s="23" t="s">
         <v>287</v>
       </c>
       <c r="Q66" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>288</v>
@@ -7418,22 +7449,22 @@
         <v>289</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>282</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>283</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>284</v>
@@ -7456,7 +7487,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>288</v>
@@ -7468,22 +7499,22 @@
         <v>294</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>282</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>283</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>284</v>
@@ -7506,7 +7537,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>288</v>
@@ -7518,22 +7549,22 @@
         <v>298</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>282</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>283</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>284</v>
@@ -7556,7 +7587,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>288</v>
@@ -7568,22 +7599,22 @@
         <v>302</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>282</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>283</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>284</v>
@@ -7606,31 +7637,31 @@
     </row>
     <row r="71" s="6" customFormat="1" spans="1:17">
       <c r="A71" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" s="22">
         <v>1017</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="31" t="s">
+      <c r="E71" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="F71" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="G71" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="32" t="s">
         <v>240</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>257</v>
@@ -7638,76 +7669,76 @@
       <c r="K71" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L71" s="31" t="s">
+      <c r="L71" s="32" t="s">
         <v>245</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P71" s="22" t="s">
         <v>308</v>
       </c>
       <c r="Q71" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" s="6" customFormat="1" spans="1:17">
       <c r="A72" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" s="22">
         <v>1017</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E72" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>22</v>
+      <c r="E72" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="32" t="s">
         <v>240</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="33" t="s">
         <v>202</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L72" s="31" t="s">
+      <c r="L72" s="32" t="s">
         <v>309</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P72" s="22" t="s">
         <v>308</v>
       </c>
       <c r="Q72" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" spans="1:17">
@@ -7718,16 +7749,16 @@
         <v>1528</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>310</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>311</v>
@@ -7736,19 +7767,19 @@
         <v>312</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>313</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>314</v>
@@ -7759,34 +7790,34 @@
       <c r="P73" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="Q73" s="36" t="s">
+      <c r="Q73" s="37" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:17">
       <c r="A74" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B74" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>319</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>320</v>
@@ -7795,13 +7826,13 @@
         <v>257</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>209</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N74" s="7" t="s">
         <v>321</v>
@@ -7813,27 +7844,27 @@
         <v>322</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" s="10" customFormat="1" spans="1:17">
       <c r="A75" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>324</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>311</v>
@@ -7842,7 +7873,7 @@
         <v>325</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>326</v>
@@ -7865,7 +7896,7 @@
       <c r="P75" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="Q75" s="37" t="s">
+      <c r="Q75" s="38" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7883,10 +7914,10 @@
         <v>332</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>333</v>
@@ -7895,7 +7926,7 @@
         <v>334</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>211</v>
@@ -7905,7 +7936,7 @@
         <v>335</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N76" s="7" t="s">
         <v>336</v>
@@ -7917,36 +7948,36 @@
         <v>338</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:17">
       <c r="A77" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B77" s="23">
         <v>1013</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>240</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>257</v>
@@ -7958,7 +7989,7 @@
         <v>245</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>339</v>
@@ -7969,8 +8000,8 @@
       <c r="P77" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="Q77" s="38" t="s">
-        <v>87</v>
+      <c r="Q77" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -7981,16 +8012,16 @@
         <v>1563</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>342</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>311</v>
@@ -7999,7 +8030,7 @@
         <v>312</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>211</v>
@@ -8032,16 +8063,16 @@
         <v>1563</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>342</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>311</v>
@@ -8050,7 +8081,7 @@
         <v>312</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>231</v>
@@ -8083,25 +8114,25 @@
         <v>1583</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>230</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>211</v>
@@ -8134,25 +8165,25 @@
         <v>1583</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>230</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>231</v>
@@ -8185,25 +8216,25 @@
         <v>1584</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>230</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>211</v>
@@ -8236,25 +8267,25 @@
         <v>1584</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>230</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>231</v>
@@ -8293,10 +8324,10 @@
         <v>358</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>359</v>
@@ -8305,7 +8336,7 @@
         <v>360</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>361</v>
@@ -8332,41 +8363,41 @@
     </row>
     <row r="85" s="11" customFormat="1" spans="1:17">
       <c r="A85" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B85" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="D85" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>222</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>223</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="N85" s="7" t="s">
         <v>274</v>
@@ -8377,25 +8408,25 @@
       <c r="P85" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="Q85" s="39" t="s">
+      <c r="Q85" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>155</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>282</v>
@@ -8407,13 +8438,13 @@
         <v>368</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N86" s="7" t="s">
         <v>369</v>
@@ -8425,24 +8456,24 @@
         <v>371</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>163</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>282</v>
@@ -8454,13 +8485,13 @@
         <v>368</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N87" s="7" t="s">
         <v>369</v>
@@ -8472,528 +8503,528 @@
         <v>371</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" s="23" t="s">
         <v>372</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>373</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>374</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O88" s="7" t="s">
         <v>375</v>
       </c>
       <c r="P88" s="7"/>
       <c r="Q88" s="28" t="s">
-        <v>376</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="E89" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>374</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N89" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P89" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="O89" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q89" s="27" t="s">
-        <v>376</v>
+      <c r="Q89" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>374</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N90" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P90" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="O90" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q90" s="27" t="s">
-        <v>376</v>
+      <c r="Q90" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="O91" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="M91" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="O91" s="7" t="s">
+      <c r="P91" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P91" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="Q91" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B92" s="23" t="s">
         <v>372</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O92" s="7" t="s">
         <v>375</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q92" s="27" t="s">
-        <v>376</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>374</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N93" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P93" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="O93" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P93" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="Q93" s="27" t="s">
-        <v>376</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>374</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N94" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P94" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="O94" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P94" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="Q94" s="27" t="s">
-        <v>376</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B95" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="E95" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="J95" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N95" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="M95" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N95" s="7" t="s">
+      <c r="O95" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P95" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="O95" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P95" s="7" t="s">
+      <c r="Q95" s="27" t="s">
         <v>406</v>
-      </c>
-      <c r="Q95" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B96" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="E96" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H96" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="I96" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N96" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="M96" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N96" s="7" t="s">
+      <c r="O96" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="O96" s="7" t="s">
+      <c r="P96" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P96" s="7" t="s">
+      <c r="Q96" s="27" t="s">
         <v>415</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B97" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="E97" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G97" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H97" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="I97" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P97" s="7"/>
-      <c r="Q97" s="7" t="s">
-        <v>416</v>
+      <c r="Q97" s="27" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N98" s="7" t="s">
         <v>205</v>
@@ -9002,47 +9033,47 @@
         <v>206</v>
       </c>
       <c r="P98" s="7"/>
-      <c r="Q98" s="7" t="s">
-        <v>421</v>
+      <c r="Q98" s="27" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>277</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>278</v>
@@ -9051,282 +9082,282 @@
         <v>206</v>
       </c>
       <c r="P99" s="7"/>
-      <c r="Q99" s="7" t="s">
-        <v>421</v>
+      <c r="Q99" s="27" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>372</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>375</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q100" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N101" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P101" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="O101" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="Q101" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q102" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q103" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N104" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P104" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="O104" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="Q104" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>332</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N105" s="7" t="s">
         <v>336</v>
@@ -9349,47 +9380,47 @@
         <v>1521</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N106" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N106" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>189</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q106" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -9400,47 +9431,47 @@
         <v>1572</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>234</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q107" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="Q107" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9448,50 +9479,50 @@
         <v>8086</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N108" s="33" t="s">
-        <v>450</v>
+        <v>117</v>
+      </c>
+      <c r="N108" s="34" t="s">
+        <v>448</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q108" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="Q108" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -9499,50 +9530,50 @@
         <v>8086</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N109" s="33" t="s">
-        <v>450</v>
+        <v>117</v>
+      </c>
+      <c r="N109" s="34" t="s">
+        <v>448</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q109" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="Q109" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -9550,50 +9581,50 @@
         <v>8086</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N110" s="33" t="s">
-        <v>450</v>
+        <v>117</v>
+      </c>
+      <c r="N110" s="34" t="s">
+        <v>448</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q110" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="Q110" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -9601,50 +9632,50 @@
         <v>8086</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N111" s="33" t="s">
-        <v>450</v>
+        <v>117</v>
+      </c>
+      <c r="N111" s="34" t="s">
+        <v>448</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q111" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="Q111" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -9655,47 +9686,47 @@
         <v>1572</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O112" s="7" t="s">
         <v>198</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q112" s="14" t="s">
-        <v>447</v>
+        <v>455</v>
+      </c>
+      <c r="Q112" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -9703,50 +9734,50 @@
         <v>1000</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I113" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J113" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="O113" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="M113" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N113" s="7" t="s">
+      <c r="P113" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="O113" s="7" t="s">
+      <c r="Q113" s="28" t="s">
         <v>462</v>
-      </c>
-      <c r="P113" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q113" s="14" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -9754,50 +9785,50 @@
         <v>1000</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D114" s="7">
         <v>9361</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H114" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I114" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I114" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J114" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N114" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="O114" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P114" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="O114" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="P114" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q114" s="14" t="s">
-        <v>464</v>
+      <c r="Q114" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -9805,50 +9836,50 @@
         <v>1000</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H115" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J115" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q115" s="14" t="s">
-        <v>464</v>
+        <v>469</v>
+      </c>
+      <c r="Q115" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -9856,50 +9887,50 @@
         <v>1000</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I116" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I116" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J116" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P116" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q116" s="14" t="s">
-        <v>464</v>
+        <v>471</v>
+      </c>
+      <c r="Q116" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -9907,50 +9938,50 @@
         <v>1000</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D117" s="7">
         <v>9440</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H117" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J117" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N117" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P117" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="O117" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P117" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q117" s="14" t="s">
-        <v>464</v>
+      <c r="Q117" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -9958,50 +9989,50 @@
         <v>1000</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H118" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I118" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I118" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J118" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N118" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="O118" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P118" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="O118" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="P118" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q118" s="14" t="s">
-        <v>464</v>
+      <c r="Q118" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -10009,50 +10040,50 @@
         <v>1000</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H119" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J119" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N119" s="7" t="s">
         <v>171</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P119" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q119" s="14" t="s">
-        <v>464</v>
+      <c r="Q119" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -10060,88 +10091,88 @@
         <v>1000</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H120" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I120" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I120" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J120" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N120" s="7" t="s">
         <v>271</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P120" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="Q120" s="14" t="s">
-        <v>464</v>
+      <c r="Q120" s="28" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B121" s="23">
         <v>1015</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>183</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O121" s="7" t="s">
         <v>375</v>
@@ -10150,237 +10181,237 @@
         <v>185</v>
       </c>
       <c r="Q121" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B122" s="23">
         <v>1015</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>375</v>
       </c>
       <c r="P122" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q122" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B123" s="23">
         <v>1015</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O123" s="7" t="s">
         <v>375</v>
       </c>
       <c r="P123" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q123" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B124" s="15">
         <v>1017</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J124" s="7"/>
       <c r="M124" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N124" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N124" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="O124" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P124" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="O124" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="P124" s="23" t="s">
-        <v>398</v>
-      </c>
       <c r="Q124" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B125" s="15">
         <v>1017</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J125" s="7"/>
       <c r="M125" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N125" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="O125" s="35" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="N125" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="O125" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="P125" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q125" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B126" s="15">
         <v>1017</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N126" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="O126" s="35" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="N126" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="O126" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="P126" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q126" s="27" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -10391,46 +10422,46 @@
         <v>1572</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M127" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N127" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="E127" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H127" s="7" t="s">
+      <c r="O127" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="P127" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="I127" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L127" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M127" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N127" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="O127" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="P127" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q127" s="7" t="s">
-        <v>487</v>
+      <c r="Q127" s="27" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10441,148 +10472,148 @@
         <v>1572</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M128" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N128" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="O128" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="P128" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="E128" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L128" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M128" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N128" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="O128" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="P128" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q128" s="7" t="s">
-        <v>487</v>
+      <c r="Q128" s="27" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="1" spans="1:17">
-      <c r="A129" s="40">
+      <c r="A129" s="41">
         <v>8086</v>
       </c>
       <c r="B129" s="10">
         <v>1584</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H129" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="I129" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="K129" s="42"/>
+      <c r="L129" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="E129" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" s="12" t="s">
+      <c r="M129" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="N129" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="O129" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="P129" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q129" s="46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" s="12" customFormat="1" spans="1:17">
+      <c r="A130" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="E130" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G129" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H129" s="41" t="s">
-        <v>444</v>
-      </c>
-      <c r="I129" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J129" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="M129" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="N129" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="O129" s="41" t="s">
+      <c r="F130" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="M130" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="N130" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="P129" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q129" s="46" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="130" s="12" customFormat="1" spans="1:17">
-      <c r="A130" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="C130" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="D130" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="E130" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="M130" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="N130" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="O130" s="41" t="s">
+      <c r="O130" s="42" t="s">
         <v>198</v>
       </c>
       <c r="P130" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="Q130" s="46" t="s">
-        <v>494</v>
+      <c r="Q130" s="47" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="131" s="12" customFormat="1" spans="1:17">
@@ -10593,46 +10624,46 @@
         <v>2261</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>298</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H131" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="42" t="s">
         <v>283</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="L131" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="L131" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="M131" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="N131" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="O131" s="31" t="s">
+      <c r="M131" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N131" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="O131" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="P131" s="31" t="s">
+      <c r="P131" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="Q131" s="31" t="s">
-        <v>70</v>
+      <c r="Q131" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="132" s="12" customFormat="1" spans="1:17">
@@ -10643,46 +10674,46 @@
         <v>2261</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D132" s="38" t="s">
-        <v>499</v>
+        <v>59</v>
+      </c>
+      <c r="D132" s="39" t="s">
+        <v>496</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H132" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H132" s="42" t="s">
         <v>283</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J132" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="L132" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M132" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N132" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="L132" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="M132" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="N132" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="O132" s="31" t="s">
+      <c r="O132" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="P132" s="31" t="s">
+      <c r="P132" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="Q132" s="31" t="s">
-        <v>70</v>
+      <c r="Q132" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="133" s="12" customFormat="1" spans="1:17">
@@ -10693,167 +10724,167 @@
         <v>2261</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H133" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="L133" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M133" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="N133" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="O133" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="P133" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q133" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
+      <c r="A134" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="B134" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="E133" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F133" s="12" t="s">
+      <c r="C134" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="D134" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="E134" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G133" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H133" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J133" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="L133" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="M133" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="N133" s="31" t="s">
+      <c r="F134" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="I134" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J134" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="K134" s="42"/>
+      <c r="L134" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="M134" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N134" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="O134" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="P134" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q134" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" s="12" customFormat="1" spans="1:17">
+      <c r="A135" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="O133" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="P133" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q133" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="134" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
-      <c r="A134" s="41" t="s">
+      <c r="D135" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="B134" s="41" t="s">
+      <c r="E135" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="C134" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="D134" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E134" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H134" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="I134" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="J134" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="M134" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="N134" s="41" t="s">
+      <c r="I135" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J135" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="O134" s="41" t="s">
+      <c r="L135" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M135" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N135" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="P134" s="48" t="s">
+      <c r="O135" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="Q134" s="46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" s="12" customFormat="1" spans="1:17">
-      <c r="A135" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="B135" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="C135" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="D135" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E135" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F135" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H135" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="I135" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="J135" s="41" t="s">
+      <c r="P135" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="L135" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M135" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="N135" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="O135" s="41" t="s">
-        <v>513</v>
-      </c>
-      <c r="P135" s="48" t="s">
-        <v>514</v>
-      </c>
       <c r="Q135" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" s="10" customFormat="1" spans="1:17">
       <c r="A136" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E136" s="41" t="s">
-        <v>34</v>
+      <c r="E136" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>311</v>
@@ -10862,7 +10893,7 @@
         <v>312</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J136" s="7" t="s">
         <v>326</v>
@@ -10883,179 +10914,463 @@
       <c r="P136" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="Q136" s="37" t="s">
+      <c r="Q136" s="38" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="137" s="13" customFormat="1" spans="1:17">
       <c r="A137" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B137" s="43">
+        <v>19</v>
+      </c>
+      <c r="B137" s="44">
         <v>1017</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="E137" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I137" s="13" t="s">
+      <c r="J137" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="L137" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="M137" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N137" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="J137" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="L137" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="M137" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N137" s="13" t="s">
+      <c r="O137" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="P137" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="O137" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="P137" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q137" s="47" t="s">
-        <v>517</v>
+      <c r="Q137" s="48" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138" s="12" customFormat="1" ht="15" customHeight="1" spans="1:17">
       <c r="A138" s="12">
         <v>1000</v>
       </c>
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="C138" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="D138" s="42">
+        <v>3090</v>
+      </c>
+      <c r="E138" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H138" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="I138" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="J138" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K138" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L138" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="M138" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N138" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="C138" s="41" t="s">
+      <c r="O138" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="D138" s="41">
-        <v>3090</v>
-      </c>
-      <c r="E138" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F138" s="41" t="s">
+      <c r="P138" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q138" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J139" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="M139" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O139" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q139" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" s="13" customFormat="1" spans="1:17">
+      <c r="A140" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="44">
+        <v>1017</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="M140" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N140" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="O140" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="P140" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q140" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E141" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G138" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="H138" s="41" t="s">
-        <v>520</v>
-      </c>
-      <c r="I138" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="J138" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="K138" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="L138" s="41" t="s">
-        <v>522</v>
-      </c>
-      <c r="M138" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="N138" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="O138" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="P138" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q138" s="41" t="s">
-        <v>87</v>
+      <c r="F141" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J141" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="M141" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N141" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="O141" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="P141" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q141" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="R141" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
+      <c r="A142" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E142" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K142" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L142" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="M142" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="N142" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="O142" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="P142" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q142" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R142" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K143" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="M143" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="N143" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="O143" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="P143" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q143" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q138">
+  <autoFilter ref="A1:Q143">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q4" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
     <hyperlink ref="Q30" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
-    <hyperlink ref="Q5" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q6" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q8" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q9" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/mlnx-ofa_kernel-modules-5.1-OFED.5.1.2.5.2.1.kver.4.19.90_2012.4.0.0053.oe1.aarch64.aarch64.rpm"/>
+    <hyperlink ref="Q5" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q6" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q8" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q9" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
     <hyperlink ref="Q10" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm"/>
     <hyperlink ref="Q11" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm"/>
-    <hyperlink ref="Q12" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q18" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q19" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q13" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q31" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
-    <hyperlink ref="Q42" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q40" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q7" r:id="rId9" display="https://www.nvidia.com/Download/index.aspx"/>
-    <hyperlink ref="Q53" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
+    <hyperlink ref="Q12" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q18" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q19" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q13" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q31" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
+    <hyperlink ref="Q42" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q40" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q7" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run"/>
+    <hyperlink ref="Q53" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
     <hyperlink ref="Q54" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
-    <hyperlink ref="Q56" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q61" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
-    <hyperlink ref="Q63" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q55" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q73" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
-    <hyperlink ref="Q79" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
-    <hyperlink ref="Q78" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
-    <hyperlink ref="Q81" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q80" r:id="rId15" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm "/>
-    <hyperlink ref="Q83" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
-    <hyperlink ref="Q82" r:id="rId15" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q56" r:id="rId11" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packag/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q61" r:id="rId12" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ice-1.4.11-1.x86_64.rpm "/>
+    <hyperlink ref="Q63" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q55" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q73" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
+    <hyperlink ref="Q79" r:id="rId15" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
+    <hyperlink ref="Q78" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
+    <hyperlink ref="Q81" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q80" r:id="rId16" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm "/>
+    <hyperlink ref="Q83" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/i40e-2.15.9-1.aarch64.rpm "/>
+    <hyperlink ref="Q82" r:id="rId16" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm " tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/i40e-2.15.9-1.x86_64.rpm "/>
     <hyperlink ref="Q85" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
-    <hyperlink ref="Q88" r:id="rId16" display="https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download"/>
-    <hyperlink ref="Q92" r:id="rId16" display="https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download"/>
-    <hyperlink ref="Q90" r:id="rId16" display="https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download"/>
-    <hyperlink ref="Q93" r:id="rId16" display="https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download"/>
-    <hyperlink ref="Q94" r:id="rId16" display="https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download"/>
-    <hyperlink ref="Q100" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed" tooltip="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q101" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q102" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q103" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q104" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q121" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q122:Q126" r:id="rId17" display="https://www.mellanox.com/products/infiniband-drivers/linux/mlnx_ofed"/>
-    <hyperlink ref="Q130" r:id="rId18" display="https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip"/>
+    <hyperlink ref="Q88" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q92" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q90" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q93" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q94" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q100" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q101" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q102" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q103" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q104" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q122:Q126" r:id="rId17" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
     <hyperlink ref="Q131" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm"/>
     <hyperlink ref="Q132" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm"/>
-    <hyperlink ref="Q135" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q134" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q129" r:id="rId18" display="https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip" tooltip="https://downloadcenter.intel.com/zh-cn/downloads/eula/29857/-Ethernet-Adapter-?httpDown=https%3A%2F%2Fdownloadmirror.intel.com%2F29857%2Feng%2F25_2.zip"/>
-    <hyperlink ref="Q91" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q3" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q29" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
+    <hyperlink ref="Q135" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q134" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q91" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q3" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q29" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.x86_64.tgz"/>
     <hyperlink ref="Q66" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm"/>
     <hyperlink ref="Q67" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-2dkms.noarch.rpm"/>
     <hyperlink ref="Q68" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-3dkms.noarch.rpm"/>
     <hyperlink ref="Q69" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-4dkms.noarch.rpm"/>
     <hyperlink ref="Q70" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-5dkms.noarch.rpm"/>
     <hyperlink ref="Q133" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm"/>
-    <hyperlink ref="Q136" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
-    <hyperlink ref="Q89" r:id="rId16" display="https://cn.mellanox.com/support/firmware/huawei?mtag=oem_firmware_download"/>
-    <hyperlink ref="Q137" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q75" r:id="rId13" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
+    <hyperlink ref="Q136" r:id="rId15" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/ixgbe-5.11.3-1.aarch64.rpm"/>
+    <hyperlink ref="Q89" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q137" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q75" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
+    <hyperlink ref="Q139" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
+    <hyperlink ref="Q140" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
+    <hyperlink ref="Q141" r:id="rId18" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run"/>
+    <hyperlink ref="Q50" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run"/>
+    <hyperlink ref="Q107" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q108" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q109" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q110" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q111" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q112" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q127" r:id="rId20" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q128" r:id="rId20" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q95" r:id="rId21" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/RAID-3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-aarch64.rpm"/>
+    <hyperlink ref="Q96" r:id="rId22" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/FC-IN300-openEuler20.03-hifc-3.7.0.8-aarch64.rpm"/>
+    <hyperlink ref="Q97" r:id="rId22" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/FC-IN300-openEuler20.03-hifc-3.7.0.8-aarch64.rpm"/>
+    <hyperlink ref="Q98" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/NIC-IN200-openEuler20.03-hinicadm-3.7.0.8-aarch64.rpm"/>
+    <hyperlink ref="Q99" r:id="rId23" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/aarch64/Packages/NIC-IN200-openEuler20.03-hinicadm-3.7.0.8-aarch64.rpm"/>
+    <hyperlink ref="Q41" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q44" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q51" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run"/>
+    <hyperlink ref="Q113" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q114" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q115" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q116" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q117" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q118" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q119" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q120" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -11082,10 +11397,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -11094,7 +11409,7 @@
         <v>369</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="551">
   <si>
     <t>vendorID</t>
   </si>
@@ -57,571 +57,574 @@
     <t>driverSize</t>
   </si>
   <si>
+    <t>chipVendor</t>
+  </si>
+  <si>
+    <t>boardModel</t>
+  </si>
+  <si>
+    <t>chipModel</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>downloadLink</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>15b3</t>
+  </si>
+  <si>
+    <t>19e5</t>
+  </si>
+  <si>
+    <t>d130</t>
+  </si>
+  <si>
+    <t>x86_64</t>
+  </si>
+  <si>
+    <t>openEuler 20.03 LTS SP1</t>
+  </si>
+  <si>
+    <t>mlx5_core</t>
+  </si>
+  <si>
+    <t>5.1-2.5.2</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>2021.3.19</t>
+  </si>
+  <si>
+    <t>4d6ac45a022480d99756907d6536596f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Mellanox</t>
+  </si>
+  <si>
+    <t>SP380</t>
+  </si>
+  <si>
+    <t>CX-4 Lx EN</t>
+  </si>
+  <si>
+    <t>03025SNT</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz</t>
+  </si>
+  <si>
+    <t>aarch64</t>
+  </si>
+  <si>
+    <t>2021.4.16</t>
+  </si>
+  <si>
+    <t>241MB</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz</t>
+  </si>
+  <si>
+    <t>d135</t>
+  </si>
+  <si>
+    <t>1.1MB</t>
+  </si>
+  <si>
+    <t>SP382</t>
+  </si>
+  <si>
+    <t>CX5</t>
+  </si>
+  <si>
+    <t>03026PUN</t>
+  </si>
+  <si>
+    <t>10de</t>
+  </si>
+  <si>
+    <t>1eb8</t>
+  </si>
+  <si>
+    <t>12a2</t>
+  </si>
+  <si>
+    <t>nouveau</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>0DF5433B2358D645500BD488B91E3C22F1B6F7B5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>170M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Tesla T4</t>
+  </si>
+  <si>
+    <t>TU104-895</t>
+  </si>
+  <si>
+    <t>02570029</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>MCX515A-CCAT</t>
+  </si>
+  <si>
+    <t>06310149</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>015c</t>
+  </si>
+  <si>
+    <t>qla2xxx</t>
+  </si>
+  <si>
+    <t>10.02.04.00_k</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>2021.3.22</t>
+  </si>
+  <si>
+    <t>7028d69d70f0eb7525c80bc35a7b247f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>992K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Qlogic</t>
+  </si>
+  <si>
+    <t>QLE2560</t>
+  </si>
+  <si>
+    <t>ISP2532</t>
+  </si>
+  <si>
+    <t>06030221</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm</t>
+  </si>
+  <si>
+    <t>MCX314A-BCCT</t>
+  </si>
+  <si>
+    <t>CX3-PRO</t>
+  </si>
+  <si>
+    <t>06310105</t>
+  </si>
+  <si>
+    <t>67c7</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>0b0d</t>
+  </si>
+  <si>
+    <t>amdgpu</t>
+  </si>
+  <si>
+    <t>version 1(SYSV)</t>
+  </si>
+  <si>
+    <t>2020.12.28</t>
+  </si>
+  <si>
+    <t>67CB2F34DC66D76DE0C84BBF64688B91CE243549</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Radeon Pro WX5100</t>
+  </si>
+  <si>
+    <t>Polaris 11</t>
+  </si>
+  <si>
+    <t>06320140</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>4C5D1B8BFF927AAADF5D6AFC162F91CE0445A417</t>
+  </si>
+  <si>
+    <t>aaf0</t>
+  </si>
+  <si>
+    <t>Radeon Pro WX5100 Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaris 11 </t>
+  </si>
+  <si>
+    <t>d11b</t>
+  </si>
+  <si>
+    <t>SP333</t>
+  </si>
+  <si>
+    <t>CX4 Lx EN</t>
+  </si>
+  <si>
+    <t>03023TYJ</t>
+  </si>
+  <si>
+    <t>5133</t>
+  </si>
+  <si>
+    <t>nvme</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17.6K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>ES3600C V5-3200GB</t>
+  </si>
+  <si>
+    <t>Hi1812E V100</t>
+  </si>
+  <si>
+    <t>03032YRF</t>
+  </si>
+  <si>
+    <t>d129</t>
+  </si>
+  <si>
+    <t>hinic</t>
+  </si>
+  <si>
+    <t>2.3.2.16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>844K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>SP570</t>
+  </si>
+  <si>
+    <t>02312BWF</t>
+  </si>
+  <si>
+    <t>8086</t>
+  </si>
+  <si>
+    <t>37d1</t>
+  </si>
+  <si>
+    <t>d122</t>
+  </si>
+  <si>
+    <t>i40e</t>
+  </si>
+  <si>
+    <t>2.8.20-k</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>728K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>LOM</t>
+  </si>
+  <si>
+    <t>X722</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>d213</t>
+  </si>
+  <si>
+    <t>megaraid_sas</t>
+  </si>
+  <si>
+    <t>07.714.04.00-rh1</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>68.4KB</t>
+  </si>
+  <si>
+    <t>Avago</t>
+  </si>
+  <si>
+    <t>SR150-M</t>
+  </si>
+  <si>
+    <t>3408iMR</t>
+  </si>
+  <si>
+    <t>03024JNF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68.4K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>d112</t>
+  </si>
+  <si>
+    <t>igb</t>
+  </si>
+  <si>
+    <t>5.4.0-k</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>487K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>SP210</t>
+  </si>
+  <si>
+    <t>i350</t>
+  </si>
+  <si>
+    <t>02311DCA</t>
+  </si>
+  <si>
+    <t>10df</t>
+  </si>
+  <si>
+    <t>e300</t>
+  </si>
+  <si>
+    <t>e310</t>
+  </si>
+  <si>
+    <t>lpfc</t>
+  </si>
+  <si>
+    <t>2021.03.05</t>
+  </si>
+  <si>
+    <t>3.4MB</t>
+  </si>
+  <si>
     <t>Emulex</t>
-  </si>
-  <si>
-    <t>boardModel</t>
-  </si>
-  <si>
-    <t>chipModel</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>downloadLink</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>15b3</t>
-  </si>
-  <si>
-    <t>19e5</t>
-  </si>
-  <si>
-    <t>d130</t>
-  </si>
-  <si>
-    <t>x86_64</t>
-  </si>
-  <si>
-    <t>openEuler 20.03 LTS SP1</t>
-  </si>
-  <si>
-    <t>mlx5_core</t>
-  </si>
-  <si>
-    <t>5.1-2.5.2</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>2021.3.19</t>
-  </si>
-  <si>
-    <t>4d6ac45a022480d99756907d6536596f</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.1M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>Mellanox</t>
-  </si>
-  <si>
-    <t>SP380</t>
-  </si>
-  <si>
-    <t>CX-4 Lx EN</t>
-  </si>
-  <si>
-    <t>03025SNT</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz</t>
-  </si>
-  <si>
-    <t>aarch64</t>
-  </si>
-  <si>
-    <t>2021.4.16</t>
-  </si>
-  <si>
-    <t>241MB</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz</t>
-  </si>
-  <si>
-    <t>d135</t>
-  </si>
-  <si>
-    <t>1.1MB</t>
-  </si>
-  <si>
-    <t>SP382</t>
-  </si>
-  <si>
-    <t>CX5</t>
-  </si>
-  <si>
-    <t>03026PUN</t>
-  </si>
-  <si>
-    <t>10de</t>
-  </si>
-  <si>
-    <t>1eb8</t>
-  </si>
-  <si>
-    <t>12a2</t>
-  </si>
-  <si>
-    <t>nouveau</t>
-  </si>
-  <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>0DF5433B2358D645500BD488B91E3C22F1B6F7B5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>170M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
-    <t>Tesla T4</t>
-  </si>
-  <si>
-    <t>TU104-895</t>
-  </si>
-  <si>
-    <t>02570029</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>MCX515A-CCAT</t>
-  </si>
-  <si>
-    <t>06310149</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>015c</t>
-  </si>
-  <si>
-    <t>qla2xxx</t>
-  </si>
-  <si>
-    <t>10.02.04.00_k</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>2021.3.22</t>
-  </si>
-  <si>
-    <t>7028d69d70f0eb7525c80bc35a7b247f</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>992K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>Qlogic</t>
-  </si>
-  <si>
-    <t>QLE2560</t>
-  </si>
-  <si>
-    <t>ISP2532</t>
-  </si>
-  <si>
-    <t>06030221</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-1dkms.noarch.rpm</t>
-  </si>
-  <si>
-    <t>MCX314A-BCCT</t>
-  </si>
-  <si>
-    <t>CX3-PRO</t>
-  </si>
-  <si>
-    <t>06310105</t>
-  </si>
-  <si>
-    <t>67c7</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>0b0d</t>
-  </si>
-  <si>
-    <t>amdgpu</t>
-  </si>
-  <si>
-    <t>version 1(SYSV)</t>
-  </si>
-  <si>
-    <t>2020.12.28</t>
-  </si>
-  <si>
-    <t>67CB2F34DC66D76DE0C84BBF64688B91CE243549</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.3M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>Radeon Pro WX5100</t>
-  </si>
-  <si>
-    <t>Polaris 11</t>
-  </si>
-  <si>
-    <t>06320140</t>
-  </si>
-  <si>
-    <t>inbox</t>
-  </si>
-  <si>
-    <t>4C5D1B8BFF927AAADF5D6AFC162F91CE0445A417</t>
-  </si>
-  <si>
-    <t>aaf0</t>
-  </si>
-  <si>
-    <t>Radeon Pro WX5100 Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polaris 11 </t>
-  </si>
-  <si>
-    <t>d11b</t>
-  </si>
-  <si>
-    <t>SP333</t>
-  </si>
-  <si>
-    <t>CX4 Lx EN</t>
-  </si>
-  <si>
-    <t>03023TYJ</t>
-  </si>
-  <si>
-    <t>5133</t>
-  </si>
-  <si>
-    <t>nvme</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>17.6K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>Huawei</t>
-  </si>
-  <si>
-    <t>ES3600C V5-3200GB</t>
-  </si>
-  <si>
-    <t>Hi1812E V100</t>
-  </si>
-  <si>
-    <t>03032YRF</t>
-  </si>
-  <si>
-    <t>d129</t>
-  </si>
-  <si>
-    <t>hinic</t>
-  </si>
-  <si>
-    <t>2.3.2.16</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>844K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>SP570</t>
-  </si>
-  <si>
-    <t>02312BWF</t>
-  </si>
-  <si>
-    <t>8086</t>
-  </si>
-  <si>
-    <t>37d1</t>
-  </si>
-  <si>
-    <t>d122</t>
-  </si>
-  <si>
-    <t>i40e</t>
-  </si>
-  <si>
-    <t>2.8.20-k</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>728K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t>LOM</t>
-  </si>
-  <si>
-    <t>X722</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>d213</t>
-  </si>
-  <si>
-    <t>megaraid_sas</t>
-  </si>
-  <si>
-    <t>07.714.04.00-rh1</t>
-  </si>
-  <si>
-    <t>raid</t>
-  </si>
-  <si>
-    <t>68.4KB</t>
-  </si>
-  <si>
-    <t>Avago</t>
-  </si>
-  <si>
-    <t>SR150-M</t>
-  </si>
-  <si>
-    <t>3408iMR</t>
-  </si>
-  <si>
-    <t>03024JNF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>68.4K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>d112</t>
-  </si>
-  <si>
-    <t>igb</t>
-  </si>
-  <si>
-    <t>5.4.0-k</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>487K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>SP210</t>
-  </si>
-  <si>
-    <t>i350</t>
-  </si>
-  <si>
-    <t>02311DCA</t>
-  </si>
-  <si>
-    <t>10df</t>
-  </si>
-  <si>
-    <t>e300</t>
-  </si>
-  <si>
-    <t>e310</t>
-  </si>
-  <si>
-    <t>lpfc</t>
-  </si>
-  <si>
-    <t>2021.03.05</t>
-  </si>
-  <si>
-    <t>3.4MB</t>
   </si>
   <si>
     <t>LPe31002</t>
@@ -2808,12 +2811,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2864,13 +2867,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2884,84 +2949,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2982,13 +2971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2998,10 +2980,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3038,25 +3036,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3074,49 +3144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3128,13 +3156,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3152,67 +3198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,25 +3239,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3280,22 +3265,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3305,6 +3285,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3320,6 +3309,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3344,10 +3342,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3356,32 +3354,35 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3390,97 +3391,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3490,7 +3488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
@@ -3566,12 +3564,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3961,9 +3953,9 @@
   <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q150" sqref="Q150"/>
+      <selection pane="bottomLeft" activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5513,19 +5505,19 @@
         <v>143</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5551,13 +5543,13 @@
         <v>141</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>82</v>
@@ -5566,19 +5558,19 @@
         <v>143</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:17">
@@ -5586,13 +5578,13 @@
         <v>138</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>22</v>
@@ -5619,19 +5611,19 @@
         <v>143</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" spans="1:17">
@@ -5639,13 +5631,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>35</v>
@@ -5654,10 +5646,10 @@
         <v>23</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>26</v>
@@ -5669,19 +5661,19 @@
         <v>89</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>101</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32" s="14" t="s">
         <v>88</v>
@@ -5692,13 +5684,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>35</v>
@@ -5707,10 +5699,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>26</v>
@@ -5722,19 +5714,19 @@
         <v>89</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>101</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="14" t="s">
         <v>88</v>
@@ -5745,13 +5737,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>35</v>
@@ -5760,10 +5752,10 @@
         <v>23</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>26</v>
@@ -5775,19 +5767,19 @@
         <v>89</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>101</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="14" t="s">
         <v>88</v>
@@ -5798,13 +5790,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>35</v>
@@ -5813,10 +5805,10 @@
         <v>23</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>26</v>
@@ -5828,19 +5820,19 @@
         <v>89</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>101</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="14" t="s">
         <v>88</v>
@@ -5869,7 +5861,7 @@
         <v>122</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>124</v>
@@ -5881,7 +5873,7 @@
         <v>89</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M36" s="14" t="s">
         <v>126</v>
@@ -5893,7 +5885,7 @@
         <v>128</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36" s="14" t="s">
         <v>88</v>
@@ -5904,13 +5896,13 @@
         <v>1000</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>35</v>
@@ -5922,7 +5914,7 @@
         <v>122</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>124</v>
@@ -5934,19 +5926,19 @@
         <v>89</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M37" s="14" t="s">
         <v>126</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O37" s="15">
         <v>3508</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="14" t="s">
         <v>88</v>
@@ -5957,13 +5949,13 @@
         <v>1000</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>35</v>
@@ -5972,10 +5964,10 @@
         <v>23</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>124</v>
@@ -5987,19 +5979,19 @@
         <v>89</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>126</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38" s="14" t="s">
         <v>88</v>
@@ -6010,13 +6002,13 @@
         <v>1000</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>22</v>
@@ -6025,10 +6017,10 @@
         <v>23</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>124</v>
@@ -6040,19 +6032,19 @@
         <v>82</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M39" s="14" t="s">
         <v>126</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39" s="14" t="s">
         <v>88</v>
@@ -6069,7 +6061,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>35</v>
@@ -6099,13 +6091,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q40" s="27" t="s">
         <v>38</v>
@@ -6122,7 +6114,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>22</v>
@@ -6152,13 +6144,13 @@
         <v>30</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41" s="27" t="s">
         <v>34</v>
@@ -6175,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>35</v>
@@ -6205,13 +6197,13 @@
         <v>30</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O42" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="27" t="s">
         <v>38</v>
@@ -6228,7 +6220,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>22</v>
@@ -6258,13 +6250,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O43" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43" s="27" t="s">
         <v>34</v>
@@ -6317,7 +6309,7 @@
         <v>95</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44" s="27" t="s">
         <v>34</v>
@@ -6334,7 +6326,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>22</v>
@@ -6364,13 +6356,13 @@
         <v>117</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="14" t="s">
         <v>88</v>
@@ -6381,13 +6373,13 @@
         <v>8086</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>22</v>
@@ -6399,7 +6391,7 @@
         <v>114</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>26</v>
@@ -6411,16 +6403,16 @@
         <v>82</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46" s="14" t="s">
         <v>88</v>
@@ -6437,7 +6429,7 @@
         <v>111</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>22</v>
@@ -6449,7 +6441,7 @@
         <v>114</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>26</v>
@@ -6461,19 +6453,19 @@
         <v>82</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M47" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47" s="14" t="s">
         <v>88</v>
@@ -6490,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>35</v>
@@ -6502,31 +6494,31 @@
         <v>106</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>88</v>
@@ -6543,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>22</v>
@@ -6561,25 +6553,25 @@
         <v>26</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>88</v>
@@ -6596,28 +6588,28 @@
         <v>47</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="29" t="s">
         <v>55</v>
@@ -6634,28 +6626,28 @@
         <v>47</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M51" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51" s="27" t="s">
         <v>55</v>
@@ -6666,13 +6658,13 @@
         <v>1000</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>22</v>
@@ -6684,7 +6676,7 @@
         <v>122</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>124</v>
@@ -6696,19 +6688,19 @@
         <v>89</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M52" s="14" t="s">
         <v>126</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O52" s="15">
         <v>3508</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52" s="14" t="s">
         <v>88</v>
@@ -6719,13 +6711,13 @@
         <v>138</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>22</v>
@@ -6737,31 +6729,31 @@
         <v>141</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q53" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6769,13 +6761,13 @@
         <v>138</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>35</v>
@@ -6787,31 +6779,31 @@
         <v>141</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L54" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P54" s="15">
         <v>6030276</v>
       </c>
       <c r="Q54" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" s="9" customFormat="1" spans="1:17">
@@ -6825,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>35</v>
@@ -6837,31 +6829,31 @@
         <v>114</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L55" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M55" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q55" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6875,7 +6867,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>22</v>
@@ -6887,31 +6879,31 @@
         <v>114</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M56" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q56" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6925,7 +6917,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>35</v>
@@ -6937,31 +6929,31 @@
         <v>24</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M57" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q57" s="14" t="s">
         <v>88</v>
@@ -6978,7 +6970,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>22</v>
@@ -6990,31 +6982,31 @@
         <v>24</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>88</v>
@@ -7022,16 +7014,16 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
@@ -7040,34 +7032,34 @@
         <v>23</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N59" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="14" t="s">
         <v>88</v>
@@ -7075,16 +7067,16 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>22</v>
@@ -7093,34 +7085,34 @@
         <v>23</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K60" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q60" s="14" t="s">
         <v>88</v>
@@ -7131,13 +7123,13 @@
         <v>8086</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>22</v>
@@ -7146,34 +7138,34 @@
         <v>23</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N61" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q61" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7181,13 +7173,13 @@
         <v>1000</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>35</v>
@@ -7199,31 +7191,31 @@
         <v>122</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>124</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>101</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P62" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q62" s="14" t="s">
         <v>88</v>
@@ -7252,28 +7244,28 @@
         <v>141</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N63" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P63" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q63" s="27" t="s">
         <v>34</v>
@@ -7284,13 +7276,13 @@
         <v>20</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>22</v>
@@ -7308,25 +7300,25 @@
         <v>26</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M64" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>88</v>
@@ -7337,13 +7329,13 @@
         <v>20</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>35</v>
@@ -7361,25 +7353,25 @@
         <v>26</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>88</v>
@@ -7390,25 +7382,25 @@
         <v>59</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C66" s="15">
         <v>1077</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>63</v>
@@ -7417,19 +7409,19 @@
         <v>64</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q66" s="27" t="s">
         <v>72</v>
@@ -7440,25 +7432,25 @@
         <v>59</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C67" s="15">
         <v>1077</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>63</v>
@@ -7467,22 +7459,22 @@
         <v>64</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q67" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -7490,25 +7482,25 @@
         <v>59</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C68" s="15">
         <v>1077</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>63</v>
@@ -7517,22 +7509,22 @@
         <v>64</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q68" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7540,25 +7532,25 @@
         <v>59</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C69" s="15">
         <v>1077</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>63</v>
@@ -7567,22 +7559,22 @@
         <v>64</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q69" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7590,25 +7582,25 @@
         <v>59</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C70" s="15">
         <v>1077</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>63</v>
@@ -7617,22 +7609,22 @@
         <v>64</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q70" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" s="6" customFormat="1" spans="1:17">
@@ -7646,7 +7638,7 @@
         <v>19</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>22</v>
@@ -7658,31 +7650,31 @@
         <v>24</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L71" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q71" s="22" t="s">
         <v>88</v>
@@ -7699,7 +7691,7 @@
         <v>19</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E72" s="32" t="s">
         <v>35</v>
@@ -7711,31 +7703,31 @@
         <v>24</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L72" s="32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q72" s="22" t="s">
         <v>88</v>
@@ -7752,7 +7744,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>22</v>
@@ -7761,37 +7753,37 @@
         <v>23</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q73" s="37" t="s">
         <v>317</v>
+      </c>
+      <c r="Q73" s="35" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:17">
@@ -7799,13 +7791,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>22</v>
@@ -7820,28 +7812,28 @@
         <v>107</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q74" s="10" t="s">
         <v>88</v>
@@ -7852,13 +7844,13 @@
         <v>111</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>22</v>
@@ -7867,37 +7859,37 @@
         <v>23</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O75" s="7">
         <v>82599</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q75" s="38" t="s">
-        <v>317</v>
+        <v>332</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="1" spans="1:17">
@@ -7911,7 +7903,7 @@
         <v>8086</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>22</v>
@@ -7920,32 +7912,32 @@
         <v>23</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q76" s="10" t="s">
         <v>88</v>
@@ -7974,33 +7966,33 @@
         <v>24</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q77" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q77" s="37" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8015,7 +8007,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>22</v>
@@ -8024,35 +8016,35 @@
         <v>23</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q78" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8066,7 +8058,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>35</v>
@@ -8075,35 +8067,35 @@
         <v>23</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P79" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="M79" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="Q79" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8117,7 +8109,7 @@
         <v>111</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>22</v>
@@ -8129,32 +8121,32 @@
         <v>114</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q80" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8168,7 +8160,7 @@
         <v>111</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>35</v>
@@ -8180,32 +8172,32 @@
         <v>114</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q81" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8219,7 +8211,7 @@
         <v>111</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>22</v>
@@ -8231,32 +8223,32 @@
         <v>114</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N82" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q82" s="27" t="s">
         <v>354</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q82" s="27" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -8270,7 +8262,7 @@
         <v>111</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>35</v>
@@ -8282,32 +8274,32 @@
         <v>114</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q83" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8315,13 +8307,13 @@
         <v>9005</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>35</v>
@@ -8330,35 +8322,35 @@
         <v>23</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>124</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" s="11" customFormat="1" spans="1:17">
@@ -8384,32 +8376,32 @@
         <v>141</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q85" s="40" t="s">
-        <v>150</v>
+        <v>276</v>
+      </c>
+      <c r="Q85" s="38" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8417,25 +8409,25 @@
         <v>20</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>26</v>
@@ -8447,13 +8439,13 @@
         <v>101</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q86" s="7" t="s">
         <v>88</v>
@@ -8464,25 +8456,25 @@
         <v>20</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>26</v>
@@ -8494,13 +8486,13 @@
         <v>101</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q87" s="7" t="s">
         <v>88</v>
@@ -8511,25 +8503,25 @@
         <v>19</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>26</v>
@@ -8544,7 +8536,7 @@
         <v>94</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P88" s="7"/>
       <c r="Q88" s="28" t="s">
@@ -8556,28 +8548,28 @@
         <v>19</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -8586,13 +8578,13 @@
         <v>30</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q89" s="28" t="s">
         <v>38</v>
@@ -8603,28 +8595,28 @@
         <v>19</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8633,13 +8625,13 @@
         <v>30</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O90" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q90" s="28" t="s">
         <v>38</v>
@@ -8650,13 +8642,13 @@
         <v>19</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>22</v>
@@ -8671,26 +8663,26 @@
         <v>25</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M91" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q91" s="27" t="s">
         <v>34</v>
@@ -8701,25 +8693,25 @@
         <v>19</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>26</v>
@@ -8731,13 +8723,13 @@
         <v>30</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q92" s="27" t="s">
         <v>38</v>
@@ -8748,25 +8740,25 @@
         <v>19</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>26</v>
@@ -8778,13 +8770,13 @@
         <v>30</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O93" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q93" s="27" t="s">
         <v>38</v>
@@ -8795,25 +8787,25 @@
         <v>19</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>26</v>
@@ -8825,13 +8817,13 @@
         <v>30</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q94" s="27" t="s">
         <v>38</v>
@@ -8839,53 +8831,53 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B95" s="23" t="s">
         <v>120</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M95" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>128</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q95" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8893,50 +8885,50 @@
         <v>20</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M96" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q96" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8944,48 +8936,48 @@
         <v>20</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M97" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -8993,48 +8985,48 @@
         <v>20</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P98" s="7"/>
       <c r="Q98" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9042,48 +9034,48 @@
         <v>20</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9091,25 +9083,25 @@
         <v>19</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>26</v>
@@ -9121,13 +9113,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q100" s="27" t="s">
         <v>34</v>
@@ -9138,25 +9130,25 @@
         <v>19</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>26</v>
@@ -9168,13 +9160,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q101" s="27" t="s">
         <v>34</v>
@@ -9185,25 +9177,25 @@
         <v>19</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>26</v>
@@ -9215,13 +9207,13 @@
         <v>30</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O102" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q102" s="27" t="s">
         <v>34</v>
@@ -9232,25 +9224,25 @@
         <v>19</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>26</v>
@@ -9262,13 +9254,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O103" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q103" s="27" t="s">
         <v>34</v>
@@ -9279,25 +9271,25 @@
         <v>19</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>26</v>
@@ -9309,13 +9301,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q104" s="27" t="s">
         <v>34</v>
@@ -9326,19 +9318,19 @@
         <v>111</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>132</v>
@@ -9350,26 +9342,26 @@
         <v>26</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -9383,13 +9375,13 @@
         <v>20</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>132</v>
@@ -9401,23 +9393,23 @@
         <v>26</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q106" s="14" t="s">
         <v>88</v>
@@ -9434,44 +9426,44 @@
         <v>20</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M107" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q107" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9479,50 +9471,50 @@
         <v>8086</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M108" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N108" s="34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O108" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q108" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -9530,50 +9522,50 @@
         <v>8086</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M109" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N109" s="34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O109" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q109" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -9587,44 +9579,44 @@
         <v>20</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M110" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N110" s="34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O110" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q110" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -9632,7 +9624,7 @@
         <v>8086</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>20</v>
@@ -9644,38 +9636,38 @@
         <v>22</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M111" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N111" s="34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q111" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -9689,44 +9681,44 @@
         <v>20</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M112" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q112" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -9734,50 +9726,50 @@
         <v>1000</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M113" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q113" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -9785,10 +9777,10 @@
         <v>1000</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D114" s="7">
         <v>9361</v>
@@ -9797,38 +9789,38 @@
         <v>22</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q114" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -9836,50 +9828,50 @@
         <v>1000</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M115" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q115" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -9887,50 +9879,50 @@
         <v>1000</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M116" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P116" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q116" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -9938,10 +9930,10 @@
         <v>1000</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D117" s="7">
         <v>9440</v>
@@ -9950,38 +9942,38 @@
         <v>22</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M117" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O117" s="7" t="s">
         <v>128</v>
       </c>
       <c r="P117" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q117" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -9989,50 +9981,50 @@
         <v>1000</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M118" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q118" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -10040,50 +10032,50 @@
         <v>1000</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M119" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P119" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q119" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -10091,50 +10083,50 @@
         <v>1000</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M120" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P120" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q120" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -10148,7 +10140,7 @@
         <v>19</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>22</v>
@@ -10160,7 +10152,7 @@
         <v>24</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>26</v>
@@ -10172,13 +10164,13 @@
         <v>30</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P121" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q121" s="27" t="s">
         <v>34</v>
@@ -10195,7 +10187,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -10207,7 +10199,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>26</v>
@@ -10219,13 +10211,13 @@
         <v>30</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P122" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q122" s="27" t="s">
         <v>34</v>
@@ -10242,7 +10234,7 @@
         <v>20</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -10254,7 +10246,7 @@
         <v>24</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>26</v>
@@ -10266,13 +10258,13 @@
         <v>30</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P123" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q123" s="27" t="s">
         <v>34</v>
@@ -10289,7 +10281,7 @@
         <v>19</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>22</v>
@@ -10301,7 +10293,7 @@
         <v>24</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>26</v>
@@ -10310,14 +10302,14 @@
       <c r="M124" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N124" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="O124" s="36" t="s">
+      <c r="N124" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="O124" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P124" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q124" s="27" t="s">
         <v>34</v>
@@ -10334,7 +10326,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>22</v>
@@ -10346,7 +10338,7 @@
         <v>24</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>26</v>
@@ -10355,14 +10347,14 @@
       <c r="M125" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N125" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="O125" s="36" t="s">
+      <c r="N125" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="O125" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P125" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q125" s="27" t="s">
         <v>34</v>
@@ -10379,7 +10371,7 @@
         <v>19</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>22</v>
@@ -10391,7 +10383,7 @@
         <v>24</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>26</v>
@@ -10401,14 +10393,14 @@
       <c r="M126" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N126" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="O126" s="36" t="s">
+      <c r="N126" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="O126" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P126" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q126" s="27" t="s">
         <v>34</v>
@@ -10425,7 +10417,7 @@
         <v>20</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>22</v>
@@ -10437,31 +10429,31 @@
         <v>114</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M127" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N127" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="O127" s="36" t="s">
-        <v>234</v>
+      <c r="N127" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="P127" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q127" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10475,7 +10467,7 @@
         <v>20</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>22</v>
@@ -10487,98 +10479,98 @@
         <v>114</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M128" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N128" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="O128" s="36" t="s">
-        <v>198</v>
+      <c r="N128" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="P128" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q128" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="1" spans="1:17">
-      <c r="A129" s="41">
+      <c r="A129" s="39">
         <v>8086</v>
       </c>
       <c r="B129" s="10">
         <v>1584</v>
       </c>
-      <c r="C129" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="D129" s="39" t="s">
+      <c r="C129" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="E129" s="42" t="s">
+      <c r="D129" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="E129" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G129" s="43" t="s">
+      <c r="G129" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H129" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="I129" s="42" t="s">
+      <c r="H129" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="I129" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J129" s="42" t="s">
+      <c r="J129" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="M129" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N129" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="O129" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="P129" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q129" s="44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" s="12" customFormat="1" spans="1:17">
+      <c r="A130" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="D130" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="K129" s="42"/>
-      <c r="L129" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="M129" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="N129" s="45" t="s">
-        <v>490</v>
-      </c>
-      <c r="O129" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="P129" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q129" s="46" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="130" s="12" customFormat="1" spans="1:17">
-      <c r="A130" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="C130" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="D130" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="E130" s="42" t="s">
+      <c r="E130" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F130" s="12" t="s">
@@ -10588,32 +10580,32 @@
         <v>114</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="K130" s="42"/>
-      <c r="L130" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="M130" s="42" t="s">
+      <c r="K130" s="40"/>
+      <c r="L130" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="M130" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="N130" s="45" t="s">
-        <v>493</v>
-      </c>
-      <c r="O130" s="42" t="s">
-        <v>198</v>
+      <c r="N130" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="O130" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="P130" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q130" s="47" t="s">
         <v>353</v>
+      </c>
+      <c r="Q130" s="45" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="131" s="12" customFormat="1" spans="1:17">
@@ -10627,7 +10619,7 @@
         <v>59</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>22</v>
@@ -10635,32 +10627,32 @@
       <c r="F131" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G131" s="42" t="s">
+      <c r="G131" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H131" s="42" t="s">
-        <v>283</v>
+      <c r="H131" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L131" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M131" s="32" t="s">
         <v>67</v>
       </c>
       <c r="N131" s="32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O131" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P131" s="32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q131" s="32" t="s">
         <v>71</v>
@@ -10676,8 +10668,8 @@
       <c r="C132" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D132" s="39" t="s">
-        <v>496</v>
+      <c r="D132" s="37" t="s">
+        <v>497</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>22</v>
@@ -10685,32 +10677,32 @@
       <c r="F132" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G132" s="42" t="s">
+      <c r="G132" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H132" s="42" t="s">
-        <v>283</v>
+      <c r="H132" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L132" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M132" s="32" t="s">
         <v>67</v>
       </c>
       <c r="N132" s="32" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O132" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P132" s="32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q132" s="32" t="s">
         <v>71</v>
@@ -10726,8 +10718,8 @@
       <c r="C133" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D133" s="39" t="s">
-        <v>498</v>
+      <c r="D133" s="37" t="s">
+        <v>499</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>22</v>
@@ -10735,135 +10727,135 @@
       <c r="F133" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G133" s="42" t="s">
+      <c r="G133" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H133" s="42" t="s">
-        <v>283</v>
+      <c r="H133" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L133" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N133" s="32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O133" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P133" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q133" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q133" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="134" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
-      <c r="A134" s="42" t="s">
-        <v>500</v>
-      </c>
-      <c r="B134" s="42" t="s">
+      <c r="A134" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C134" s="39" t="s">
+      <c r="B134" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="D134" s="39" t="s">
+      <c r="C134" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="E134" s="42" t="s">
+      <c r="D134" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="E134" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F134" s="42" t="s">
+      <c r="F134" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G134" s="42" t="s">
+      <c r="G134" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H134" s="42" t="s">
+      <c r="H134" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="I134" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="J134" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="M134" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="N134" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="O134" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="P134" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q134" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" s="12" customFormat="1" spans="1:17">
+      <c r="A135" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="D135" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="I134" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="J134" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="K134" s="42"/>
-      <c r="L134" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="M134" s="42" t="s">
+      <c r="E135" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="I135" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="J135" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="L135" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M135" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="N134" s="42" t="s">
-        <v>505</v>
-      </c>
-      <c r="O134" s="42" t="s">
-        <v>506</v>
-      </c>
-      <c r="P134" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q134" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" s="12" customFormat="1" spans="1:17">
-      <c r="A135" s="42" t="s">
-        <v>500</v>
-      </c>
-      <c r="B135" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>502</v>
-      </c>
-      <c r="D135" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="E135" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F135" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="I135" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="J135" s="42" t="s">
-        <v>508</v>
-      </c>
-      <c r="L135" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="M135" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N135" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="O135" s="42" t="s">
+      <c r="N135" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="P135" s="50" t="s">
+      <c r="O135" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="Q135" s="46" t="s">
+      <c r="P135" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q135" s="44" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10872,64 +10864,64 @@
         <v>111</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E136" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E136" s="40" t="s">
         <v>35</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K136" s="7"/>
       <c r="L136" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O136" s="7">
         <v>82599</v>
       </c>
       <c r="P136" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q136" s="38" t="s">
-        <v>349</v>
+        <v>332</v>
+      </c>
+      <c r="Q136" s="36" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="137" s="13" customFormat="1" spans="1:17">
       <c r="A137" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="44">
+      <c r="B137" s="42">
         <v>1017</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>22</v>
@@ -10944,27 +10936,27 @@
         <v>25</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M137" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N137" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O137" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="P137" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q137" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="P137" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q137" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10972,52 +10964,52 @@
       <c r="A138" s="12">
         <v>1000</v>
       </c>
-      <c r="B138" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="C138" s="42" t="s">
+      <c r="B138" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="D138" s="42">
+      <c r="C138" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="D138" s="40">
         <v>3090</v>
       </c>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F138" s="42" t="s">
+      <c r="F138" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G138" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="H138" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="I138" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="J138" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="K138" s="42" t="s">
+      <c r="G138" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="I138" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="J138" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="K138" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="L138" s="42" t="s">
-        <v>517</v>
-      </c>
-      <c r="M138" s="42" t="s">
+      <c r="L138" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="M138" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="N138" s="42" t="s">
-        <v>518</v>
-      </c>
-      <c r="O138" s="42" t="s">
+      <c r="N138" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="P138" s="42" t="s">
+      <c r="O138" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="Q138" s="42" t="s">
+      <c r="P138" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q138" s="40" t="s">
         <v>88</v>
       </c>
     </row>
@@ -11026,60 +11018,60 @@
         <v>138</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F139" s="42" t="s">
+      <c r="F139" s="40" t="s">
         <v>23</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J139" s="42" t="s">
-        <v>149</v>
+      <c r="J139" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="L139" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N139" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q139" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" s="13" customFormat="1" spans="1:17">
       <c r="A140" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B140" s="44">
+      <c r="B140" s="42">
         <v>1017</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>35</v>
@@ -11094,27 +11086,27 @@
         <v>25</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L140" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N140" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O140" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="P140" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="Q140" s="49" t="s">
+      <c r="P140" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q140" s="47" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11123,15 +11115,15 @@
         <v>44</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="E141" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="E141" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F141" s="13" t="s">
@@ -11141,104 +11133,104 @@
         <v>47</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L141" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M141" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P141" s="15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q141" s="29" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="R141" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="E142" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="E142" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F142" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L142" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P142" s="15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q142" s="14" t="s">
         <v>88</v>
       </c>
       <c r="R142" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>35</v>
@@ -11247,34 +11239,34 @@
         <v>23</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L143" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N143" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P143" s="15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q143" s="14" t="s">
         <v>88</v>
@@ -11397,19 +11389,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="603"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler20.03-LTS-SP1两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="560">
   <si>
     <t>vendorID</t>
   </si>
@@ -2795,6 +2795,33 @@
   </si>
   <si>
     <t>349KB</t>
+  </si>
+  <si>
+    <t>1bb3</t>
+  </si>
+  <si>
+    <t>11d8</t>
+  </si>
+  <si>
+    <t>Tesla P4</t>
+  </si>
+  <si>
+    <t>GP104GL</t>
+  </si>
+  <si>
+    <t>13f2</t>
+  </si>
+  <si>
+    <t>115e</t>
+  </si>
+  <si>
+    <t>Tesla M60</t>
+  </si>
+  <si>
+    <t>GM204GL</t>
+  </si>
+  <si>
+    <t>06320094</t>
   </si>
   <si>
     <t>板卡</t>
@@ -2813,8 +2840,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2882,75 +2909,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2971,11 +2931,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2987,9 +2976,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3000,6 +3020,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3030,13 +3057,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3048,19 +3153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,19 +3177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3102,25 +3195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3138,37 +3219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,37 +3237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3250,17 +3277,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3280,11 +3301,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3293,7 +3320,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3313,26 +3349,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3342,10 +3369,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3354,131 +3381,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3950,12 +3977,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O111" sqref="O111"/>
+      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11270,6 +11297,103 @@
       </c>
       <c r="Q143" s="14" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E144" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="L144" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="M144" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N144" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="O144" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q144" s="27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E145" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="M145" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N145" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="O145" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="P145" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q145" s="27" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -11337,7 +11461,7 @@
     <hyperlink ref="Q75" r:id="rId14" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/ixgbe-5.11.3-1.x86_64.rpm"/>
     <hyperlink ref="Q139" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
     <hyperlink ref="Q140" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-aarch64-ext.tgz"/>
-    <hyperlink ref="Q141" r:id="rId18" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run"/>
+    <hyperlink ref="Q141" r:id="rId18" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run"/>
     <hyperlink ref="Q50" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.73.01.run"/>
     <hyperlink ref="Q107" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
     <hyperlink ref="Q108" r:id="rId19" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03-i40e-2.12.6-1-x86_64.rpm"/>
@@ -11363,6 +11487,8 @@
     <hyperlink ref="Q118" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
     <hyperlink ref="Q119" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
     <hyperlink ref="Q120" r:id="rId24" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/extras/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q144" r:id="rId18" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run"/>
+    <hyperlink ref="Q145" r:id="rId18" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/NVIDIA-Linux-x86_64-460.32.03.run"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -11389,10 +11515,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -11401,7 +11527,7 @@
         <v>370</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$145</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="561">
   <si>
     <t>vendorID</t>
   </si>
@@ -139,7 +139,7 @@
     <t>CX-4 Lx EN</t>
   </si>
   <si>
-    <t>03025SNT</t>
+    <t>03025SNT/02312LDK</t>
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/x86_64/MLNX_OFED_LINUX-5.1-2.5.2.0-openeuler20.03-x86_64-ext.tgz</t>
@@ -2343,6 +2343,9 @@
   </si>
   <si>
     <t>2021.4.30</t>
+  </si>
+  <si>
+    <t>2.39MB</t>
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm</t>
@@ -2838,10 +2841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2902,8 +2905,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2911,28 +2921,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2947,14 +2935,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2976,16 +2964,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3008,15 +2989,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3024,7 +2997,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3057,7 +3060,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3069,19 +3102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3093,13 +3120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3123,13 +3144,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3141,19 +3222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3165,79 +3240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3268,20 +3271,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3301,17 +3308,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3325,11 +3337,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3348,31 +3366,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3381,131 +3384,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3979,10 +3982,10 @@
   <sheetPr/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10465,7 +10468,7 @@
         <v>485</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="M127" s="14" t="s">
         <v>117</v>
@@ -10480,7 +10483,7 @@
         <v>445</v>
       </c>
       <c r="Q127" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10530,7 +10533,7 @@
         <v>456</v>
       </c>
       <c r="Q128" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="1" spans="1:17">
@@ -10541,10 +10544,10 @@
         <v>1584</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D129" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E129" s="40" t="s">
         <v>22</v>
@@ -10562,20 +10565,20 @@
         <v>26</v>
       </c>
       <c r="J129" s="40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K129" s="40"/>
       <c r="L129" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M129" s="40" t="s">
         <v>117</v>
       </c>
       <c r="N129" s="43" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O129" s="40" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P129" s="37" t="s">
         <v>356</v>
@@ -10589,13 +10592,13 @@
         <v>111</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D130" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E130" s="40" t="s">
         <v>22</v>
@@ -10613,17 +10616,17 @@
         <v>26</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K130" s="40"/>
       <c r="L130" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M130" s="40" t="s">
         <v>117</v>
       </c>
       <c r="N130" s="43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O130" s="40" t="s">
         <v>199</v>
@@ -10664,7 +10667,7 @@
         <v>63</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L131" s="32" t="s">
         <v>285</v>
@@ -10673,7 +10676,7 @@
         <v>67</v>
       </c>
       <c r="N131" s="32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O131" s="32" t="s">
         <v>292</v>
@@ -10696,7 +10699,7 @@
         <v>59</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>22</v>
@@ -10714,7 +10717,7 @@
         <v>63</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L132" s="32" t="s">
         <v>285</v>
@@ -10723,7 +10726,7 @@
         <v>67</v>
       </c>
       <c r="N132" s="32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O132" s="32" t="s">
         <v>292</v>
@@ -10746,7 +10749,7 @@
         <v>59</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>22</v>
@@ -10764,7 +10767,7 @@
         <v>63</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L133" s="32" t="s">
         <v>285</v>
@@ -10773,7 +10776,7 @@
         <v>254</v>
       </c>
       <c r="N133" s="32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O133" s="32" t="s">
         <v>292</v>
@@ -10787,16 +10790,16 @@
     </row>
     <row r="134" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
       <c r="A134" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E134" s="40" t="s">
         <v>22</v>
@@ -10808,7 +10811,7 @@
         <v>24</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I134" s="40" t="s">
         <v>379</v>
@@ -10824,13 +10827,13 @@
         <v>30</v>
       </c>
       <c r="N134" s="40" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O134" s="40" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P134" s="48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q134" s="44" t="s">
         <v>34</v>
@@ -10838,16 +10841,16 @@
     </row>
     <row r="135" s="12" customFormat="1" spans="1:17">
       <c r="A135" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E135" s="40" t="s">
         <v>35</v>
@@ -10859,13 +10862,13 @@
         <v>24</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I135" s="40" t="s">
         <v>379</v>
       </c>
       <c r="J135" s="40" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L135" s="40" t="s">
         <v>37</v>
@@ -10874,13 +10877,13 @@
         <v>30</v>
       </c>
       <c r="N135" s="40" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O135" s="40" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P135" s="48" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q135" s="44" t="s">
         <v>38</v>
@@ -10969,7 +10972,7 @@
         <v>385</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M137" s="13" t="s">
         <v>30</v>
@@ -10978,7 +10981,7 @@
         <v>380</v>
       </c>
       <c r="O137" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P137" s="42" t="s">
         <v>381</v>
@@ -10992,10 +10995,10 @@
         <v>1000</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D138" s="40">
         <v>3090</v>
@@ -11010,7 +11013,7 @@
         <v>176</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I138" s="40" t="s">
         <v>402</v>
@@ -11022,19 +11025,19 @@
         <v>82</v>
       </c>
       <c r="L138" s="40" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M138" s="40" t="s">
         <v>126</v>
       </c>
       <c r="N138" s="40" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O138" s="40" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P138" s="40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q138" s="40" t="s">
         <v>88</v>
@@ -11072,7 +11075,7 @@
         <v>150</v>
       </c>
       <c r="L139" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M139" s="14" t="s">
         <v>144</v>
@@ -11081,7 +11084,7 @@
         <v>153</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q139" s="27" t="s">
         <v>151</v>
@@ -11116,10 +11119,10 @@
         <v>379</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L140" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>30</v>
@@ -11142,13 +11145,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E141" s="40" t="s">
         <v>22</v>
@@ -11160,34 +11163,34 @@
         <v>47</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L141" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M141" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P141" s="15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q141" s="29" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R141" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -11195,13 +11198,13 @@
         <v>247</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E142" s="40" t="s">
         <v>22</v>
@@ -11210,10 +11213,10 @@
         <v>23</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>26</v>
@@ -11225,25 +11228,25 @@
         <v>82</v>
       </c>
       <c r="L142" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P142" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q142" s="14" t="s">
         <v>88</v>
       </c>
       <c r="R142" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -11251,13 +11254,13 @@
         <v>247</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>35</v>
@@ -11266,10 +11269,10 @@
         <v>23</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>26</v>
@@ -11278,22 +11281,22 @@
         <v>258</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L143" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N143" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P143" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q143" s="14" t="s">
         <v>88</v>
@@ -11304,13 +11307,13 @@
         <v>44</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E144" s="40" t="s">
         <v>22</v>
@@ -11322,28 +11325,28 @@
         <v>47</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I144" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L144" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M144" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q144" s="27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -11351,13 +11354,13 @@
         <v>44</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E145" s="40" t="s">
         <v>22</v>
@@ -11369,35 +11372,35 @@
         <v>47</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L145" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M145" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N145" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P145" s="15" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q145" s="27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q143">
+  <autoFilter ref="A1:Q145">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -11515,10 +11518,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -11527,7 +11530,7 @@
         <v>370</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="561">
   <si>
     <t>vendorID</t>
   </si>
@@ -2563,26 +2563,7 @@
     <t>MCX653105A-EFAT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X6</t>
-    </r>
+    <t>CX6</t>
   </si>
   <si>
     <t>06030516</t>
@@ -2592,28 +2573,6 @@
   </si>
   <si>
     <t>MCX653105A-ECAT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T28908</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2812,6 +2771,9 @@
     <t>GP104GL</t>
   </si>
   <si>
+    <t>02312HEX</t>
+  </si>
+  <si>
     <t>13f2</t>
   </si>
   <si>
@@ -2841,8 +2803,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2897,23 +2859,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2933,16 +2881,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2950,39 +2890,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3004,7 +2912,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3018,6 +2926,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -3025,9 +2988,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3060,43 +3022,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,25 +3070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3144,19 +3088,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3168,7 +3118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,7 +3142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,25 +3160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3228,19 +3184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3269,15 +3231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3289,6 +3242,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3308,35 +3296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3352,17 +3311,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3372,10 +3334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3384,131 +3346,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3982,10 +3944,10 @@
   <sheetPr/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="N133" sqref="N133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6829,8 +6791,8 @@
       <c r="O54" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="P54" s="15">
-        <v>6030276</v>
+      <c r="P54" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="Q54" s="27" t="s">
         <v>151</v>
@@ -10880,10 +10842,10 @@
         <v>511</v>
       </c>
       <c r="O135" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="P135" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="P135" s="48" t="s">
-        <v>513</v>
       </c>
       <c r="Q135" s="44" t="s">
         <v>38</v>
@@ -10972,7 +10934,7 @@
         <v>385</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M137" s="13" t="s">
         <v>30</v>
@@ -10981,7 +10943,7 @@
         <v>380</v>
       </c>
       <c r="O137" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P137" s="42" t="s">
         <v>381</v>
@@ -10995,10 +10957,10 @@
         <v>1000</v>
       </c>
       <c r="B138" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="C138" s="40" t="s">
         <v>516</v>
-      </c>
-      <c r="C138" s="40" t="s">
-        <v>517</v>
       </c>
       <c r="D138" s="40">
         <v>3090</v>
@@ -11013,7 +10975,7 @@
         <v>176</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I138" s="40" t="s">
         <v>402</v>
@@ -11025,19 +10987,19 @@
         <v>82</v>
       </c>
       <c r="L138" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M138" s="40" t="s">
         <v>126</v>
       </c>
       <c r="N138" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="O138" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="O138" s="40" t="s">
+      <c r="P138" s="40" t="s">
         <v>521</v>
-      </c>
-      <c r="P138" s="40" t="s">
-        <v>522</v>
       </c>
       <c r="Q138" s="40" t="s">
         <v>88</v>
@@ -11075,7 +11037,7 @@
         <v>150</v>
       </c>
       <c r="L139" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M139" s="14" t="s">
         <v>144</v>
@@ -11084,7 +11046,10 @@
         <v>153</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="P139" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="Q139" s="27" t="s">
         <v>151</v>
@@ -11119,10 +11084,10 @@
         <v>379</v>
       </c>
       <c r="J140" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="L140" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="L140" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>30</v>
@@ -11145,13 +11110,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E141" s="40" t="s">
         <v>22</v>
@@ -11163,34 +11128,34 @@
         <v>47</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J141" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="L141" s="14" t="s">
         <v>530</v>
-      </c>
-      <c r="L141" s="14" t="s">
-        <v>531</v>
       </c>
       <c r="M141" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="O141" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="O141" s="14" t="s">
+      <c r="P141" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="P141" s="15" t="s">
+      <c r="Q141" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="Q141" s="29" t="s">
+      <c r="R141" s="14" t="s">
         <v>535</v>
-      </c>
-      <c r="R141" s="14" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -11198,13 +11163,13 @@
         <v>247</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E142" s="40" t="s">
         <v>22</v>
@@ -11213,10 +11178,10 @@
         <v>23</v>
       </c>
       <c r="G142" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="H142" s="14" t="s">
         <v>539</v>
-      </c>
-      <c r="H142" s="14" t="s">
-        <v>540</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>26</v>
@@ -11228,25 +11193,25 @@
         <v>82</v>
       </c>
       <c r="L142" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="M142" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="M142" s="14" t="s">
+      <c r="N142" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="N142" s="14" t="s">
+      <c r="O142" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="O142" s="14" t="s">
+      <c r="P142" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="P142" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="Q142" s="14" t="s">
         <v>88</v>
       </c>
       <c r="R142" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -11254,13 +11219,13 @@
         <v>247</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>35</v>
@@ -11269,10 +11234,10 @@
         <v>23</v>
       </c>
       <c r="G143" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="H143" s="14" t="s">
         <v>539</v>
-      </c>
-      <c r="H143" s="14" t="s">
-        <v>540</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>26</v>
@@ -11281,22 +11246,22 @@
         <v>258</v>
       </c>
       <c r="K143" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="L143" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="L143" s="14" t="s">
-        <v>548</v>
-      </c>
       <c r="M143" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="N143" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="N143" s="14" t="s">
+      <c r="O143" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="O143" s="14" t="s">
+      <c r="P143" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="P143" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="Q143" s="14" t="s">
         <v>88</v>
@@ -11307,13 +11272,13 @@
         <v>44</v>
       </c>
       <c r="B144" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D144" s="14" t="s">
         <v>549</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>550</v>
       </c>
       <c r="E144" s="40" t="s">
         <v>22</v>
@@ -11325,28 +11290,31 @@
         <v>47</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I144" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J144" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="L144" s="14" t="s">
         <v>530</v>
-      </c>
-      <c r="L144" s="14" t="s">
-        <v>531</v>
       </c>
       <c r="M144" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="O144" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="O144" s="14" t="s">
+      <c r="P144" s="15" t="s">
         <v>552</v>
       </c>
       <c r="Q144" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -11372,16 +11340,16 @@
         <v>47</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J145" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="L145" s="14" t="s">
         <v>530</v>
-      </c>
-      <c r="L145" s="14" t="s">
-        <v>531</v>
       </c>
       <c r="M145" s="14" t="s">
         <v>51</v>
@@ -11396,7 +11364,7 @@
         <v>557</v>
       </c>
       <c r="Q145" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="559">
   <si>
     <t>vendorID</t>
   </si>
@@ -1266,7 +1266,7 @@
     <t>2532</t>
   </si>
   <si>
-    <t>015D</t>
+    <t>015d</t>
   </si>
   <si>
     <t>openEuler 20.03 LTS</t>
@@ -1290,7 +1290,7 @@
     <t>2261</t>
   </si>
   <si>
-    <t>029B</t>
+    <t>029b</t>
   </si>
   <si>
     <t>QLE2690</t>
@@ -1305,7 +1305,7 @@
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-2dkms.noarch.rpm</t>
   </si>
   <si>
-    <t>029C</t>
+    <t>029c</t>
   </si>
   <si>
     <t>QLE2692</t>
@@ -1329,7 +1329,7 @@
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras/aarch64/Packages/qla2xxx-10.02.04.00_k-4dkms.noarch.rpm</t>
   </si>
   <si>
-    <t>029A</t>
+    <t>029a</t>
   </si>
   <si>
     <t>QLE2742</t>
@@ -1856,9 +1856,6 @@
     <t>1015</t>
   </si>
   <si>
-    <t>D11B</t>
-  </si>
-  <si>
     <t>5.1-2.4.1</t>
   </si>
   <si>
@@ -2419,9 +2416,6 @@
     <t>QLE2740-HUA-SP</t>
   </si>
   <si>
-    <t>029c</t>
-  </si>
-  <si>
     <t>QLE2692-HUA-SP</t>
   </si>
   <si>
@@ -2803,10 +2797,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2859,14 +2853,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2875,22 +2861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2911,45 +2882,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2966,8 +2898,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2982,14 +2953,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3022,103 +3016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3136,7 +3034,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3148,13 +3100,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,7 +3178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,31 +3196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,47 +3221,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3297,16 +3250,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3328,16 +3292,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3346,131 +3340,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3944,10 +3938,10 @@
   <sheetPr/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N133" sqref="N133"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8501,7 +8495,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>374</v>
+        <v>93</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>35</v>
@@ -8513,7 +8507,7 @@
         <v>24</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>26</v>
@@ -8528,7 +8522,7 @@
         <v>94</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P88" s="7"/>
       <c r="Q88" s="28" t="s">
@@ -8540,13 +8534,13 @@
         <v>19</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>35</v>
@@ -8558,10 +8552,10 @@
         <v>24</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -8570,13 +8564,13 @@
         <v>30</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q89" s="28" t="s">
         <v>38</v>
@@ -8587,13 +8581,13 @@
         <v>19</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>35</v>
@@ -8605,10 +8599,10 @@
         <v>24</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8617,13 +8611,13 @@
         <v>30</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O90" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q90" s="28" t="s">
         <v>38</v>
@@ -8634,13 +8628,13 @@
         <v>19</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>22</v>
@@ -8655,26 +8649,26 @@
         <v>25</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M91" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O91" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P91" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="Q91" s="27" t="s">
         <v>34</v>
@@ -8691,7 +8685,7 @@
         <v>19</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>35</v>
@@ -8703,7 +8697,7 @@
         <v>24</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>26</v>
@@ -8715,13 +8709,13 @@
         <v>30</v>
       </c>
       <c r="N92" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P92" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="O92" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="Q92" s="27" t="s">
         <v>38</v>
@@ -8732,13 +8726,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>35</v>
@@ -8750,7 +8744,7 @@
         <v>24</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>26</v>
@@ -8762,13 +8756,13 @@
         <v>30</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O93" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q93" s="27" t="s">
         <v>38</v>
@@ -8779,13 +8773,13 @@
         <v>19</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>35</v>
@@ -8797,7 +8791,7 @@
         <v>24</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>26</v>
@@ -8809,13 +8803,13 @@
         <v>30</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q94" s="27" t="s">
         <v>38</v>
@@ -8823,16 +8817,16 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B95" s="23" t="s">
         <v>120</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>35</v>
@@ -8844,32 +8838,32 @@
         <v>122</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="J95" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M95" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>128</v>
       </c>
       <c r="P95" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q95" s="27" t="s">
         <v>406</v>
-      </c>
-      <c r="Q95" s="27" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8877,13 +8871,13 @@
         <v>20</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>35</v>
@@ -8892,35 +8886,35 @@
         <v>283</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M96" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N96" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="O96" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="O96" s="7" t="s">
+      <c r="P96" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P96" s="7" t="s">
+      <c r="Q96" s="27" t="s">
         <v>415</v>
-      </c>
-      <c r="Q96" s="27" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8928,13 +8922,13 @@
         <v>20</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>35</v>
@@ -8943,33 +8937,33 @@
         <v>283</v>
       </c>
       <c r="G97" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M97" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -8977,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>20</v>
@@ -8992,20 +8986,20 @@
         <v>283</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>101</v>
@@ -9018,7 +9012,7 @@
       </c>
       <c r="P98" s="7"/>
       <c r="Q98" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9041,20 +9035,20 @@
         <v>283</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>101</v>
@@ -9067,7 +9061,7 @@
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9081,7 +9075,7 @@
         <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>22</v>
@@ -9093,7 +9087,7 @@
         <v>24</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>26</v>
@@ -9105,13 +9099,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P100" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="Q100" s="27" t="s">
         <v>34</v>
@@ -9122,13 +9116,13 @@
         <v>19</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>22</v>
@@ -9140,7 +9134,7 @@
         <v>24</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>26</v>
@@ -9152,13 +9146,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q101" s="27" t="s">
         <v>34</v>
@@ -9169,13 +9163,13 @@
         <v>19</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>22</v>
@@ -9187,7 +9181,7 @@
         <v>24</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>26</v>
@@ -9199,13 +9193,13 @@
         <v>30</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O102" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q102" s="27" t="s">
         <v>34</v>
@@ -9216,13 +9210,13 @@
         <v>19</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>22</v>
@@ -9234,7 +9228,7 @@
         <v>24</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>26</v>
@@ -9246,13 +9240,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O103" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q103" s="27" t="s">
         <v>34</v>
@@ -9263,13 +9257,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>22</v>
@@ -9281,7 +9275,7 @@
         <v>24</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>26</v>
@@ -9293,13 +9287,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O104" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="O104" s="7" t="s">
+      <c r="P104" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="Q104" s="27" t="s">
         <v>34</v>
@@ -9310,7 +9304,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>111</v>
@@ -9334,11 +9328,11 @@
         <v>26</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>117</v>
@@ -9367,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>22</v>
@@ -9385,23 +9379,23 @@
         <v>26</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>190</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q106" s="14" t="s">
         <v>88</v>
@@ -9418,7 +9412,7 @@
         <v>20</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>22</v>
@@ -9430,32 +9424,32 @@
         <v>114</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M107" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P107" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q107" s="27" t="s">
         <v>445</v>
-      </c>
-      <c r="Q107" s="27" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9463,13 +9457,13 @@
         <v>8086</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>22</v>
@@ -9481,32 +9475,32 @@
         <v>114</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M108" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N108" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O108" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q108" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -9514,13 +9508,13 @@
         <v>8086</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>22</v>
@@ -9532,32 +9526,32 @@
         <v>114</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M109" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N109" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O109" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q109" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -9571,7 +9565,7 @@
         <v>20</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>22</v>
@@ -9583,32 +9577,32 @@
         <v>114</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M110" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N110" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O110" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q110" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -9616,7 +9610,7 @@
         <v>8086</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>20</v>
@@ -9634,32 +9628,32 @@
         <v>114</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M111" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N111" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q111" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -9673,7 +9667,7 @@
         <v>20</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>22</v>
@@ -9685,32 +9679,32 @@
         <v>114</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M112" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O112" s="7" t="s">
         <v>199</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q112" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -9718,13 +9712,13 @@
         <v>1000</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>22</v>
@@ -9736,32 +9730,32 @@
         <v>122</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I113" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J113" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M113" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N113" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="O113" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="O113" s="7" t="s">
+      <c r="P113" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="P113" s="7" t="s">
+      <c r="Q113" s="28" t="s">
         <v>462</v>
-      </c>
-      <c r="Q113" s="28" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -9769,10 +9763,10 @@
         <v>1000</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D114" s="7">
         <v>9361</v>
@@ -9787,32 +9781,32 @@
         <v>122</v>
       </c>
       <c r="H114" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I114" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I114" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J114" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N114" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="O114" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="O114" s="7" t="s">
+      <c r="P114" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P114" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="Q114" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -9820,13 +9814,13 @@
         <v>1000</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>22</v>
@@ -9838,32 +9832,32 @@
         <v>122</v>
       </c>
       <c r="H115" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J115" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M115" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N115" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P115" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="O115" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="P115" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="Q115" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -9871,13 +9865,13 @@
         <v>1000</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
@@ -9889,32 +9883,32 @@
         <v>122</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I116" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I116" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J116" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M116" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N116" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="O116" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P116" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="O116" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="P116" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="Q116" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -9922,10 +9916,10 @@
         <v>1000</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D117" s="7">
         <v>9440</v>
@@ -9940,32 +9934,32 @@
         <v>122</v>
       </c>
       <c r="H117" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J117" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M117" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O117" s="7" t="s">
         <v>128</v>
       </c>
       <c r="P117" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q117" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -9973,7 +9967,7 @@
         <v>1000</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>20</v>
@@ -9991,32 +9985,32 @@
         <v>122</v>
       </c>
       <c r="H118" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I118" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I118" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J118" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M118" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N118" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="O118" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="O118" s="7" t="s">
+      <c r="P118" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P118" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="Q118" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -10024,7 +10018,7 @@
         <v>1000</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>20</v>
@@ -10042,17 +10036,17 @@
         <v>122</v>
       </c>
       <c r="H119" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J119" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M119" s="7" t="s">
         <v>126</v>
@@ -10061,13 +10055,13 @@
         <v>172</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P119" s="7" t="s">
         <v>173</v>
       </c>
       <c r="Q119" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -10075,13 +10069,13 @@
         <v>1000</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
@@ -10093,17 +10087,17 @@
         <v>122</v>
       </c>
       <c r="H120" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I120" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I120" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="J120" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M120" s="7" t="s">
         <v>126</v>
@@ -10112,13 +10106,13 @@
         <v>272</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P120" s="7" t="s">
         <v>274</v>
       </c>
       <c r="Q120" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -10144,7 +10138,7 @@
         <v>24</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>26</v>
@@ -10156,10 +10150,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P121" s="7" t="s">
         <v>186</v>
@@ -10179,7 +10173,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -10191,7 +10185,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>26</v>
@@ -10203,13 +10197,13 @@
         <v>30</v>
       </c>
       <c r="N122" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="O122" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P122" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="O122" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P122" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="Q122" s="27" t="s">
         <v>34</v>
@@ -10226,7 +10220,7 @@
         <v>20</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -10238,7 +10232,7 @@
         <v>24</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>26</v>
@@ -10250,13 +10244,13 @@
         <v>30</v>
       </c>
       <c r="N123" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P123" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="O123" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P123" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="Q123" s="27" t="s">
         <v>34</v>
@@ -10273,7 +10267,7 @@
         <v>19</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>22</v>
@@ -10285,7 +10279,7 @@
         <v>24</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>26</v>
@@ -10295,13 +10289,13 @@
         <v>30</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O124" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P124" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q124" s="27" t="s">
         <v>34</v>
@@ -10318,7 +10312,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>22</v>
@@ -10330,7 +10324,7 @@
         <v>24</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>26</v>
@@ -10340,13 +10334,13 @@
         <v>30</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O125" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P125" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q125" s="27" t="s">
         <v>34</v>
@@ -10363,7 +10357,7 @@
         <v>19</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>22</v>
@@ -10375,7 +10369,7 @@
         <v>24</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>26</v>
@@ -10386,13 +10380,13 @@
         <v>30</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O126" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P126" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q126" s="27" t="s">
         <v>34</v>
@@ -10409,7 +10403,7 @@
         <v>20</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>22</v>
@@ -10421,31 +10415,31 @@
         <v>114</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J127" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L127" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L127" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M127" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P127" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q127" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10459,7 +10453,7 @@
         <v>20</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>22</v>
@@ -10471,31 +10465,31 @@
         <v>114</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M128" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O128" s="7" t="s">
         <v>199</v>
       </c>
       <c r="P128" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q128" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" s="12" customFormat="1" spans="1:17">
@@ -10506,10 +10500,10 @@
         <v>1584</v>
       </c>
       <c r="C129" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="D129" s="37" t="s">
         <v>488</v>
-      </c>
-      <c r="D129" s="37" t="s">
-        <v>489</v>
       </c>
       <c r="E129" s="40" t="s">
         <v>22</v>
@@ -10521,26 +10515,26 @@
         <v>114</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I129" s="40" t="s">
         <v>26</v>
       </c>
       <c r="J129" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K129" s="40"/>
       <c r="L129" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M129" s="40" t="s">
         <v>117</v>
       </c>
       <c r="N129" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="O129" s="40" t="s">
         <v>492</v>
-      </c>
-      <c r="O129" s="40" t="s">
-        <v>493</v>
       </c>
       <c r="P129" s="37" t="s">
         <v>356</v>
@@ -10554,13 +10548,13 @@
         <v>111</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C130" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="D130" s="37" t="s">
         <v>488</v>
-      </c>
-      <c r="D130" s="37" t="s">
-        <v>489</v>
       </c>
       <c r="E130" s="40" t="s">
         <v>22</v>
@@ -10572,23 +10566,23 @@
         <v>114</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K130" s="40"/>
       <c r="L130" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M130" s="40" t="s">
         <v>117</v>
       </c>
       <c r="N130" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O130" s="40" t="s">
         <v>199</v>
@@ -10629,7 +10623,7 @@
         <v>63</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L131" s="32" t="s">
         <v>285</v>
@@ -10638,7 +10632,7 @@
         <v>67</v>
       </c>
       <c r="N131" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O131" s="32" t="s">
         <v>292</v>
@@ -10661,7 +10655,7 @@
         <v>59</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>22</v>
@@ -10679,7 +10673,7 @@
         <v>63</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L132" s="32" t="s">
         <v>285</v>
@@ -10688,7 +10682,7 @@
         <v>67</v>
       </c>
       <c r="N132" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O132" s="32" t="s">
         <v>292</v>
@@ -10711,7 +10705,7 @@
         <v>59</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>22</v>
@@ -10729,7 +10723,7 @@
         <v>63</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L133" s="32" t="s">
         <v>285</v>
@@ -10738,7 +10732,7 @@
         <v>254</v>
       </c>
       <c r="N133" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O133" s="32" t="s">
         <v>292</v>
@@ -10752,16 +10746,16 @@
     </row>
     <row r="134" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
       <c r="A134" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="C134" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="B134" s="40" t="s">
+      <c r="D134" s="37" t="s">
         <v>503</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>505</v>
       </c>
       <c r="E134" s="40" t="s">
         <v>22</v>
@@ -10773,29 +10767,29 @@
         <v>24</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I134" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J134" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K134" s="40"/>
       <c r="L134" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M134" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N134" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="O134" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="P134" s="48" t="s">
         <v>507</v>
-      </c>
-      <c r="O134" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="P134" s="48" t="s">
-        <v>509</v>
       </c>
       <c r="Q134" s="44" t="s">
         <v>34</v>
@@ -10803,16 +10797,16 @@
     </row>
     <row r="135" s="12" customFormat="1" spans="1:17">
       <c r="A135" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="D135" s="37" t="s">
         <v>503</v>
-      </c>
-      <c r="C135" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="D135" s="37" t="s">
-        <v>505</v>
       </c>
       <c r="E135" s="40" t="s">
         <v>35</v>
@@ -10824,13 +10818,13 @@
         <v>24</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I135" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J135" s="40" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L135" s="40" t="s">
         <v>37</v>
@@ -10839,13 +10833,13 @@
         <v>30</v>
       </c>
       <c r="N135" s="40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="O135" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P135" s="48" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q135" s="44" t="s">
         <v>38</v>
@@ -10913,7 +10907,7 @@
         <v>20</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>22</v>
@@ -10928,25 +10922,25 @@
         <v>25</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M137" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N137" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O137" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="P137" s="42" t="s">
         <v>380</v>
-      </c>
-      <c r="O137" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="P137" s="42" t="s">
-        <v>381</v>
       </c>
       <c r="Q137" s="46" t="s">
         <v>34</v>
@@ -10957,10 +10951,10 @@
         <v>1000</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D138" s="40">
         <v>3090</v>
@@ -10975,10 +10969,10 @@
         <v>176</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I138" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J138" s="40" t="s">
         <v>258</v>
@@ -10987,19 +10981,19 @@
         <v>82</v>
       </c>
       <c r="L138" s="40" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M138" s="40" t="s">
         <v>126</v>
       </c>
       <c r="N138" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="O138" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="P138" s="40" t="s">
         <v>519</v>
-      </c>
-      <c r="O138" s="40" t="s">
-        <v>520</v>
-      </c>
-      <c r="P138" s="40" t="s">
-        <v>521</v>
       </c>
       <c r="Q138" s="40" t="s">
         <v>88</v>
@@ -11037,7 +11031,7 @@
         <v>150</v>
       </c>
       <c r="L139" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M139" s="14" t="s">
         <v>144</v>
@@ -11046,7 +11040,7 @@
         <v>153</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P139" s="15" t="s">
         <v>155</v>
@@ -11066,7 +11060,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>35</v>
@@ -11081,25 +11075,25 @@
         <v>25</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L140" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N140" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O140" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="P140" s="42" t="s">
         <v>387</v>
-      </c>
-      <c r="P140" s="42" t="s">
-        <v>388</v>
       </c>
       <c r="Q140" s="47" t="s">
         <v>38</v>
@@ -11110,13 +11104,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E141" s="40" t="s">
         <v>22</v>
@@ -11128,34 +11122,34 @@
         <v>47</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L141" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M141" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="O141" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="P141" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="O141" s="14" t="s">
+      <c r="Q141" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="P141" s="15" t="s">
+      <c r="R141" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="Q141" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="R141" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -11163,13 +11157,13 @@
         <v>247</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E142" s="40" t="s">
         <v>22</v>
@@ -11178,10 +11172,10 @@
         <v>23</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>26</v>
@@ -11193,25 +11187,25 @@
         <v>82</v>
       </c>
       <c r="L142" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="M142" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="N142" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="M142" s="14" t="s">
+      <c r="O142" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="N142" s="14" t="s">
+      <c r="P142" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="O142" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="P142" s="15" t="s">
-        <v>544</v>
       </c>
       <c r="Q142" s="14" t="s">
         <v>88</v>
       </c>
       <c r="R142" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -11219,13 +11213,13 @@
         <v>247</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>35</v>
@@ -11234,10 +11228,10 @@
         <v>23</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>26</v>
@@ -11246,22 +11240,22 @@
         <v>258</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L143" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M143" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="N143" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="O143" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="N143" s="14" t="s">
+      <c r="P143" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="O143" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="P143" s="15" t="s">
-        <v>544</v>
       </c>
       <c r="Q143" s="14" t="s">
         <v>88</v>
@@ -11272,13 +11266,13 @@
         <v>44</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E144" s="40" t="s">
         <v>22</v>
@@ -11290,31 +11284,31 @@
         <v>47</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I144" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L144" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M144" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="O144" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="P144" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="O144" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="P144" s="15" t="s">
-        <v>552</v>
-      </c>
       <c r="Q144" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -11322,13 +11316,13 @@
         <v>44</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E145" s="40" t="s">
         <v>22</v>
@@ -11340,31 +11334,31 @@
         <v>47</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L145" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M145" s="14" t="s">
         <v>51</v>
       </c>
       <c r="N145" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="O145" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="P145" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="O145" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="P145" s="15" t="s">
-        <v>557</v>
-      </c>
       <c r="Q145" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -11486,10 +11480,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -11498,7 +11492,7 @@
         <v>370</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$181</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="625">
   <si>
     <t>vendorID</t>
   </si>
@@ -914,6 +914,12 @@
     </r>
   </si>
   <si>
+    <t>1db4</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
     <t>460.73.01</t>
   </si>
   <si>
@@ -932,6 +938,12 @@
     <t>06320119</t>
   </si>
   <si>
+    <t>20f1</t>
+  </si>
+  <si>
+    <t>145f</t>
+  </si>
+  <si>
     <t>Tesla A100</t>
   </si>
   <si>
@@ -3066,72 +3078,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>93K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2021.4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>openEuler 20.03 LTS</t>
     </r>
     <r>
@@ -3146,6 +3092,31 @@
     </r>
   </si>
   <si>
+    <t>SP525</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>013</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3164,85 +3135,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>68</t>
-    </r>
-  </si>
-  <si>
-    <t>SP525</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5b3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>013</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>014</t>
     </r>
   </si>
@@ -3269,38 +3161,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>69</t>
-    </r>
-  </si>
-  <si>
     <t>ConnectX-4 EN</t>
   </si>
   <si>
@@ -3339,48 +3199,34 @@
     <t xml:space="preserve">megaraid_sas </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>293K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nbox</t>
-    </r>
+    <t>144d</t>
+  </si>
+  <si>
+    <t>a822</t>
+  </si>
+  <si>
+    <t>a80b</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2021.7.23</t>
+  </si>
+  <si>
+    <t>4F1A7AF3341C7B2E91FD39C6B64CC40C9E2530BA</t>
+  </si>
+  <si>
+    <t>82KB</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>PM1725b</t>
+  </si>
+  <si>
+    <t>172Xa/172Xb</t>
   </si>
   <si>
     <t>板卡</t>
@@ -3397,12 +3243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3466,27 +3312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.5"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3499,25 +3326,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3525,36 +3350,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3568,14 +3363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3589,22 +3377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3613,16 +3385,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3637,15 +3408,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3684,7 +3495,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3696,7 +3603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3708,31 +3621,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3744,19 +3663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3768,103 +3675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3893,6 +3704,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3908,6 +3730,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3919,30 +3756,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3982,11 +3795,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3996,10 +3807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4008,131 +3819,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -4142,7 +3953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
@@ -4270,25 +4081,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4297,14 +4093,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -4660,12 +4455,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R180"/>
+  <dimension ref="A1:R181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="O181" sqref="O181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7287,8 +7082,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" s="6" customFormat="1" spans="2:17">
-      <c r="B50" s="23"/>
+    <row r="50" s="6" customFormat="1" spans="1:17">
+      <c r="A50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="E50" s="6" t="s">
         <v>22</v>
       </c>
@@ -7299,35 +7105,46 @@
         <v>45</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O50" s="25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P50" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" s="6" customFormat="1" spans="2:17">
-      <c r="B51" s="23"/>
+    <row r="51" s="6" customFormat="1" spans="1:17">
+      <c r="A51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="E51" s="6" t="s">
         <v>22</v>
       </c>
@@ -7338,28 +7155,28 @@
         <v>45</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P51" s="26" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q51" s="34" t="s">
         <v>53</v>
@@ -7376,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>22</v>
@@ -7423,13 +7240,13 @@
         <v>137</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>137</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>22</v>
@@ -7441,28 +7258,28 @@
         <v>140</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>61</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L53" s="28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M53" s="15" t="s">
         <v>143</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q53" s="31" t="s">
         <v>147</v>
@@ -7473,13 +7290,13 @@
         <v>137</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>137</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>35</v>
@@ -7491,28 +7308,28 @@
         <v>140</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>61</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M54" s="15" t="s">
         <v>143</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q54" s="30" t="s">
         <v>150</v>
@@ -7529,7 +7346,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>35</v>
@@ -7541,31 +7358,31 @@
         <v>113</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L55" s="28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M55" s="15" t="s">
         <v>116</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q55" s="31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -7579,7 +7396,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>22</v>
@@ -7591,31 +7408,31 @@
         <v>113</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>116</v>
       </c>
       <c r="N56" s="15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q56" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -7629,7 +7446,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>35</v>
@@ -7641,7 +7458,7 @@
         <v>24</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>26</v>
@@ -7653,19 +7470,19 @@
         <v>202</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M57" s="15" t="s">
         <v>30</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q57" s="15" t="s">
         <v>87</v>
@@ -7682,7 +7499,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>22</v>
@@ -7694,7 +7511,7 @@
         <v>24</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>26</v>
@@ -7706,19 +7523,19 @@
         <v>81</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>30</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q58" s="8" t="s">
         <v>87</v>
@@ -7726,16 +7543,16 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>35</v>
@@ -7744,34 +7561,34 @@
         <v>23</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>202</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N59" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q59" s="15" t="s">
         <v>87</v>
@@ -7779,16 +7596,16 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>22</v>
@@ -7797,34 +7614,34 @@
         <v>23</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>81</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q60" s="15" t="s">
         <v>87</v>
@@ -7835,13 +7652,13 @@
         <v>8086</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>22</v>
@@ -7850,34 +7667,34 @@
         <v>23</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M61" s="15" t="s">
         <v>116</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q61" s="30" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7885,13 +7702,13 @@
         <v>1000</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>35</v>
@@ -7903,7 +7720,7 @@
         <v>121</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>123</v>
@@ -7915,19 +7732,19 @@
         <v>202</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M62" s="15" t="s">
         <v>125</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q62" s="15" t="s">
         <v>87</v>
@@ -7956,7 +7773,7 @@
         <v>140</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>61</v>
@@ -7965,19 +7782,19 @@
         <v>149</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M63" s="15" t="s">
         <v>143</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q63" s="30" t="s">
         <v>34</v>
@@ -7988,13 +7805,13 @@
         <v>20</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>22</v>
@@ -8024,13 +7841,13 @@
         <v>100</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>205</v>
       </c>
       <c r="P64" s="24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q64" s="8" t="s">
         <v>87</v>
@@ -8041,13 +7858,13 @@
         <v>20</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>35</v>
@@ -8077,13 +7894,13 @@
         <v>100</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>205</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q65" s="8" t="s">
         <v>87</v>
@@ -8094,25 +7911,25 @@
         <v>57</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C66" s="16">
         <v>1077</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>61</v>
@@ -8121,19 +7938,19 @@
         <v>62</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O66" s="8" t="s">
         <v>67</v>
       </c>
       <c r="P66" s="24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q66" s="30" t="s">
         <v>71</v>
@@ -8144,25 +7961,25 @@
         <v>57</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C67" s="16">
         <v>1077</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>61</v>
@@ -8171,22 +7988,22 @@
         <v>62</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P67" s="24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q67" s="30" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -8194,25 +8011,25 @@
         <v>57</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C68" s="16">
         <v>1077</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>61</v>
@@ -8221,22 +8038,22 @@
         <v>62</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O68" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="O68" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="P68" s="24" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q68" s="30" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -8244,25 +8061,25 @@
         <v>57</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C69" s="16">
         <v>1077</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>61</v>
@@ -8271,22 +8088,22 @@
         <v>62</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q69" s="30" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -8294,25 +8111,25 @@
         <v>57</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C70" s="16">
         <v>1077</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>61</v>
@@ -8321,22 +8138,22 @@
         <v>62</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P70" s="24" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q70" s="30" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" spans="1:17">
@@ -8350,7 +8167,7 @@
         <v>19</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E71" s="36" t="s">
         <v>22</v>
@@ -8362,31 +8179,31 @@
         <v>24</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>202</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>30</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P71" s="35" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q71" s="35" t="s">
         <v>87</v>
@@ -8403,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E72" s="37" t="s">
         <v>35</v>
@@ -8415,7 +8232,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>26</v>
@@ -8427,19 +8244,19 @@
         <v>202</v>
       </c>
       <c r="L72" s="37" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>30</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O72" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P72" s="35" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q72" s="35" t="s">
         <v>87</v>
@@ -8456,7 +8273,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>22</v>
@@ -8465,37 +8282,37 @@
         <v>23</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>81</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>100</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q73" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:17">
@@ -8503,13 +8320,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>22</v>
@@ -8524,10 +8341,10 @@
         <v>106</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>81</v>
@@ -8539,13 +8356,13 @@
         <v>100</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O74" s="8" t="s">
         <v>205</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>87</v>
@@ -8556,13 +8373,13 @@
         <v>110</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>22</v>
@@ -8571,37 +8388,37 @@
         <v>23</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O75" s="8">
         <v>82599</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q75" s="42" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" s="11" customFormat="1" spans="1:17">
@@ -8615,7 +8432,7 @@
         <v>8086</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>22</v>
@@ -8624,32 +8441,32 @@
         <v>23</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O76" s="8" t="s">
         <v>135</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>87</v>
@@ -8678,31 +8495,31 @@
         <v>24</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>202</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>30</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q77" s="43" t="s">
         <v>87</v>
@@ -8719,7 +8536,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>22</v>
@@ -8728,35 +8545,35 @@
         <v>23</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q78" s="30" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8770,7 +8587,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>35</v>
@@ -8779,35 +8596,35 @@
         <v>23</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="M79" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="N79" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q79" s="31" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8833,32 +8650,32 @@
         <v>113</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>197</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q80" s="30" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8884,32 +8701,32 @@
         <v>113</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>197</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q81" s="30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8935,32 +8752,32 @@
         <v>113</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>197</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q82" s="30" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -8986,32 +8803,32 @@
         <v>113</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O83" s="8" t="s">
         <v>197</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q83" s="30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -9019,13 +8836,13 @@
         <v>9005</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>35</v>
@@ -9034,35 +8851,35 @@
         <v>23</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" s="12" customFormat="1" spans="1:17">
@@ -9088,13 +8905,13 @@
         <v>140</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8" t="s">
@@ -9104,13 +8921,13 @@
         <v>143</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q85" s="44" t="s">
         <v>150</v>
@@ -9133,13 +8950,13 @@
         <v>35</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>157</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>26</v>
@@ -9151,19 +8968,19 @@
         <v>88</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>100</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q86" s="8" t="s">
         <v>87</v>
@@ -9186,13 +9003,13 @@
         <v>35</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>157</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="I87" s="25" t="s">
         <v>26</v>
@@ -9210,13 +9027,13 @@
         <v>100</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="O87" s="25" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q87" s="25" t="s">
         <v>87</v>
@@ -9227,7 +9044,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>20</v>
@@ -9239,13 +9056,13 @@
         <v>35</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I88" s="15" t="s">
         <v>26</v>
@@ -9263,7 +9080,7 @@
         <v>93</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="31" t="s">
@@ -9275,28 +9092,28 @@
         <v>19</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>27</v>
@@ -9308,13 +9125,13 @@
         <v>30</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O89" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q89" s="31" t="s">
         <v>37</v>
@@ -9325,28 +9142,28 @@
         <v>19</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>27</v>
@@ -9358,13 +9175,13 @@
         <v>30</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q90" s="31" t="s">
         <v>37</v>
@@ -9375,13 +9192,13 @@
         <v>19</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>22</v>
@@ -9396,7 +9213,7 @@
         <v>25</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J91" s="15" t="s">
         <v>27</v>
@@ -9409,13 +9226,13 @@
         <v>30</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q91" s="30" t="s">
         <v>34</v>
@@ -9426,25 +9243,25 @@
         <v>19</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>26</v>
@@ -9460,13 +9277,13 @@
         <v>30</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q92" s="30" t="s">
         <v>37</v>
@@ -9477,25 +9294,25 @@
         <v>19</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>26</v>
@@ -9511,13 +9328,13 @@
         <v>30</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O93" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q93" s="30" t="s">
         <v>37</v>
@@ -9528,25 +9345,25 @@
         <v>19</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>26</v>
@@ -9562,13 +9379,13 @@
         <v>30</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O94" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q94" s="30" t="s">
         <v>37</v>
@@ -9576,53 +9393,53 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O95" s="8" t="s">
         <v>127</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q95" s="30" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -9630,50 +9447,50 @@
         <v>20</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K96" s="8"/>
       <c r="L96" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>100</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q96" s="30" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -9681,48 +9498,48 @@
         <v>20</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>100</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P97" s="8"/>
       <c r="Q97" s="30" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -9730,7 +9547,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>20</v>
@@ -9742,23 +9559,23 @@
         <v>35</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>100</v>
@@ -9771,7 +9588,7 @@
       </c>
       <c r="P98" s="8"/>
       <c r="Q98" s="30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9779,48 +9596,48 @@
         <v>20</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>100</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8" t="s">
         <v>205</v>
       </c>
       <c r="P99" s="8"/>
       <c r="Q99" s="30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9828,25 +9645,25 @@
         <v>19</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>26</v>
@@ -9862,13 +9679,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q100" s="30" t="s">
         <v>34</v>
@@ -9879,25 +9696,25 @@
         <v>19</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>26</v>
@@ -9913,13 +9730,13 @@
         <v>30</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O101" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q101" s="30" t="s">
         <v>34</v>
@@ -9930,25 +9747,25 @@
         <v>19</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>26</v>
@@ -9964,13 +9781,13 @@
         <v>30</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O102" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q102" s="30" t="s">
         <v>34</v>
@@ -9981,25 +9798,25 @@
         <v>19</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>26</v>
@@ -10015,13 +9832,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O103" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q103" s="30" t="s">
         <v>34</v>
@@ -10032,25 +9849,25 @@
         <v>19</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>26</v>
@@ -10066,13 +9883,13 @@
         <v>30</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q104" s="30" t="s">
         <v>34</v>
@@ -10083,19 +9900,19 @@
         <v>110</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>131</v>
@@ -10107,26 +9924,26 @@
         <v>26</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O105" s="8" t="s">
         <v>135</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -10140,13 +9957,13 @@
         <v>20</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>131</v>
@@ -10158,23 +9975,23 @@
         <v>26</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O106" s="8" t="s">
         <v>135</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q106" s="15" t="s">
         <v>87</v>
@@ -10191,44 +10008,44 @@
         <v>20</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q107" s="30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -10236,50 +10053,50 @@
         <v>8086</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I108" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N108" s="39" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O108" s="8" t="s">
         <v>118</v>
       </c>
       <c r="P108" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q108" s="30" t="s">
         <v>444</v>
-      </c>
-      <c r="Q108" s="30" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="109" s="6" customFormat="1" spans="1:17">
@@ -10287,50 +10104,50 @@
         <v>8086</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C109" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E109" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G109" s="25" t="s">
         <v>113</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I109" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J109" s="25" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K109" s="25"/>
       <c r="L109" s="25" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M109" s="25" t="s">
         <v>116</v>
       </c>
       <c r="N109" s="40" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O109" s="25" t="s">
         <v>118</v>
       </c>
       <c r="P109" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q109" s="34" t="s">
         <v>444</v>
-      </c>
-      <c r="Q109" s="34" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="110" s="6" customFormat="1" spans="1:17">
@@ -10344,44 +10161,44 @@
         <v>20</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G110" s="25" t="s">
         <v>113</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I110" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J110" s="25" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K110" s="25"/>
       <c r="L110" s="25" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>116</v>
       </c>
       <c r="N110" s="40" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O110" s="25" t="s">
         <v>118</v>
       </c>
       <c r="P110" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q110" s="34" t="s">
         <v>444</v>
-      </c>
-      <c r="Q110" s="34" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="111" s="6" customFormat="1" spans="1:17">
@@ -10389,7 +10206,7 @@
         <v>8086</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C111" s="25" t="s">
         <v>20</v>
@@ -10401,38 +10218,38 @@
         <v>22</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G111" s="25" t="s">
         <v>113</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I111" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K111" s="25"/>
       <c r="L111" s="25" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M111" s="25" t="s">
         <v>116</v>
       </c>
       <c r="N111" s="40" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O111" s="25" t="s">
         <v>118</v>
       </c>
       <c r="P111" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q111" s="34" t="s">
         <v>444</v>
-      </c>
-      <c r="Q111" s="34" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -10446,44 +10263,44 @@
         <v>20</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O112" s="8" t="s">
         <v>197</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q112" s="30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -10491,50 +10308,50 @@
         <v>1000</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q113" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -10542,10 +10359,10 @@
         <v>1000</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D114" s="8">
         <v>9361</v>
@@ -10554,38 +10371,38 @@
         <v>22</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P114" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q114" s="31" t="s">
         <v>461</v>
-      </c>
-      <c r="Q114" s="31" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -10593,50 +10410,50 @@
         <v>1000</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I115" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q115" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -10644,50 +10461,50 @@
         <v>1000</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q116" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -10695,10 +10512,10 @@
         <v>1000</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D117" s="8">
         <v>9440</v>
@@ -10707,38 +10524,38 @@
         <v>22</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I117" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O117" s="8" t="s">
         <v>127</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q117" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -10746,7 +10563,7 @@
         <v>1000</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>20</v>
@@ -10758,38 +10575,38 @@
         <v>22</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q118" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -10797,7 +10614,7 @@
         <v>1000</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>20</v>
@@ -10809,23 +10626,23 @@
         <v>22</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>125</v>
@@ -10834,13 +10651,13 @@
         <v>171</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P119" s="8" t="s">
         <v>172</v>
       </c>
       <c r="Q119" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -10848,50 +10665,50 @@
         <v>1000</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I120" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N120" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P120" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q120" s="31" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -10917,7 +10734,7 @@
         <v>24</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>26</v>
@@ -10933,10 +10750,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P121" s="8" t="s">
         <v>185</v>
@@ -10956,7 +10773,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>22</v>
@@ -10968,7 +10785,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I122" s="8" t="s">
         <v>26</v>
@@ -10984,13 +10801,13 @@
         <v>30</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q122" s="30" t="s">
         <v>34</v>
@@ -11007,7 +10824,7 @@
         <v>20</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>22</v>
@@ -11019,7 +10836,7 @@
         <v>24</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>26</v>
@@ -11035,13 +10852,13 @@
         <v>30</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q123" s="30" t="s">
         <v>34</v>
@@ -11058,7 +10875,7 @@
         <v>19</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>22</v>
@@ -11070,7 +10887,7 @@
         <v>24</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I124" s="8" t="s">
         <v>26</v>
@@ -11085,13 +10902,13 @@
         <v>30</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O124" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P124" s="24" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q124" s="30" t="s">
         <v>34</v>
@@ -11108,7 +10925,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>22</v>
@@ -11120,7 +10937,7 @@
         <v>24</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I125" s="8" t="s">
         <v>26</v>
@@ -11135,13 +10952,13 @@
         <v>30</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O125" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q125" s="30" t="s">
         <v>34</v>
@@ -11158,7 +10975,7 @@
         <v>19</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>22</v>
@@ -11170,7 +10987,7 @@
         <v>24</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I126" s="8" t="s">
         <v>26</v>
@@ -11185,13 +11002,13 @@
         <v>30</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O126" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P126" s="24" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q126" s="30" t="s">
         <v>34</v>
@@ -11208,7 +11025,7 @@
         <v>20</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>22</v>
@@ -11220,31 +11037,31 @@
         <v>113</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I127" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M127" s="15" t="s">
         <v>116</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P127" s="24" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q127" s="30" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -11258,7 +11075,7 @@
         <v>20</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E128" s="15" t="s">
         <v>22</v>
@@ -11270,31 +11087,31 @@
         <v>113</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I128" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M128" s="15" t="s">
         <v>116</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O128" s="8" t="s">
         <v>197</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q128" s="30" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" s="13" customFormat="1" spans="1:17">
@@ -11305,10 +11122,10 @@
         <v>1584</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D129" s="43" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E129" s="46" t="s">
         <v>22</v>
@@ -11320,32 +11137,32 @@
         <v>113</v>
       </c>
       <c r="H129" s="46" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I129" s="46" t="s">
         <v>26</v>
       </c>
       <c r="J129" s="46" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K129" s="46"/>
       <c r="L129" s="46" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M129" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="N129" s="61" t="s">
-        <v>486</v>
+      <c r="N129" s="57" t="s">
+        <v>490</v>
       </c>
       <c r="O129" s="46" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P129" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q129" s="66" t="s">
-        <v>351</v>
+        <v>357</v>
+      </c>
+      <c r="Q129" s="59" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="130" s="13" customFormat="1" spans="1:17">
@@ -11353,13 +11170,13 @@
         <v>110</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D130" s="43" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E130" s="46" t="s">
         <v>22</v>
@@ -11371,32 +11188,32 @@
         <v>113</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I130" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K130" s="46"/>
       <c r="L130" s="46" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M130" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="N130" s="61" t="s">
-        <v>489</v>
+      <c r="N130" s="57" t="s">
+        <v>493</v>
       </c>
       <c r="O130" s="46" t="s">
         <v>197</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q130" s="67" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="Q130" s="60" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="131" s="13" customFormat="1" spans="1:17">
@@ -11410,7 +11227,7 @@
         <v>57</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E131" s="13" t="s">
         <v>22</v>
@@ -11422,28 +11239,28 @@
         <v>59</v>
       </c>
       <c r="H131" s="46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I131" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L131" s="37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M131" s="37" t="s">
         <v>65</v>
       </c>
       <c r="N131" s="37" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O131" s="37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P131" s="37" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q131" s="37" t="s">
         <v>69</v>
@@ -11460,7 +11277,7 @@
         <v>57</v>
       </c>
       <c r="D132" s="43" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>22</v>
@@ -11472,28 +11289,28 @@
         <v>59</v>
       </c>
       <c r="H132" s="46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I132" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J132" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L132" s="37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M132" s="37" t="s">
         <v>65</v>
       </c>
       <c r="N132" s="37" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="O132" s="37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P132" s="37" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q132" s="37" t="s">
         <v>69</v>
@@ -11510,7 +11327,7 @@
         <v>57</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>22</v>
@@ -11522,28 +11339,28 @@
         <v>59</v>
       </c>
       <c r="H133" s="46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I133" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L133" s="37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M133" s="37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N133" s="37" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O133" s="37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P133" s="37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q133" s="41" t="s">
         <v>69</v>
@@ -11551,16 +11368,16 @@
     </row>
     <row r="134" s="13" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
       <c r="A134" s="46" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D134" s="43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E134" s="46" t="s">
         <v>22</v>
@@ -11572,46 +11389,46 @@
         <v>24</v>
       </c>
       <c r="H134" s="46" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I134" s="46" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J134" s="46" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K134" s="46"/>
       <c r="L134" s="46" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M134" s="46" t="s">
         <v>30</v>
       </c>
       <c r="N134" s="46" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O134" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="P134" s="76" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q134" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="P134" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q134" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="135" s="13" customFormat="1" spans="1:17">
       <c r="A135" s="46" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B135" s="46" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C135" s="43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D135" s="43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E135" s="46" t="s">
         <v>35</v>
@@ -11623,13 +11440,13 @@
         <v>24</v>
       </c>
       <c r="H135" s="46" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I135" s="46" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J135" s="46" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L135" s="46" t="s">
         <v>36</v>
@@ -11638,15 +11455,15 @@
         <v>30</v>
       </c>
       <c r="N135" s="46" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="O135" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="P135" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="Q135" s="67" t="s">
+      <c r="P135" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q135" s="60" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11655,13 +11472,13 @@
         <v>110</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E136" s="46" t="s">
         <v>35</v>
@@ -11670,35 +11487,35 @@
         <v>23</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I136" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O136" s="8">
         <v>82599</v>
       </c>
       <c r="P136" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q136" s="42" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" s="14" customFormat="1" spans="1:17">
@@ -11712,7 +11529,7 @@
         <v>20</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>22</v>
@@ -11727,10 +11544,10 @@
         <v>25</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L137" s="14" t="s">
         <v>29</v>
@@ -11739,15 +11556,15 @@
         <v>30</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P137" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q137" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q137" s="61" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11756,10 +11573,10 @@
         <v>1000</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C138" s="46" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D138" s="46">
         <v>3090</v>
@@ -11774,31 +11591,31 @@
         <v>175</v>
       </c>
       <c r="H138" s="46" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I138" s="46" t="s">
         <v>123</v>
       </c>
       <c r="J138" s="46" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K138" s="46" t="s">
         <v>81</v>
       </c>
       <c r="L138" s="46" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M138" s="46" t="s">
         <v>125</v>
       </c>
       <c r="N138" s="46" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="O138" s="46" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="P138" s="46" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q138" s="46" t="s">
         <v>87</v>
@@ -11827,7 +11644,7 @@
         <v>140</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I139" s="15" t="s">
         <v>61</v>
@@ -11836,7 +11653,7 @@
         <v>149</v>
       </c>
       <c r="L139" s="15" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M139" s="15" t="s">
         <v>143</v>
@@ -11845,7 +11662,7 @@
         <v>152</v>
       </c>
       <c r="O139" s="15" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P139" s="16" t="s">
         <v>154</v>
@@ -11865,7 +11682,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>35</v>
@@ -11880,27 +11697,27 @@
         <v>25</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L140" s="14" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M140" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N140" s="14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P140" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q140" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q140" s="62" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11909,13 +11726,13 @@
         <v>42</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E141" s="49" t="s">
         <v>22</v>
@@ -11927,48 +11744,48 @@
         <v>45</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="O141" s="6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="P141" s="23" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q141" s="32" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E142" s="46" t="s">
         <v>22</v>
@@ -11977,54 +11794,54 @@
         <v>23</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I142" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K142" s="15" t="s">
         <v>81</v>
       </c>
       <c r="L142" s="15" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M142" s="15" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P142" s="16" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q142" s="15" t="s">
         <v>87</v>
       </c>
       <c r="R142" s="15" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>35</v>
@@ -12033,34 +11850,34 @@
         <v>23</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I143" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J143" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K143" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="L143" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="M143" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="N143" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="L143" s="15" t="s">
+      <c r="O143" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="M143" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="N143" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="O143" s="15" t="s">
-        <v>537</v>
-      </c>
       <c r="P143" s="16" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q143" s="15" t="s">
         <v>87</v>
@@ -12071,13 +11888,13 @@
         <v>42</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E144" s="49" t="s">
         <v>22</v>
@@ -12089,31 +11906,31 @@
         <v>45</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P144" s="23" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q144" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" s="6" customFormat="1" spans="1:17">
@@ -12121,13 +11938,13 @@
         <v>42</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E145" s="49" t="s">
         <v>22</v>
@@ -12139,31 +11956,31 @@
         <v>45</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P145" s="23" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q145" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="146" s="13" customFormat="1" spans="1:17">
@@ -12171,13 +11988,13 @@
         <v>20</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E146" s="46" t="s">
         <v>22</v>
@@ -12186,34 +12003,34 @@
         <v>23</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="I146" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K146" s="13" t="s">
         <v>81</v>
       </c>
       <c r="L146" s="13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M146" s="13" t="s">
         <v>100</v>
       </c>
       <c r="N146" s="13" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="O146" s="13" t="s">
         <v>205</v>
       </c>
       <c r="P146" s="13" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Q146" s="13" t="s">
         <v>87</v>
@@ -12224,13 +12041,13 @@
         <v>1000</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E147" s="35" t="s">
         <v>22</v>
@@ -12242,31 +12059,31 @@
         <v>121</v>
       </c>
       <c r="H147" s="37" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I147" s="46" t="s">
         <v>123</v>
       </c>
       <c r="J147" s="38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K147" s="37" t="s">
         <v>81</v>
       </c>
       <c r="L147" s="37" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M147" s="46" t="s">
         <v>125</v>
       </c>
       <c r="N147" s="37" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O147" s="37" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P147" s="36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q147" s="7" t="s">
         <v>87</v>
@@ -12277,13 +12094,13 @@
         <v>1000</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E148" s="35" t="s">
         <v>22</v>
@@ -12295,28 +12112,28 @@
         <v>121</v>
       </c>
       <c r="H148" s="37" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I148" s="46" t="s">
         <v>123</v>
       </c>
       <c r="J148" s="38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K148" s="37" t="s">
         <v>81</v>
       </c>
       <c r="L148" s="37" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M148" s="46" t="s">
         <v>125</v>
       </c>
       <c r="N148" s="37" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O148" s="37" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P148" s="36"/>
       <c r="Q148" s="7" t="s">
@@ -12328,13 +12145,13 @@
         <v>42</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C149" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>22</v>
@@ -12346,45 +12163,45 @@
         <v>45</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N149" s="25" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="O149" s="25" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="P149" s="26" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="Q149" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" s="13" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
       <c r="A150" s="46" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B150" s="46" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C150" s="43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D150" s="43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E150" s="46" t="s">
         <v>35</v>
@@ -12396,13 +12213,13 @@
         <v>24</v>
       </c>
       <c r="H150" s="46" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I150" s="46" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J150" s="46" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K150" s="46"/>
       <c r="L150" s="46" t="s">
@@ -12412,30 +12229,30 @@
         <v>30</v>
       </c>
       <c r="N150" s="46" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O150" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="P150" s="76" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q150" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="P150" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q150" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="151" s="13" customFormat="1" spans="1:17">
       <c r="A151" s="46" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B151" s="46" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C151" s="43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D151" s="43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E151" s="46" t="s">
         <v>22</v>
@@ -12447,13 +12264,13 @@
         <v>24</v>
       </c>
       <c r="H151" s="46" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I151" s="46" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J151" s="46" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L151" s="46" t="s">
         <v>29</v>
@@ -12462,30 +12279,30 @@
         <v>30</v>
       </c>
       <c r="N151" s="46" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="O151" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="P151" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="Q151" s="66" t="s">
+      <c r="P151" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q151" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="152" s="13" customFormat="1" spans="1:17">
       <c r="A152" s="46" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B152" s="13">
         <v>1007</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D152" s="43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E152" s="13" t="s">
         <v>22</v>
@@ -12494,51 +12311,51 @@
         <v>23</v>
       </c>
       <c r="G152" s="46" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H152" s="46" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="I152" s="46" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J152" s="46" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K152" s="46" t="s">
         <v>81</v>
       </c>
       <c r="L152" s="46" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M152" s="46" t="s">
         <v>30</v>
       </c>
       <c r="N152" s="46" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O152" s="46" t="s">
         <v>73</v>
       </c>
       <c r="P152" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q152" s="70" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q152" s="63" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="153" s="13" customFormat="1" spans="1:17">
       <c r="A153" s="46" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B153" s="13">
         <v>1007</v>
       </c>
       <c r="C153" s="43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D153" s="43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E153" s="46" t="s">
         <v>35</v>
@@ -12547,36 +12364,36 @@
         <v>23</v>
       </c>
       <c r="G153" s="46" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H153" s="46" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="I153" s="46" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J153" s="46" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K153" s="46" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L153" s="46" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M153" s="46" t="s">
         <v>30</v>
       </c>
       <c r="N153" s="46" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O153" s="46" t="s">
         <v>73</v>
       </c>
       <c r="P153" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q153" s="71" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q153" s="64" t="s">
         <v>87</v>
       </c>
     </row>
@@ -12585,13 +12402,13 @@
         <v>110</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E154" s="13" t="s">
         <v>22</v>
@@ -12609,25 +12426,25 @@
         <v>26</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K154" s="46" t="s">
         <v>81</v>
       </c>
       <c r="L154" s="15" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M154" s="15" t="s">
         <v>116</v>
       </c>
       <c r="N154" s="15" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O154" s="15" t="s">
         <v>135</v>
       </c>
       <c r="P154" s="16" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q154" s="15" t="s">
         <v>87</v>
@@ -12638,61 +12455,61 @@
         <v>1000</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>121</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I155" s="46" t="s">
         <v>123</v>
       </c>
       <c r="J155" s="38" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K155" s="7"/>
       <c r="L155" s="37" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M155" s="46" t="s">
         <v>125</v>
       </c>
       <c r="N155" s="37" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P155" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q155" s="72" t="s">
-        <v>401</v>
+        <v>581</v>
+      </c>
+      <c r="Q155" s="65" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="156" s="15" customFormat="1" spans="1:17">
       <c r="A156" s="51" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C156" s="52" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D156" s="53" t="s">
         <v>156</v>
@@ -12704,23 +12521,23 @@
         <v>23</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K156" s="8"/>
       <c r="M156" s="54" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="O156" s="54" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P156" s="16"/>
       <c r="Q156" s="8" t="s">
@@ -12747,23 +12564,23 @@
         <v>23</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K157" s="8"/>
       <c r="M157" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="N157" s="62" t="s">
-        <v>585</v>
-      </c>
-      <c r="O157" s="62" t="s">
         <v>586</v>
+      </c>
+      <c r="N157" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="O157" s="58" t="s">
+        <v>590</v>
       </c>
       <c r="P157" s="16"/>
       <c r="Q157" s="8" t="s">
@@ -12772,13 +12589,13 @@
     </row>
     <row r="158" s="15" customFormat="1" spans="1:17">
       <c r="A158" s="51" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C158" s="52" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D158" s="53" t="s">
         <v>156</v>
@@ -12790,10 +12607,10 @@
         <v>23</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I158" s="8" t="s">
         <v>26</v>
@@ -12802,19 +12619,19 @@
         <v>201</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L158" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="M158" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="N158" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="M158" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="N158" s="8" t="s">
-        <v>583</v>
-      </c>
       <c r="O158" s="54" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P158" s="16"/>
       <c r="Q158" s="8" t="s">
@@ -12841,10 +12658,10 @@
         <v>23</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H159" s="54" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>26</v>
@@ -12853,19 +12670,19 @@
         <v>201</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L159" s="15" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M159" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="N159" s="62" t="s">
-        <v>585</v>
-      </c>
-      <c r="O159" s="62" t="s">
         <v>586</v>
+      </c>
+      <c r="N159" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="O159" s="58" t="s">
+        <v>590</v>
       </c>
       <c r="P159" s="16"/>
       <c r="Q159" s="8" t="s">
@@ -12877,18 +12694,18 @@
         <v>19</v>
       </c>
       <c r="B160" s="36" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C160" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="E160" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="E160" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F160" s="58" t="s">
+      <c r="F160" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G160" s="37" t="s">
@@ -12900,26 +12717,26 @@
       <c r="I160" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J160" s="57" t="s">
+      <c r="J160" s="37" t="s">
         <v>27</v>
       </c>
       <c r="K160" s="37"/>
-      <c r="L160" s="57" t="s">
+      <c r="L160" s="37" t="s">
         <v>36</v>
       </c>
       <c r="M160" s="37" t="s">
         <v>30</v>
       </c>
       <c r="N160" s="37" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O160" s="37" t="s">
         <v>40</v>
       </c>
       <c r="P160" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q160" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q160" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12934,9 +12751,9 @@
         <v>19</v>
       </c>
       <c r="D161" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="E161" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="E161" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F161" s="37" t="s">
@@ -12954,22 +12771,22 @@
       <c r="J161" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L161" s="57" t="s">
-        <v>588</v>
+      <c r="L161" s="37" t="s">
+        <v>592</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N161" s="37" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O161" s="37" t="s">
         <v>40</v>
       </c>
       <c r="P161" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q161" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q161" s="66" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12978,50 +12795,50 @@
         <v>20</v>
       </c>
       <c r="B162" s="36" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C162" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E162" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F162" s="57" t="s">
+      <c r="F162" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G162" s="57" t="s">
+      <c r="G162" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="H162" s="57" t="s">
+      <c r="H162" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="I162" s="57" t="s">
+      <c r="I162" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J162" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="K162" s="57"/>
-      <c r="L162" s="57" t="s">
-        <v>590</v>
-      </c>
-      <c r="M162" s="57" t="s">
+      <c r="J162" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="K162" s="37"/>
+      <c r="L162" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="M162" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="N162" s="57" t="s">
-        <v>591</v>
-      </c>
-      <c r="O162" s="57" t="s">
+      <c r="N162" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="O162" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="P162" s="59" t="s">
-        <v>592</v>
+      <c r="P162" s="36" t="s">
+        <v>596</v>
       </c>
       <c r="Q162" s="11" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" s="7" customFormat="1" spans="1:17">
@@ -13037,16 +12854,16 @@
       <c r="D163" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E163" s="57" t="s">
+      <c r="E163" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F163" s="57" t="s">
+      <c r="F163" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G163" s="57" t="s">
+      <c r="G163" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H163" s="57" t="s">
+      <c r="H163" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I163" s="7" t="s">
@@ -13055,124 +12872,124 @@
       <c r="J163" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L163" s="57" t="s">
+      <c r="L163" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="M163" s="57" t="s">
+      <c r="M163" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N163" s="57" t="s">
-        <v>594</v>
+      <c r="N163" s="37" t="s">
+        <v>598</v>
       </c>
       <c r="O163" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P163" s="59" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q163" s="73" t="s">
-        <v>596</v>
+      <c r="P163" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q163" s="66" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="164" s="7" customFormat="1" spans="1:17">
       <c r="A164" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="59" t="s">
-        <v>597</v>
-      </c>
-      <c r="C164" s="57" t="s">
+      <c r="B164" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="C164" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D164" s="57" t="s">
-        <v>266</v>
+      <c r="D164" s="37" t="s">
+        <v>270</v>
       </c>
       <c r="E164" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F164" s="57" t="s">
+      <c r="F164" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="57" t="s">
+      <c r="G164" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H164" s="57" t="s">
+      <c r="H164" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I164" s="57" t="s">
-        <v>376</v>
+      <c r="I164" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="J164" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L164" s="57" t="s">
+      <c r="L164" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="M164" s="57" t="s">
+      <c r="M164" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N164" s="57" t="s">
-        <v>598</v>
-      </c>
-      <c r="O164" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="P164" s="59" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q164" s="73" t="s">
+      <c r="N164" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="O164" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="P164" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q164" s="66" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="165" s="15" customFormat="1" spans="1:17">
       <c r="A165" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B165" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F165" s="57" t="s">
+      <c r="F165" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8" t="s">
-        <v>600</v>
+        <v>402</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O165" s="8" t="s">
         <v>127</v>
       </c>
       <c r="P165" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q165" s="72" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="Q165" s="65" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="166" s="15" customFormat="1" spans="1:17">
@@ -13180,10 +12997,10 @@
         <v>1000</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D166" s="8">
         <v>9440</v>
@@ -13191,39 +13008,39 @@
       <c r="E166" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F166" s="57" t="s">
+      <c r="F166" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>601</v>
+        <v>435</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O166" s="8" t="s">
         <v>127</v>
       </c>
       <c r="P166" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q166" s="74" t="s">
-        <v>457</v>
+        <v>404</v>
+      </c>
+      <c r="Q166" s="31" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="167" s="7" customFormat="1" spans="1:17">
@@ -13231,18 +13048,18 @@
         <v>19</v>
       </c>
       <c r="B167" s="36" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C167" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F167" s="58" t="s">
+      <c r="F167" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G167" s="37" t="s">
@@ -13254,26 +13071,26 @@
       <c r="I167" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J167" s="57" t="s">
+      <c r="J167" s="37" t="s">
         <v>27</v>
       </c>
       <c r="K167" s="37"/>
-      <c r="L167" s="57" t="s">
+      <c r="L167" s="37" t="s">
         <v>29</v>
       </c>
       <c r="M167" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N167" s="57" t="s">
-        <v>389</v>
+      <c r="N167" s="37" t="s">
+        <v>393</v>
       </c>
       <c r="O167" s="37" t="s">
         <v>40</v>
       </c>
       <c r="P167" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q167" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q167" s="66" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13282,50 +13099,50 @@
         <v>20</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F168" s="60" t="s">
+      <c r="F168" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I168" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K168" s="8"/>
-      <c r="L168" s="60" t="s">
-        <v>406</v>
+      <c r="L168" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>100</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P168" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q168" s="72" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+      <c r="Q168" s="65" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="169" s="15" customFormat="1" spans="1:17">
@@ -13333,50 +13150,50 @@
         <v>1000</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F169" s="60" t="s">
+      <c r="F169" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>601</v>
+        <v>435</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N169" s="60" t="s">
-        <v>270</v>
+      <c r="N169" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P169" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q169" s="74" t="s">
-        <v>457</v>
+        <v>276</v>
+      </c>
+      <c r="Q169" s="31" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="170" s="15" customFormat="1" spans="1:17">
@@ -13384,50 +13201,50 @@
         <v>1000</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F170" s="60" t="s">
-        <v>603</v>
+      <c r="F170" s="8" t="s">
+        <v>604</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>601</v>
+        <v>435</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N170" s="60" t="s">
-        <v>463</v>
+      <c r="N170" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P170" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q170" s="74" t="s">
-        <v>457</v>
+        <v>468</v>
+      </c>
+      <c r="Q170" s="31" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="171" s="13" customFormat="1" spans="1:17">
@@ -13435,51 +13252,51 @@
         <v>20</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F171" s="58" t="s">
+      <c r="F171" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="I171" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K171" s="13" t="s">
         <v>81</v>
       </c>
       <c r="L171" s="13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M171" s="13" t="s">
         <v>100</v>
       </c>
       <c r="N171" s="13" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="O171" s="13" t="s">
         <v>205</v>
       </c>
       <c r="P171" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q171" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q171" s="46" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13494,7 +13311,7 @@
         <v>19</v>
       </c>
       <c r="D172" s="37" t="s">
-        <v>604</v>
+        <v>482</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>35</v>
@@ -13505,7 +13322,7 @@
       <c r="G172" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H172" s="57" t="s">
+      <c r="H172" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I172" s="37" t="s">
@@ -13520,17 +13337,17 @@
       <c r="M172" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N172" s="57" t="s">
-        <v>423</v>
+      <c r="N172" s="37" t="s">
+        <v>427</v>
       </c>
       <c r="O172" s="37" t="s">
         <v>40</v>
       </c>
       <c r="P172" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q172" s="73" t="s">
-        <v>596</v>
+        <v>428</v>
+      </c>
+      <c r="Q172" s="66" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="173" s="7" customFormat="1" spans="1:17">
@@ -13546,7 +13363,7 @@
       <c r="D173" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="E173" s="57" t="s">
+      <c r="E173" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F173" s="37" t="s">
@@ -13555,7 +13372,7 @@
       <c r="G173" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H173" s="57" t="s">
+      <c r="H173" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I173" s="37" t="s">
@@ -13570,17 +13387,17 @@
       <c r="M173" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N173" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="O173" s="57" t="s">
+      <c r="N173" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="O173" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="P173" s="59" t="s">
+      <c r="P173" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="Q173" s="75" t="s">
-        <v>596</v>
+      <c r="Q173" s="67" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="174" s="7" customFormat="1" spans="1:17">
@@ -13594,18 +13411,18 @@
         <v>19</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="E174" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="E174" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F174" s="57" t="s">
+      <c r="F174" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G174" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H174" s="57" t="s">
+      <c r="H174" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I174" s="37" t="s">
@@ -13617,20 +13434,20 @@
       <c r="L174" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M174" s="57" t="s">
+      <c r="M174" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N174" s="63" t="s">
-        <v>421</v>
-      </c>
-      <c r="O174" s="57" t="s">
+      <c r="N174" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="O174" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="P174" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q174" s="75" t="s">
-        <v>596</v>
+      <c r="P174" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q174" s="67" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="175" s="7" customFormat="1" spans="1:17">
@@ -13638,74 +13455,74 @@
         <v>20</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C175" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="E175" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="E175" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F175" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G175" s="37" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H175" s="37" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I175" s="37" t="s">
         <v>61</v>
       </c>
       <c r="J175" s="37" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L175" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="M175" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="M175" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="N175" s="63" t="s">
+      <c r="N175" s="55" t="s">
         <v>605</v>
       </c>
-      <c r="O175" s="57" t="s">
-        <v>408</v>
+      <c r="O175" s="37" t="s">
+        <v>412</v>
       </c>
       <c r="P175" s="35" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q175" s="37" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" s="7" customFormat="1" spans="1:17">
-      <c r="A176" s="57" t="s">
+      <c r="A176" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B176" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="C176" s="57" t="s">
+      <c r="B176" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D176" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="E176" s="57" t="s">
+      <c r="D176" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E176" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F176" s="57" t="s">
+      <c r="F176" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G176" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H176" s="57" t="s">
+      <c r="H176" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I176" s="37" t="s">
@@ -13717,36 +13534,36 @@
       <c r="L176" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M176" s="57" t="s">
+      <c r="M176" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N176" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="O176" s="57" t="s">
+      <c r="N176" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O176" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="P176" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q176" s="75" t="s">
-        <v>596</v>
+      <c r="P176" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q176" s="67" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="177" s="7" customFormat="1" spans="1:17">
-      <c r="A177" s="57" t="s">
+      <c r="A177" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B177" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="B177" s="59" t="s">
+      <c r="C177" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="D177" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="C177" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="D177" s="57" t="s">
-        <v>608</v>
-      </c>
-      <c r="E177" s="57" t="s">
+      <c r="E177" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F177" s="37" t="s">
@@ -13755,11 +13572,11 @@
       <c r="G177" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H177" s="57" t="s">
+      <c r="H177" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J177" s="46" t="s">
         <v>27</v>
@@ -13767,20 +13584,20 @@
       <c r="L177" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M177" s="57" t="s">
+      <c r="M177" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N177" s="63" t="s">
-        <v>598</v>
-      </c>
-      <c r="O177" s="57" t="s">
-        <v>609</v>
-      </c>
-      <c r="P177" s="59" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q177" s="75" t="s">
-        <v>596</v>
+      <c r="N177" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="O177" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="P177" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q177" s="67" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="178" s="7" customFormat="1" spans="1:17">
@@ -13794,9 +13611,9 @@
         <v>19</v>
       </c>
       <c r="D178" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="E178" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="E178" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F178" s="37" t="s">
@@ -13805,7 +13622,7 @@
       <c r="G178" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H178" s="57" t="s">
+      <c r="H178" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I178" s="37" t="s">
@@ -13814,23 +13631,23 @@
       <c r="J178" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="L178" s="57" t="s">
+      <c r="L178" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="M178" s="57" t="s">
+      <c r="M178" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N178" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="O178" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="P178" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q178" s="75" t="s">
-        <v>596</v>
+      <c r="N178" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O178" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="P178" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q178" s="67" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="179" s="7" customFormat="1" spans="1:17">
@@ -13838,52 +13655,52 @@
         <v>1000</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C179" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D179" s="59" t="s">
-        <v>612</v>
-      </c>
-      <c r="E179" s="57" t="s">
+      <c r="D179" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="E179" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F179" s="57" t="s">
+      <c r="F179" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G179" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="H179" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="I179" s="57" t="s">
+      <c r="G179" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="H179" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="I179" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="J179" s="64" t="s">
+      <c r="J179" s="38" t="s">
         <v>201</v>
       </c>
       <c r="K179" s="7" t="s">
         <v>202</v>
       </c>
       <c r="L179" s="37" t="s">
-        <v>614</v>
-      </c>
-      <c r="M179" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="M179" s="37" t="s">
         <v>125</v>
       </c>
       <c r="N179" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="O179" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="P179" s="59" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q179" s="57" t="s">
-        <v>615</v>
+        <v>274</v>
+      </c>
+      <c r="O179" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="P179" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q179" s="37" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="180" s="7" customFormat="1" spans="1:17">
@@ -13891,53 +13708,103 @@
         <v>1000</v>
       </c>
       <c r="B180" s="36" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C180" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="E180" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="E180" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F180" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G180" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="H180" s="57" t="s">
-        <v>396</v>
+      <c r="G180" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="H180" s="37" t="s">
+        <v>400</v>
       </c>
       <c r="I180" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="J180" s="57" t="s">
-        <v>601</v>
+      <c r="J180" s="37" t="s">
+        <v>435</v>
       </c>
       <c r="L180" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="M180" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M180" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="N180" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="O180" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="P180" s="65" t="s">
+      <c r="N180" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O180" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="Q180" s="57" t="s">
+      <c r="P180" s="56" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q180" s="37" t="s">
+        <v>369</v>
+      </c>
+    